--- a/static/data/source/retail_trade_state_gdp.xlsx
+++ b/static/data/source/retail_trade_state_gdp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aboddupalli\Box\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1CEA9F-8309-4BED-AEDA-2B85F4AA82D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDBB6EE-7133-4099-9EA9-C7DF64E2A5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_1" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>Geography</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>2023 Q3</t>
+  </si>
+  <si>
+    <t>2023 Q4</t>
   </si>
 </sst>
 </file>
@@ -700,29 +703,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X56"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:X56"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:Y56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="3" customWidth="1"/>
     <col min="2" max="23" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.77734375" style="9"/>
-    <col min="25" max="16384" width="8.77734375" style="1"/>
+    <col min="24" max="25" width="8.7109375" style="9"/>
+    <col min="26" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -795,3852 +798,4011 @@
       <c r="X4" s="11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Y4" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7">
-        <v>1630598.580806681</v>
+        <v>1598581.4980233342</v>
       </c>
       <c r="C5" s="7">
-        <v>1617779.1622571328</v>
+        <v>1586013.7909555489</v>
       </c>
       <c r="D5" s="7">
-        <v>1641436.1015191211</v>
+        <v>1609206.2221579405</v>
       </c>
       <c r="E5" s="7">
-        <v>1621507.0177126457</v>
+        <v>1589668.4493298619</v>
       </c>
       <c r="F5" s="7">
-        <v>1650150.160263231</v>
+        <v>1617749.1788641403</v>
       </c>
       <c r="G5" s="7">
-        <v>1658360.8798741072</v>
+        <v>1625798.6795873109</v>
       </c>
       <c r="H5" s="7">
-        <v>1688120.8061265545</v>
+        <v>1654974.2645839357</v>
       </c>
       <c r="I5" s="7">
-        <v>1691832.9322341539</v>
+        <v>1658613.5024587791</v>
       </c>
       <c r="J5" s="7">
-        <v>1654743.129853989</v>
+        <v>1622251.9647092854</v>
       </c>
       <c r="K5" s="7">
-        <v>1546839.803166996</v>
+        <v>1516467.3383473144</v>
       </c>
       <c r="L5" s="7">
-        <v>1714200.0649672304</v>
+        <v>1680541.4527046571</v>
       </c>
       <c r="M5" s="7">
-        <v>1675380.0343165747</v>
+        <v>1642483.6600134992</v>
       </c>
       <c r="N5" s="7">
-        <v>1751226.9499557407</v>
+        <v>1716841.3084562721</v>
       </c>
       <c r="O5" s="7">
-        <v>1664951.4766498869</v>
+        <v>1632259.8688651044</v>
       </c>
       <c r="P5" s="7">
-        <v>1593131.274076591</v>
+        <v>1561849.8682865684</v>
       </c>
       <c r="Q5" s="7">
-        <v>1614711.9394139897</v>
+        <v>1583006.7935589626</v>
       </c>
       <c r="R5" s="7">
-        <v>1540721.0868286227</v>
+        <v>1510468.7640536109</v>
       </c>
       <c r="S5" s="7">
-        <v>1547516.165127279</v>
+        <v>1517130.4198245106</v>
       </c>
       <c r="T5" s="7">
-        <v>1585282.3294677266</v>
+        <v>1554155.0390512003</v>
       </c>
       <c r="U5" s="7">
-        <v>1636025.2058368577</v>
+        <v>1603901.5703403719</v>
       </c>
       <c r="V5" s="7">
-        <v>1680995.4115217139</v>
+        <v>1647988.7783241731</v>
       </c>
       <c r="W5" s="7">
-        <v>1669182.6712386336</v>
+        <v>1636407.9832224471</v>
       </c>
       <c r="X5" s="14">
+        <v>1724644.0811879276</v>
+      </c>
+      <c r="Y5" s="14">
         <v>1759186</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="7">
-        <v>20990.552350947371</v>
+        <v>20526.780129813935</v>
       </c>
       <c r="C6" s="7">
-        <v>20916.733145127746</v>
+        <v>20454.591909995674</v>
       </c>
       <c r="D6" s="7">
-        <v>21161.641615264125</v>
+        <v>20694.089291215925</v>
       </c>
       <c r="E6" s="7">
-        <v>20991.368032779632</v>
+        <v>20527.577789701427</v>
       </c>
       <c r="F6" s="7">
-        <v>21455.694915794225</v>
+        <v>20981.645680657726</v>
       </c>
       <c r="G6" s="7">
-        <v>21503.412302981495</v>
+        <v>21028.308784076162</v>
       </c>
       <c r="H6" s="7">
-        <v>21928.586458047561</v>
+        <v>21444.089000432712</v>
       </c>
       <c r="I6" s="7">
-        <v>22181.243905590418</v>
+        <v>21691.164150584165</v>
       </c>
       <c r="J6" s="7">
-        <v>21582.737361168882</v>
+        <v>21105.881208135008</v>
       </c>
       <c r="K6" s="7">
-        <v>21667.772192182096</v>
+        <v>21189.03725140632</v>
       </c>
       <c r="L6" s="7">
-        <v>23269.363469826636</v>
+        <v>22755.242440501948</v>
       </c>
       <c r="M6" s="7">
-        <v>22571.547662327321</v>
+        <v>22072.844406750326</v>
       </c>
       <c r="N6" s="7">
-        <v>23376.625630768958</v>
+        <v>22860.134715707489</v>
       </c>
       <c r="O6" s="7">
-        <v>22073.981744648088</v>
+        <v>21586.271875378625</v>
       </c>
       <c r="P6" s="7">
-        <v>21003.195419347416</v>
+        <v>20539.143858070103</v>
       </c>
       <c r="Q6" s="7">
-        <v>20898.788144818005</v>
+        <v>20437.043392470794</v>
       </c>
       <c r="R6" s="7">
-        <v>20626.962174217017</v>
+        <v>20171.223234963221</v>
       </c>
       <c r="S6" s="7">
-        <v>20186.290064337991</v>
+        <v>19740.287480744268</v>
       </c>
       <c r="T6" s="7">
-        <v>20690.38143667531</v>
+        <v>20233.241291215923</v>
       </c>
       <c r="U6" s="7">
-        <v>21465.279177323293</v>
+        <v>20991.01818433579</v>
       </c>
       <c r="V6" s="7">
-        <v>21913.088503234601</v>
+        <v>21428.93346257032</v>
       </c>
       <c r="W6" s="7">
-        <v>21807.049865040666</v>
+        <v>21325.237677196019</v>
       </c>
       <c r="X6" s="14">
+        <v>22533.29357680658</v>
+      </c>
+      <c r="Y6" s="14">
         <v>23042.400000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="7">
-        <v>3346.2646031253821</v>
+        <v>3260.0301444605161</v>
       </c>
       <c r="C7" s="7">
-        <v>3341.1470000657778</v>
+        <v>3255.0444238973214</v>
       </c>
       <c r="D7" s="7">
-        <v>3377.6827991242167</v>
+        <v>3290.6386820953185</v>
       </c>
       <c r="E7" s="7">
-        <v>3352.9369210385366</v>
+        <v>3266.5305143087321</v>
       </c>
       <c r="F7" s="7">
-        <v>3426.3324180832374</v>
+        <v>3338.0345826391058</v>
       </c>
       <c r="G7" s="7">
-        <v>3426.3000281904547</v>
+        <v>3338.0030274456676</v>
       </c>
       <c r="H7" s="7">
-        <v>3514.918774842839</v>
+        <v>3424.3380366918732</v>
       </c>
       <c r="I7" s="7">
-        <v>3512.1980238491251</v>
+        <v>3421.6874004430861</v>
       </c>
       <c r="J7" s="7">
-        <v>3410.0403020137387</v>
+        <v>3322.1623203398212</v>
       </c>
       <c r="K7" s="7">
-        <v>3304.0929627228224</v>
+        <v>3218.945282604318</v>
       </c>
       <c r="L7" s="7">
-        <v>3440.4544113363218</v>
+        <v>3351.7926469780473</v>
       </c>
       <c r="M7" s="7">
-        <v>3521.5263129704281</v>
+        <v>3430.7752961532124</v>
       </c>
       <c r="N7" s="7">
-        <v>3558.1592817072137</v>
+        <v>3466.4642199315231</v>
       </c>
       <c r="O7" s="7">
-        <v>3276.6263336434286</v>
+        <v>3192.186478568944</v>
       </c>
       <c r="P7" s="7">
-        <v>3104.7331726477419</v>
+        <v>3024.7230669937935</v>
       </c>
       <c r="Q7" s="7">
-        <v>3117.883469117357</v>
+        <v>3037.5344755295973</v>
       </c>
       <c r="R7" s="7">
-        <v>3040.9574737593848</v>
+        <v>2962.5908911144884</v>
       </c>
       <c r="S7" s="7">
-        <v>3028.454975145416</v>
+        <v>2950.4105864474432</v>
       </c>
       <c r="T7" s="7">
-        <v>3087.0482911886038</v>
+        <v>3007.4939313766777</v>
       </c>
       <c r="U7" s="7">
-        <v>3214.1138405735819</v>
+        <v>3131.2849552337188</v>
       </c>
       <c r="V7" s="7">
-        <v>3297.3882549168852</v>
+        <v>3212.4133575626638</v>
       </c>
       <c r="W7" s="7">
-        <v>3277.7275899980268</v>
+        <v>3193.259355145834</v>
       </c>
       <c r="X7" s="14">
+        <v>3358.0721304721974</v>
+      </c>
+      <c r="Y7" s="14">
         <v>3446.9</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="7">
-        <v>34280.177825126259</v>
+        <v>33569.33721954612</v>
       </c>
       <c r="C8" s="7">
-        <v>33939.675110479795</v>
+        <v>33235.895237113931</v>
       </c>
       <c r="D8" s="7">
-        <v>34520.47354008838</v>
+        <v>33804.650114628683</v>
       </c>
       <c r="E8" s="7">
-        <v>34445.066934974748</v>
+        <v>33730.807155920767</v>
       </c>
       <c r="F8" s="7">
-        <v>34738.985124684346</v>
+        <v>34018.63059941784</v>
       </c>
       <c r="G8" s="7">
-        <v>35165.618939393935</v>
+        <v>34436.417650240845</v>
       </c>
       <c r="H8" s="7">
-        <v>35591.58247316919</v>
+        <v>34853.548319208676</v>
       </c>
       <c r="I8" s="7">
-        <v>35699.832844065655</v>
+        <v>34959.553988820488</v>
       </c>
       <c r="J8" s="7">
-        <v>34706.141358901514</v>
+        <v>33986.467888513951</v>
       </c>
       <c r="K8" s="7">
-        <v>34782.553385416664</v>
+        <v>34061.295420004637</v>
       </c>
       <c r="L8" s="7">
-        <v>37278.344444444447</v>
+        <v>36505.333257772851</v>
       </c>
       <c r="M8" s="7">
-        <v>37109.76878945707</v>
+        <v>36340.253221194711</v>
       </c>
       <c r="N8" s="7">
-        <v>37331.296638257576</v>
+        <v>36557.187424332194</v>
       </c>
       <c r="O8" s="7">
-        <v>36075.525307765151</v>
+        <v>35327.456018649704</v>
       </c>
       <c r="P8" s="7">
-        <v>34682.681526199493</v>
+        <v>33963.494523582594</v>
       </c>
       <c r="Q8" s="7">
-        <v>34846.230074179293</v>
+        <v>34123.651696246874</v>
       </c>
       <c r="R8" s="7">
-        <v>35448.812634154034</v>
+        <v>34713.738984055017</v>
       </c>
       <c r="S8" s="7">
-        <v>34545.60907512626</v>
+        <v>33829.264434197983</v>
       </c>
       <c r="T8" s="7">
-        <v>35013.465167297982</v>
+        <v>34287.418969114653</v>
       </c>
       <c r="U8" s="7">
-        <v>36071.838762626263</v>
+        <v>35323.845918446204</v>
       </c>
       <c r="V8" s="7">
-        <v>36655.653456439388</v>
+        <v>35895.55451430926</v>
       </c>
       <c r="W8" s="7">
-        <v>36457.58544034091</v>
+        <v>35701.593676103141</v>
       </c>
       <c r="X8" s="14">
+        <v>37429.51890986837</v>
+      </c>
+      <c r="Y8" s="14">
         <v>38222.1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="7">
-        <v>12862.020269147699</v>
+        <v>12559.56538445118</v>
       </c>
       <c r="C9" s="7">
-        <v>12768.441601594948</v>
+        <v>12468.187251846477</v>
       </c>
       <c r="D9" s="7">
-        <v>12732.430636318326</v>
+        <v>12433.023096955983</v>
       </c>
       <c r="E9" s="7">
-        <v>12632.870908788833</v>
+        <v>12335.804551082269</v>
       </c>
       <c r="F9" s="7">
-        <v>12659.162651603256</v>
+        <v>12361.478034410622</v>
       </c>
       <c r="G9" s="7">
-        <v>12528.326964612061</v>
+        <v>12233.718994151048</v>
       </c>
       <c r="H9" s="7">
-        <v>12763.83120119621</v>
+        <v>12463.685266618282</v>
       </c>
       <c r="I9" s="7">
-        <v>12966.688818740653</v>
+        <v>12661.77261665884</v>
       </c>
       <c r="J9" s="7">
-        <v>12851.678019604586</v>
+        <v>12549.466336506852</v>
       </c>
       <c r="K9" s="7">
-        <v>13047.806944675194</v>
+        <v>12740.983221619776</v>
       </c>
       <c r="L9" s="7">
-        <v>13930.760923741485</v>
+        <v>13603.174230457244</v>
       </c>
       <c r="M9" s="7">
-        <v>13343.744808107658</v>
+        <v>13029.962003159288</v>
       </c>
       <c r="N9" s="7">
-        <v>14055.989367004486</v>
+        <v>13725.457883277122</v>
       </c>
       <c r="O9" s="7">
-        <v>13455.515866422993</v>
+        <v>13139.104726123895</v>
       </c>
       <c r="P9" s="7">
-        <v>12705.017444758265</v>
+        <v>12406.254536139691</v>
       </c>
       <c r="Q9" s="7">
-        <v>12698.164146868248</v>
+        <v>12399.562395935618</v>
       </c>
       <c r="R9" s="7">
-        <v>12645.456055823226</v>
+        <v>12348.093754002475</v>
       </c>
       <c r="S9" s="7">
-        <v>12604.585479315501</v>
+        <v>12308.184263330915</v>
       </c>
       <c r="T9" s="7">
-        <v>12893.296228609403</v>
+        <v>12590.105878837041</v>
       </c>
       <c r="U9" s="7">
-        <v>13324.430968599436</v>
+        <v>13011.102335311447</v>
       </c>
       <c r="V9" s="7">
-        <v>13739.367004485795</v>
+        <v>13416.281005848952</v>
       </c>
       <c r="W9" s="7">
-        <v>13590.214321315832</v>
+        <v>13270.635699953038</v>
       </c>
       <c r="X9" s="14">
+        <v>13914.906288690605</v>
+      </c>
+      <c r="Y9" s="14">
         <v>14250</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="7">
-        <v>215893.40600326293</v>
+        <v>211632.52667000578</v>
       </c>
       <c r="C10" s="7">
-        <v>212273.51519864463</v>
+        <v>208084.07814889017</v>
       </c>
       <c r="D10" s="7">
-        <v>217566.3939537094</v>
+        <v>213272.49647545739</v>
       </c>
       <c r="E10" s="7">
-        <v>216346.41911327047</v>
+        <v>212076.59909843412</v>
       </c>
       <c r="F10" s="7">
-        <v>219991.59437054038</v>
+        <v>215649.83305741553</v>
       </c>
       <c r="G10" s="7">
-        <v>222517.93259797772</v>
+        <v>218126.31139083672</v>
       </c>
       <c r="H10" s="7">
-        <v>228647.30532826565</v>
+        <v>224134.71462012973</v>
       </c>
       <c r="I10" s="7">
-        <v>230187.54990229124</v>
+        <v>225644.56087678598</v>
       </c>
       <c r="J10" s="7">
-        <v>221268.45922944529</v>
+        <v>216901.49766963674</v>
       </c>
       <c r="K10" s="7">
-        <v>196965.88615583206</v>
+        <v>193078.56097432383</v>
       </c>
       <c r="L10" s="7">
-        <v>220516.24676306071</v>
+        <v>216164.13089313018</v>
       </c>
       <c r="M10" s="7">
-        <v>218194.29119455701</v>
+        <v>213888.00151579059</v>
       </c>
       <c r="N10" s="7">
-        <v>226521.30426781171</v>
+        <v>222050.67238624982</v>
       </c>
       <c r="O10" s="7">
-        <v>215920.7974936355</v>
+        <v>211659.37756102704</v>
       </c>
       <c r="P10" s="7">
-        <v>207385.18768600523</v>
+        <v>203292.22682817525</v>
       </c>
       <c r="Q10" s="7">
-        <v>212530.5738006024</v>
+        <v>208336.06343385883</v>
       </c>
       <c r="R10" s="7">
-        <v>204681.85829000681</v>
+        <v>200642.25042969367</v>
       </c>
       <c r="S10" s="7">
-        <v>207996.22862508518</v>
+        <v>203891.20824326464</v>
       </c>
       <c r="T10" s="7">
-        <v>215126.44427283161</v>
+        <v>210880.70172141088</v>
       </c>
       <c r="U10" s="7">
-        <v>221354.8477760049</v>
+        <v>216986.18124901145</v>
       </c>
       <c r="V10" s="7">
-        <v>223885.40007888418</v>
+        <v>219466.7904887436</v>
       </c>
       <c r="W10" s="7">
-        <v>222956.19644393848</v>
+        <v>218555.92564717669</v>
       </c>
       <c r="X10" s="14">
+        <v>230413.69221279063</v>
+      </c>
+      <c r="Y10" s="14">
         <v>235052.7</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="7">
-        <v>28224.012690289735</v>
+        <v>27659.494309451042</v>
       </c>
       <c r="C11" s="7">
-        <v>27934.056646248486</v>
+        <v>27375.337777984165</v>
       </c>
       <c r="D11" s="7">
-        <v>28596.271850473411</v>
+        <v>28024.307783556509</v>
       </c>
       <c r="E11" s="7">
-        <v>28327.974521206484</v>
+        <v>27761.376763310316</v>
       </c>
       <c r="F11" s="7">
-        <v>28793.095420985072</v>
+        <v>28217.194616774461</v>
       </c>
       <c r="G11" s="7">
-        <v>29057.87320910117</v>
+        <v>28476.676491447291</v>
       </c>
       <c r="H11" s="7">
-        <v>29375.98558234904</v>
+        <v>28788.426187501056</v>
       </c>
       <c r="I11" s="7">
-        <v>29729.564101039869</v>
+        <v>29134.932658178692</v>
       </c>
       <c r="J11" s="7">
-        <v>29298.01420916148</v>
+        <v>28712.014347106604</v>
       </c>
       <c r="K11" s="7">
-        <v>27923.227288861322</v>
+        <v>27364.725022373819</v>
       </c>
       <c r="L11" s="7">
-        <v>30711.245348186058</v>
+        <v>30096.978954256094</v>
       </c>
       <c r="M11" s="7">
-        <v>30161.113992918254</v>
+        <v>29557.850969250776</v>
       </c>
       <c r="N11" s="7">
-        <v>30501.697282744481</v>
+        <v>29891.622133195997</v>
       </c>
       <c r="O11" s="7">
-        <v>28836.954318403074</v>
+        <v>28260.176276996339</v>
       </c>
       <c r="P11" s="7">
-        <v>27951.925085937302</v>
+        <v>27392.848824741228</v>
       </c>
       <c r="Q11" s="7">
-        <v>28098.392144598663</v>
+        <v>27536.386344371091</v>
       </c>
       <c r="R11" s="7">
-        <v>27687.418031755882</v>
+        <v>27133.632268958649</v>
       </c>
       <c r="S11" s="7">
-        <v>27802.75068792915</v>
+        <v>27246.658116208782</v>
       </c>
       <c r="T11" s="7">
-        <v>28422.460664409471</v>
+        <v>27853.973056010538</v>
       </c>
       <c r="U11" s="7">
-        <v>29453.144753732569</v>
+        <v>28864.04207122474</v>
       </c>
       <c r="V11" s="7">
-        <v>30130.521058299521</v>
+        <v>29527.869934651564</v>
       </c>
       <c r="W11" s="7">
-        <v>29820.801437026701</v>
+        <v>29224.34512419581</v>
       </c>
       <c r="X11" s="14">
+        <v>30796.359548977562</v>
+      </c>
+      <c r="Y11" s="14">
         <v>31424.9</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="7">
-        <v>20214.708423450702</v>
+        <v>19947.22679414945</v>
       </c>
       <c r="C12" s="7">
-        <v>20189.524958906477</v>
+        <v>19922.376557964828</v>
       </c>
       <c r="D12" s="7">
-        <v>20537.017725485668</v>
+        <v>20265.271289814656</v>
       </c>
       <c r="E12" s="7">
-        <v>20111.241476098468</v>
+        <v>19845.128924553715</v>
       </c>
       <c r="F12" s="7">
-        <v>20410.319520143032</v>
+        <v>20140.24955893233</v>
       </c>
       <c r="G12" s="7">
-        <v>20154.385240937798</v>
+        <v>19887.701809800241</v>
       </c>
       <c r="H12" s="7">
-        <v>20469.666599379027</v>
+        <v>20198.811355832528</v>
       </c>
       <c r="I12" s="7">
-        <v>20133.691851467349</v>
+        <v>19867.282235881092</v>
       </c>
       <c r="J12" s="7">
-        <v>19687.612653920463</v>
+        <v>19427.105571680611</v>
       </c>
       <c r="K12" s="7">
-        <v>17288.350799280983</v>
+        <v>17059.590821998368</v>
       </c>
       <c r="L12" s="7">
-        <v>19877.757572262115</v>
+        <v>19614.734486748999</v>
       </c>
       <c r="M12" s="7">
-        <v>19349.100037488824</v>
+        <v>19093.072164361733</v>
       </c>
       <c r="N12" s="7">
-        <v>20337.697436341088</v>
+        <v>20068.588412725512</v>
       </c>
       <c r="O12" s="7">
-        <v>19101.950687775759</v>
+        <v>18849.193102270787</v>
       </c>
       <c r="P12" s="7">
-        <v>18069.819082773407</v>
+        <v>17830.718693680876</v>
       </c>
       <c r="Q12" s="7">
-        <v>18457.917745671963</v>
+        <v>18213.682023409787</v>
       </c>
       <c r="R12" s="7">
-        <v>17392.012967288596</v>
+        <v>17161.881329083906</v>
       </c>
       <c r="S12" s="7">
-        <v>17923.598811892607</v>
+        <v>17686.433213818222</v>
       </c>
       <c r="T12" s="7">
-        <v>18468.459661062567</v>
+        <v>18224.084447859161</v>
       </c>
       <c r="U12" s="7">
-        <v>18835.864934490681</v>
+        <v>18586.628203668923</v>
       </c>
       <c r="V12" s="7">
-        <v>19422.698224567677</v>
+        <v>19165.696498017565</v>
       </c>
       <c r="W12" s="7">
-        <v>19287.995972354394</v>
+        <v>19032.776630053308</v>
       </c>
       <c r="X12" s="14">
+        <v>20040.270701724432</v>
+      </c>
+      <c r="Y12" s="14">
         <v>20309</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="7">
-        <v>4175.3831621145209</v>
+        <v>4083.0938945163707</v>
       </c>
       <c r="C13" s="7">
-        <v>4134.7116207661247</v>
+        <v>4043.3213237815444</v>
       </c>
       <c r="D13" s="7">
-        <v>4170.1833317538249</v>
+        <v>4078.0089969695005</v>
       </c>
       <c r="E13" s="7">
-        <v>4119.4345997839237</v>
+        <v>4028.3819736244591</v>
       </c>
       <c r="F13" s="7">
-        <v>4206.9046143785899</v>
+        <v>4113.9186222811231</v>
       </c>
       <c r="G13" s="7">
-        <v>4201.3016963930322</v>
+        <v>4108.4395466298429</v>
       </c>
       <c r="H13" s="7">
-        <v>4263.4174993839915</v>
+        <v>4169.1823925192075</v>
       </c>
       <c r="I13" s="7">
-        <v>4192.1919160711914</v>
+        <v>4099.5311214702087</v>
       </c>
       <c r="J13" s="7">
-        <v>4151.2382133853944</v>
+        <v>4059.4826260622967</v>
       </c>
       <c r="K13" s="7">
-        <v>3731.3015258060241</v>
+        <v>3648.8278768894284</v>
       </c>
       <c r="L13" s="7">
-        <v>4293.4475274360775</v>
+        <v>4198.5486612976465</v>
       </c>
       <c r="M13" s="7">
-        <v>4122.6189920203187</v>
+        <v>4031.4959806492866</v>
       </c>
       <c r="N13" s="7">
-        <v>4335.6104929964558</v>
+        <v>4239.7796910187853</v>
       </c>
       <c r="O13" s="7">
-        <v>4115.8068111601815</v>
+        <v>4024.8343706847818</v>
       </c>
       <c r="P13" s="7">
-        <v>3978.9585625201389</v>
+        <v>3891.0109042380655</v>
       </c>
       <c r="Q13" s="7">
-        <v>4005.1592581360528</v>
+        <v>3916.6324810246238</v>
       </c>
       <c r="R13" s="7">
-        <v>3841.8281525426942</v>
+        <v>3756.9115131182639</v>
       </c>
       <c r="S13" s="7">
-        <v>3847.3907617657651</v>
+        <v>3762.3511709591021</v>
       </c>
       <c r="T13" s="7">
-        <v>3858.1935101120184</v>
+        <v>3772.9151441572521</v>
       </c>
       <c r="U13" s="7">
-        <v>3975.3710826588831</v>
+        <v>3887.5027191088298</v>
       </c>
       <c r="V13" s="7">
-        <v>4079.569233685248</v>
+        <v>3989.3977590984491</v>
       </c>
       <c r="W13" s="7">
-        <v>4027.4903125533083</v>
+        <v>3938.4699480088593</v>
       </c>
       <c r="X13" s="14">
+        <v>4159.2885220985509</v>
+      </c>
+      <c r="Y13" s="14">
         <v>4253.3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="7">
-        <v>2396.7171376948986</v>
+        <v>2360.5955137640881</v>
       </c>
       <c r="C14" s="7">
-        <v>2318.5208940242242</v>
+        <v>2283.5777885185757</v>
       </c>
       <c r="D14" s="7">
-        <v>2381.9674109433204</v>
+        <v>2346.0680844519629</v>
       </c>
       <c r="E14" s="7">
-        <v>2306.0630478909679</v>
+        <v>2271.3076982226421</v>
       </c>
       <c r="F14" s="7">
-        <v>2310.6695010149224</v>
+        <v>2275.8447261462752</v>
       </c>
       <c r="G14" s="7">
-        <v>2418.3425063014429</v>
+        <v>2381.8949601247878</v>
       </c>
       <c r="H14" s="7">
-        <v>2396.3767593852463</v>
+        <v>2360.2602653953468</v>
       </c>
       <c r="I14" s="7">
-        <v>2373.5033369766452</v>
+        <v>2337.7315750159278</v>
       </c>
       <c r="J14" s="7">
-        <v>2208.3290892462801</v>
+        <v>2175.0467166113758</v>
       </c>
       <c r="K14" s="7">
-        <v>2059.4249247172711</v>
+        <v>2028.3867302326603</v>
       </c>
       <c r="L14" s="7">
-        <v>2105.5121478441256</v>
+        <v>2073.7793593602387</v>
       </c>
       <c r="M14" s="7">
-        <v>2009.2304699872852</v>
+        <v>1978.9487707889357</v>
       </c>
       <c r="N14" s="7">
-        <v>2023.9348129642431</v>
+        <v>1993.431500318562</v>
       </c>
       <c r="O14" s="7">
-        <v>1946.0335638286006</v>
+        <v>1916.704323659292</v>
       </c>
       <c r="P14" s="7">
-        <v>1854.1314202226135</v>
+        <v>1826.1872640991276</v>
       </c>
       <c r="Q14" s="7">
-        <v>1863.5485534563134</v>
+        <v>1835.4624689676382</v>
       </c>
       <c r="R14" s="7">
-        <v>1793.7029243157635</v>
+        <v>1766.6695037019135</v>
       </c>
       <c r="S14" s="7">
-        <v>1817.779016751801</v>
+        <v>1790.3827383175515</v>
       </c>
       <c r="T14" s="7">
-        <v>1880.499393276973</v>
+        <v>1852.1578377309575</v>
       </c>
       <c r="U14" s="7">
-        <v>1926.4050813053468</v>
+        <v>1897.3716677285408</v>
       </c>
       <c r="V14" s="7">
-        <v>1957.810653342553</v>
+        <v>1928.3039172177428</v>
       </c>
       <c r="W14" s="7">
-        <v>1946.1243313778411</v>
+        <v>1916.7937232242898</v>
       </c>
       <c r="X14" s="14">
+        <v>2003.9359492057911</v>
+      </c>
+      <c r="Y14" s="14">
         <v>2034.6</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="7">
-        <v>108650.50025998353</v>
+        <v>105743.3977887615</v>
       </c>
       <c r="C15" s="7">
-        <v>107251.56678024125</v>
+        <v>104381.89481294055</v>
       </c>
       <c r="D15" s="7">
-        <v>109699.70036979024</v>
+        <v>106764.52502062723</v>
       </c>
       <c r="E15" s="7">
-        <v>108517.26850000807</v>
+        <v>105613.73083868332</v>
       </c>
       <c r="F15" s="7">
-        <v>109254.20667237231</v>
+        <v>106330.95115630329</v>
       </c>
       <c r="G15" s="7">
-        <v>109818.35990601838</v>
+        <v>106880.00964804062</v>
       </c>
       <c r="H15" s="7">
-        <v>112124.93475059344</v>
+        <v>109124.86872126922</v>
       </c>
       <c r="I15" s="7">
-        <v>112694.29234986355</v>
+        <v>109678.99232824398</v>
       </c>
       <c r="J15" s="7">
-        <v>108889.90107868944</v>
+        <v>105976.39308968326</v>
       </c>
       <c r="K15" s="7">
-        <v>102441.69207050235</v>
+        <v>99700.715310508487</v>
       </c>
       <c r="L15" s="7">
-        <v>114124.45202335008</v>
+        <v>111070.88599548952</v>
       </c>
       <c r="M15" s="7">
-        <v>112012.52045311416</v>
+        <v>109015.46223214077</v>
       </c>
       <c r="N15" s="7">
-        <v>117106.55352592569</v>
+        <v>113973.19702653644</v>
       </c>
       <c r="O15" s="7">
-        <v>115346.43707187494</v>
+        <v>112260.17505323788</v>
       </c>
       <c r="P15" s="7">
-        <v>110325.26511779998</v>
+        <v>107373.35187216621</v>
       </c>
       <c r="Q15" s="7">
-        <v>111993.7847368676</v>
+        <v>108997.22781728602</v>
       </c>
       <c r="R15" s="7">
-        <v>109983.85873286289</v>
+        <v>107041.08031259086</v>
       </c>
       <c r="S15" s="7">
-        <v>109461.34042420915</v>
+        <v>106532.54274275296</v>
       </c>
       <c r="T15" s="7">
-        <v>112565.22408238733</v>
+        <v>109553.37747035573</v>
       </c>
       <c r="U15" s="7">
-        <v>116087.53873673841</v>
+        <v>112981.44746304779</v>
       </c>
       <c r="V15" s="7">
-        <v>122486.8267080595</v>
+        <v>119209.51315899073</v>
       </c>
       <c r="W15" s="7">
-        <v>121906.01950441649</v>
+        <v>118644.24629849363</v>
       </c>
       <c r="X15" s="14">
+        <v>125466.95652331073</v>
+      </c>
+      <c r="Y15" s="14">
         <v>128916.3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="7">
-        <v>47434.079738729502</v>
+        <v>46622.015936555894</v>
       </c>
       <c r="C16" s="7">
-        <v>47261.440983606553</v>
+        <v>46452.332729103728</v>
       </c>
       <c r="D16" s="7">
-        <v>47576.438921618843</v>
+        <v>46761.937953172201</v>
       </c>
       <c r="E16" s="7">
-        <v>46988.924833504097</v>
+        <v>46184.482011581065</v>
       </c>
       <c r="F16" s="7">
-        <v>47322.903995901637</v>
+        <v>46512.743504531725</v>
       </c>
       <c r="G16" s="7">
-        <v>47797.434605532784</v>
+        <v>46979.150226586105</v>
       </c>
       <c r="H16" s="7">
-        <v>48599.16536885246</v>
+        <v>47767.155488418932</v>
       </c>
       <c r="I16" s="7">
-        <v>48813.833977971306</v>
+        <v>47978.149005538769</v>
       </c>
       <c r="J16" s="7">
-        <v>46327.745517418029</v>
+        <v>45534.621978851967</v>
       </c>
       <c r="K16" s="7">
-        <v>45654.363985655735</v>
+        <v>44872.768630412887</v>
       </c>
       <c r="L16" s="7">
-        <v>49928.303009733609</v>
+        <v>49073.53850704935</v>
       </c>
       <c r="M16" s="7">
-        <v>49043.416406249999</v>
+        <v>48203.801019637467</v>
       </c>
       <c r="N16" s="7">
-        <v>51202.756647028684</v>
+        <v>50326.173703423963</v>
       </c>
       <c r="O16" s="7">
-        <v>49928.303009733609</v>
+        <v>49073.53850704935</v>
       </c>
       <c r="P16" s="7">
-        <v>48016.622553790985</v>
+        <v>47194.585712487416</v>
       </c>
       <c r="Q16" s="7">
-        <v>47835.397054303277</v>
+        <v>47016.462764350457</v>
       </c>
       <c r="R16" s="7">
-        <v>47026.887282274583</v>
+        <v>46221.794549345417</v>
       </c>
       <c r="S16" s="7">
-        <v>46688.38878073771</v>
+        <v>45889.091087613298</v>
       </c>
       <c r="T16" s="7">
-        <v>47506.841098872945</v>
+        <v>46693.531633937564</v>
       </c>
       <c r="U16" s="7">
-        <v>49290.172323258194</v>
+        <v>48446.332515105743</v>
       </c>
       <c r="V16" s="7">
-        <v>50565.529828381143</v>
+        <v>49699.856105236664</v>
       </c>
       <c r="W16" s="7">
-        <v>50394.698808913934</v>
+        <v>49531.949685297084</v>
       </c>
       <c r="X16" s="14">
+        <v>52024.338368580065</v>
+      </c>
+      <c r="Y16" s="14">
         <v>52930.5</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7">
-        <v>8604.5331171048147</v>
+        <v>8585.6892398286946</v>
       </c>
       <c r="C17" s="7">
-        <v>8586.9319124030626</v>
+        <v>8568.1265816624491</v>
       </c>
       <c r="D17" s="7">
-        <v>8798.4738330975961</v>
+        <v>8779.2052267860636</v>
       </c>
       <c r="E17" s="7">
-        <v>8671.0083646295661</v>
+        <v>8652.0189069495827</v>
       </c>
       <c r="F17" s="7">
-        <v>8583.5754035994742</v>
+        <v>8564.7774235935376</v>
       </c>
       <c r="G17" s="7">
-        <v>8567.9389845388487</v>
+        <v>8549.1752481993371</v>
       </c>
       <c r="H17" s="7">
-        <v>8742.6411744622746</v>
+        <v>8723.4948413470902</v>
       </c>
       <c r="I17" s="7">
-        <v>8786.4395210457005</v>
+        <v>8767.1972698072805</v>
       </c>
       <c r="J17" s="7">
-        <v>8291.2316734136475</v>
+        <v>8273.073924469536</v>
       </c>
       <c r="K17" s="7">
-        <v>7019.3604350582846</v>
+        <v>7003.9880766984625</v>
       </c>
       <c r="L17" s="7">
-        <v>7397.5816709749788</v>
+        <v>7381.3810103173055</v>
       </c>
       <c r="M17" s="7">
-        <v>7221.1602936155687</v>
+        <v>7205.3459947440142</v>
       </c>
       <c r="N17" s="7">
-        <v>7566.225771838268</v>
+        <v>7549.6557815845827</v>
       </c>
       <c r="O17" s="7">
-        <v>7275.6012290884255</v>
+        <v>7259.6677048861202</v>
       </c>
       <c r="P17" s="7">
-        <v>7192.9983660927664</v>
+        <v>7177.2457416780226</v>
       </c>
       <c r="Q17" s="7">
-        <v>7230.1655611373935</v>
+        <v>7214.3315407825585</v>
       </c>
       <c r="R17" s="7">
-        <v>7108.840047797883</v>
+        <v>7093.2717296087203</v>
       </c>
       <c r="S17" s="7">
-        <v>7268.151416865825</v>
+        <v>7252.2342077087806</v>
       </c>
       <c r="T17" s="7">
-        <v>7660.1261522703999</v>
+        <v>7643.3505207319449</v>
       </c>
       <c r="U17" s="7">
-        <v>7913.0923035653323</v>
+        <v>7895.7626776328607</v>
       </c>
       <c r="V17" s="7">
-        <v>8017.6352728868951</v>
+        <v>8000.0766984621387</v>
       </c>
       <c r="W17" s="7">
-        <v>7968.0244354484703</v>
+        <v>7950.5745084679784</v>
       </c>
       <c r="X17" s="14">
+        <v>8374.1204740120702</v>
+      </c>
+      <c r="Y17" s="14">
         <v>8392.5</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="7">
-        <v>9136.8377866400788</v>
+        <v>8929.8930578001709</v>
       </c>
       <c r="C18" s="7">
-        <v>8921.8061814556331</v>
+        <v>8719.7318091073284</v>
       </c>
       <c r="D18" s="7">
-        <v>9124.4777666998998</v>
+        <v>8917.8129860252866</v>
       </c>
       <c r="E18" s="7">
-        <v>8939.650448654038</v>
+        <v>8737.1719127293472</v>
       </c>
       <c r="F18" s="7">
-        <v>9622.0708873379845</v>
+        <v>9404.1358755585134</v>
       </c>
       <c r="G18" s="7">
-        <v>9670.6924227318032</v>
+        <v>9451.6561579047429</v>
       </c>
       <c r="H18" s="7">
-        <v>9851.9181455633097</v>
+        <v>9628.7772102861472</v>
       </c>
       <c r="I18" s="7">
-        <v>9977.6465603190427</v>
+        <v>9751.6579403935721</v>
       </c>
       <c r="J18" s="7">
-        <v>9768.7540378863396</v>
+        <v>9547.4967273505081</v>
       </c>
       <c r="K18" s="7">
-        <v>8864.835493519442</v>
+        <v>8664.0514782774026</v>
       </c>
       <c r="L18" s="7">
-        <v>10036.172482552342</v>
+        <v>9808.8582802547771</v>
       </c>
       <c r="M18" s="7">
-        <v>10285.582951146558</v>
+        <v>10052.619728586367</v>
       </c>
       <c r="N18" s="7">
-        <v>10344.272582253239</v>
+        <v>10109.980069398231</v>
       </c>
       <c r="O18" s="7">
-        <v>9615.2769690927216</v>
+        <v>9397.4958361060944</v>
       </c>
       <c r="P18" s="7">
-        <v>9160.4937188434687</v>
+        <v>8953.0131951706426</v>
       </c>
       <c r="Q18" s="7">
-        <v>9521.8810568295103</v>
+        <v>9306.2152937541578</v>
       </c>
       <c r="R18" s="7">
-        <v>8830.12921236291</v>
+        <v>8630.1312767373329</v>
       </c>
       <c r="S18" s="7">
-        <v>8934.5754735792616</v>
+        <v>8732.211883258864</v>
       </c>
       <c r="T18" s="7">
-        <v>9160.9029910269182</v>
+        <v>8953.4131975472956</v>
       </c>
       <c r="U18" s="7">
-        <v>9691.4015952143563</v>
+        <v>9471.8962781633236</v>
       </c>
       <c r="V18" s="7">
-        <v>9624.3628115653028</v>
+        <v>9406.3758888677621</v>
       </c>
       <c r="W18" s="7">
-        <v>9471.1313060817538</v>
+        <v>9256.6149990493377</v>
       </c>
       <c r="X18" s="14">
+        <v>9869.5786410305154</v>
+      </c>
+      <c r="Y18" s="14">
         <v>10098.299999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="7">
-        <v>61704.676072969094</v>
+        <v>60659.166711425998</v>
       </c>
       <c r="C19" s="7">
-        <v>61722.547154924519</v>
+        <v>60676.734990017496</v>
       </c>
       <c r="D19" s="7">
-        <v>61702.888964773541</v>
+        <v>60657.409883566856</v>
       </c>
       <c r="E19" s="7">
-        <v>61259.09042954709</v>
+        <v>60221.1309652114</v>
       </c>
       <c r="F19" s="7">
-        <v>61536.687902588063</v>
+        <v>60494.024892665962</v>
       </c>
       <c r="G19" s="7">
-        <v>61685.613585549967</v>
+        <v>60640.427214261748</v>
       </c>
       <c r="H19" s="7">
-        <v>63017.604893961186</v>
+        <v>61949.84957861447</v>
       </c>
       <c r="I19" s="7">
-        <v>62734.050393601734</v>
+        <v>61671.09955829609</v>
       </c>
       <c r="J19" s="7">
-        <v>61797.009996405468</v>
+        <v>60749.936150815396</v>
       </c>
       <c r="K19" s="7">
-        <v>58134.033898274618</v>
+        <v>57149.024648845392</v>
       </c>
       <c r="L19" s="7">
-        <v>64038.043673616106</v>
+        <v>62952.998286188813</v>
       </c>
       <c r="M19" s="7">
-        <v>62464.197056074772</v>
+        <v>61405.818551564524</v>
       </c>
       <c r="N19" s="7">
-        <v>64995.933666427038</v>
+        <v>63894.65801869292</v>
       </c>
       <c r="O19" s="7">
-        <v>60943.36798166787</v>
+        <v>59910.758043428337</v>
       </c>
       <c r="P19" s="7">
-        <v>58402.100127606041</v>
+        <v>57412.548827717808</v>
       </c>
       <c r="Q19" s="7">
-        <v>58596.894920920204</v>
+        <v>57604.043064365105</v>
       </c>
       <c r="R19" s="7">
-        <v>57736.700176132275</v>
+        <v>56758.423254827831</v>
       </c>
       <c r="S19" s="7">
-        <v>57657.471712796549</v>
+        <v>56680.537219738871</v>
       </c>
       <c r="T19" s="7">
-        <v>58976.357561107114</v>
+        <v>57977.076179791169</v>
       </c>
       <c r="U19" s="7">
-        <v>59824.042548526246</v>
+        <v>58810.398194314395</v>
       </c>
       <c r="V19" s="7">
-        <v>63627.008788641273</v>
+        <v>62548.927878584436</v>
       </c>
       <c r="W19" s="7">
-        <v>62929.440889647733</v>
+        <v>61863.179404229762</v>
       </c>
       <c r="X19" s="14">
+        <v>65166.601388717121</v>
+      </c>
+      <c r="Y19" s="14">
         <v>66289.8</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="7">
-        <v>29149.222505901191</v>
+        <v>28533.248479080725</v>
       </c>
       <c r="C20" s="7">
-        <v>28900.84255365331</v>
+        <v>28290.117229412703</v>
       </c>
       <c r="D20" s="7">
-        <v>29190.761421168303</v>
+        <v>28573.909604454755</v>
       </c>
       <c r="E20" s="7">
-        <v>29028.304430637334</v>
+        <v>28414.885614122068</v>
       </c>
       <c r="F20" s="7">
-        <v>28419.161844425755</v>
+        <v>27818.61527558916</v>
       </c>
       <c r="G20" s="7">
-        <v>28597.836082697995</v>
+        <v>27993.513814869246</v>
       </c>
       <c r="H20" s="7">
-        <v>29060.169899883338</v>
+        <v>28446.077710299403</v>
       </c>
       <c r="I20" s="7">
-        <v>29407.560417288441</v>
+        <v>28786.127258804161</v>
       </c>
       <c r="J20" s="7">
-        <v>28538.941867216541</v>
+        <v>27935.864137112912</v>
       </c>
       <c r="K20" s="7">
-        <v>28243.901763572729</v>
+        <v>27647.058746613788</v>
       </c>
       <c r="L20" s="7">
-        <v>30308.897975961147</v>
+        <v>29668.417979248927</v>
       </c>
       <c r="M20" s="7">
-        <v>29617.815611688417</v>
+        <v>28991.939393402856</v>
       </c>
       <c r="N20" s="7">
-        <v>31458.615486881732</v>
+        <v>30793.839949361711</v>
       </c>
       <c r="O20" s="7">
-        <v>29436.011729115231</v>
+        <v>28813.977344676783</v>
       </c>
       <c r="P20" s="7">
-        <v>28019.705426377626</v>
+        <v>27427.600069937504</v>
       </c>
       <c r="Q20" s="7">
-        <v>28348.887104213583</v>
+        <v>27749.825563483777</v>
       </c>
       <c r="R20" s="7">
-        <v>27877.164354125405</v>
+        <v>27288.071139715648</v>
       </c>
       <c r="S20" s="7">
-        <v>27784.982103806604</v>
+        <v>27197.83686148834</v>
       </c>
       <c r="T20" s="7">
-        <v>28801.831988496084</v>
+        <v>28193.198930575967</v>
       </c>
       <c r="U20" s="7">
-        <v>29553.800160078143</v>
+        <v>28929.27670018945</v>
       </c>
       <c r="V20" s="7">
-        <v>30162.658233171449</v>
+        <v>29525.268537863631</v>
       </c>
       <c r="W20" s="7">
-        <v>29903.182269311121</v>
+        <v>29271.275754705286</v>
       </c>
       <c r="X20" s="14">
+        <v>30794.118450220438</v>
+      </c>
+      <c r="Y20" s="14">
         <v>31458.9</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="7">
-        <v>14271.638731229557</v>
+        <v>14048.154852370848</v>
       </c>
       <c r="C21" s="7">
-        <v>14088.34962273268</v>
+        <v>13867.735923093811</v>
       </c>
       <c r="D21" s="7">
-        <v>14257.025704356229</v>
+        <v>14033.770655275866</v>
       </c>
       <c r="E21" s="7">
-        <v>14120.776625223014</v>
+        <v>13899.655141409336</v>
       </c>
       <c r="F21" s="7">
-        <v>14293.76702906631</v>
+        <v>14069.936636543247</v>
       </c>
       <c r="G21" s="7">
-        <v>14320.348820807316</v>
+        <v>14096.102176020782</v>
       </c>
       <c r="H21" s="7">
-        <v>14620.542144290812</v>
+        <v>14391.594682057661</v>
       </c>
       <c r="I21" s="7">
-        <v>14662.850336381209</v>
+        <v>14433.240357456461</v>
       </c>
       <c r="J21" s="7">
-        <v>14081.391038507287</v>
+        <v>13860.886305429534</v>
       </c>
       <c r="K21" s="7">
-        <v>14015.562831735058</v>
+        <v>13796.088922325478</v>
       </c>
       <c r="L21" s="7">
-        <v>14712.812971119536</v>
+        <v>14482.420612285965</v>
       </c>
       <c r="M21" s="7">
-        <v>14706.132730263158</v>
+        <v>14475.844979328258</v>
       </c>
       <c r="N21" s="7">
-        <v>15246.258037838241</v>
+        <v>15007.512302429384</v>
       </c>
       <c r="O21" s="7">
-        <v>14337.745281370801</v>
+        <v>14113.226220181474</v>
       </c>
       <c r="P21" s="7">
-        <v>13683.777535868272</v>
+        <v>13469.499152092785</v>
       </c>
       <c r="Q21" s="7">
-        <v>13658.30911760333</v>
+        <v>13444.429551441533</v>
       </c>
       <c r="R21" s="7">
-        <v>13432.294301962535</v>
+        <v>13221.953969705839</v>
       </c>
       <c r="S21" s="7">
-        <v>13222.284230040143</v>
+        <v>13015.232508597981</v>
       </c>
       <c r="T21" s="7">
-        <v>13526.374360689859</v>
+        <v>13314.560800526853</v>
       </c>
       <c r="U21" s="7">
-        <v>13903.947140759738</v>
+        <v>13686.221054990487</v>
       </c>
       <c r="V21" s="7">
-        <v>14301.838986767767</v>
+        <v>14077.882193033805</v>
       </c>
       <c r="W21" s="7">
-        <v>14166.564109426108</v>
+        <v>13944.725625640274</v>
       </c>
       <c r="X21" s="14">
+        <v>14742.569091175179</v>
+      </c>
+      <c r="Y21" s="14">
         <v>14977.1</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7">
-        <v>14485.987691908864</v>
+        <v>14128.141513639046</v>
       </c>
       <c r="C22" s="7">
-        <v>14222.27127631996</v>
+        <v>13870.939663261197</v>
       </c>
       <c r="D22" s="7">
-        <v>14276.813903851142</v>
+        <v>13924.134928691157</v>
       </c>
       <c r="E22" s="7">
-        <v>14115.575775556643</v>
+        <v>13766.879852793827</v>
       </c>
       <c r="F22" s="7">
-        <v>14061.876590719245</v>
+        <v>13714.507194561236</v>
       </c>
       <c r="G22" s="7">
-        <v>14113.045447475301</v>
+        <v>13764.412031201715</v>
       </c>
       <c r="H22" s="7">
-        <v>14328.26390817179</v>
+        <v>13974.313967730759</v>
       </c>
       <c r="I22" s="7">
-        <v>14432.569654636058</v>
+        <v>14076.043057805578</v>
       </c>
       <c r="J22" s="7">
-        <v>14027.717161621107</v>
+        <v>13681.191603067731</v>
       </c>
       <c r="K22" s="7">
-        <v>13641.13926030475</v>
+        <v>13304.163304272912</v>
       </c>
       <c r="L22" s="7">
-        <v>14705.563939856554</v>
+        <v>14342.293587354503</v>
       </c>
       <c r="M22" s="7">
-        <v>14368.468009908689</v>
+        <v>14013.524910805419</v>
       </c>
       <c r="N22" s="7">
-        <v>14758.700829564767</v>
+        <v>14394.117840788846</v>
       </c>
       <c r="O22" s="7">
-        <v>13814.18558631218</v>
+        <v>13472.93488093343</v>
       </c>
       <c r="P22" s="7">
-        <v>13156.159711380591</v>
+        <v>12831.164165784865</v>
       </c>
       <c r="Q22" s="7">
-        <v>13098.10273929199</v>
+        <v>12774.541370365861</v>
       </c>
       <c r="R22" s="7">
-        <v>12989.720353141112</v>
+        <v>12668.836345503751</v>
       </c>
       <c r="S22" s="7">
-        <v>12800.22689460495</v>
+        <v>12484.023928494507</v>
       </c>
       <c r="T22" s="7">
-        <v>13053.962571650774</v>
+        <v>12731.491593703469</v>
       </c>
       <c r="U22" s="7">
-        <v>13609.229011723362</v>
+        <v>13273.041331972394</v>
       </c>
       <c r="V22" s="7">
-        <v>14029.966342137859</v>
+        <v>13683.38522226072</v>
       </c>
       <c r="W22" s="7">
-        <v>13918.631906558749</v>
+        <v>13574.801072207811</v>
       </c>
       <c r="X22" s="14">
+        <v>14279.227035556096</v>
+      </c>
+      <c r="Y22" s="14">
         <v>14640.9</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="7">
-        <v>17410.343315168273</v>
+        <v>17250.883057294344</v>
       </c>
       <c r="C23" s="7">
-        <v>17373.345586248244</v>
+        <v>17214.224188285782</v>
       </c>
       <c r="D23" s="7">
-        <v>17601.498247921754</v>
+        <v>17440.287213838597</v>
       </c>
       <c r="E23" s="7">
-        <v>17526.303789607438</v>
+        <v>17365.781456918412</v>
       </c>
       <c r="F23" s="7">
-        <v>17783.403748445231</v>
+        <v>17620.526653130706</v>
       </c>
       <c r="G23" s="7">
-        <v>17898.850365538285</v>
+        <v>17734.915901796321</v>
       </c>
       <c r="H23" s="7">
-        <v>18083.32515279232</v>
+        <v>17917.701095880697</v>
       </c>
       <c r="I23" s="7">
-        <v>18172.565045233685</v>
+        <v>18006.123645665244</v>
       </c>
       <c r="J23" s="7">
-        <v>17728.249726629267</v>
+        <v>17565.877783590164</v>
       </c>
       <c r="K23" s="7">
-        <v>17535.553221837446</v>
+        <v>17374.946174170556</v>
       </c>
       <c r="L23" s="7">
-        <v>18870.725892817198</v>
+        <v>18697.890081215755</v>
       </c>
       <c r="M23" s="7">
-        <v>18166.570042862386</v>
+        <v>18000.183551149967</v>
       </c>
       <c r="N23" s="7">
-        <v>18938.555062503914</v>
+        <v>18765.098007731456</v>
       </c>
       <c r="O23" s="7">
-        <v>18100.967588342148</v>
+        <v>17935.181945454224</v>
       </c>
       <c r="P23" s="7">
-        <v>17224.840813222017</v>
+        <v>17067.079561293067</v>
       </c>
       <c r="Q23" s="7">
-        <v>17145.021638792696</v>
+        <v>16987.991445746811</v>
       </c>
       <c r="R23" s="7">
-        <v>16871.135673315257</v>
+        <v>16716.613984891745</v>
       </c>
       <c r="S23" s="7">
-        <v>16643.32558320582</v>
+        <v>16490.890393311227</v>
       </c>
       <c r="T23" s="7">
-        <v>17006.965298470735</v>
+        <v>16851.199554909301</v>
       </c>
       <c r="U23" s="7">
-        <v>17779.978032804487</v>
+        <v>17617.132313407692</v>
       </c>
       <c r="V23" s="7">
-        <v>18264.88808175172</v>
+        <v>18097.601101200504</v>
       </c>
       <c r="W23" s="7">
-        <v>18157.663182196451</v>
+        <v>17991.358267870124</v>
       </c>
       <c r="X23" s="14">
+        <v>18966.38235330626</v>
+      </c>
+      <c r="Y23" s="14">
         <v>19141.7</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7">
-        <v>22773.773755520477</v>
+        <v>22394.718057302314</v>
       </c>
       <c r="C24" s="7">
-        <v>22529.891713794692</v>
+        <v>22154.895284742968</v>
       </c>
       <c r="D24" s="7">
-        <v>22433.025888771212</v>
+        <v>22059.641732825028</v>
       </c>
       <c r="E24" s="7">
-        <v>22148.153344257709</v>
+        <v>21779.51071961956</v>
       </c>
       <c r="F24" s="7">
-        <v>22261.506969285187</v>
+        <v>21890.977642076716</v>
       </c>
       <c r="G24" s="7">
-        <v>22375.547585979497</v>
+        <v>22003.12012163968</v>
       </c>
       <c r="H24" s="7">
-        <v>22489.588202673807</v>
+        <v>22115.262601202641</v>
       </c>
       <c r="I24" s="7">
-        <v>22247.538138726246</v>
+        <v>21877.241314258765</v>
       </c>
       <c r="J24" s="7">
-        <v>21236.973396814614</v>
+        <v>20883.496811625533</v>
       </c>
       <c r="K24" s="7">
-        <v>21125.909744009914</v>
+        <v>20774.281746187709</v>
       </c>
       <c r="L24" s="7">
-        <v>23035.517580583924</v>
+        <v>22652.105314612483</v>
       </c>
       <c r="M24" s="7">
-        <v>21962.436596990468</v>
+        <v>21596.885115351361</v>
       </c>
       <c r="N24" s="7">
-        <v>23048.570422253757</v>
+        <v>22664.940899622703</v>
       </c>
       <c r="O24" s="7">
-        <v>22423.637002657822</v>
+        <v>22050.409119045748</v>
       </c>
       <c r="P24" s="7">
-        <v>20993.778346755662</v>
+        <v>20644.349596171985</v>
       </c>
       <c r="Q24" s="7">
-        <v>21080.797291221199</v>
+        <v>20729.920162906776</v>
       </c>
       <c r="R24" s="7">
-        <v>20941.108985631781</v>
+        <v>20592.556884727248</v>
       </c>
       <c r="S24" s="7">
-        <v>20777.375971703204</v>
+        <v>20431.549107844679</v>
       </c>
       <c r="T24" s="7">
-        <v>21064.309491217202</v>
+        <v>20713.706792367553</v>
       </c>
       <c r="U24" s="7">
-        <v>21770.536924721731</v>
+        <v>21408.179497130954</v>
       </c>
       <c r="V24" s="7">
-        <v>21909.767235866591</v>
+        <v>21545.092403906623</v>
       </c>
       <c r="W24" s="7">
-        <v>21797.100602505947</v>
+        <v>21434.301038555259</v>
       </c>
       <c r="X24" s="14">
+        <v>22537.035420924385</v>
+      </c>
+      <c r="Y24" s="14">
         <v>22918.5</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="7">
-        <v>7351.2073768053669</v>
+        <v>7166.8661151432643</v>
       </c>
       <c r="C25" s="7">
-        <v>7342.2887794559938</v>
+        <v>7158.1711634351259</v>
       </c>
       <c r="D25" s="7">
-        <v>7468.2907228079457</v>
+        <v>7281.0134411677045</v>
       </c>
       <c r="E25" s="7">
-        <v>7433.5438675347859</v>
+        <v>7247.1379093127989</v>
       </c>
       <c r="F25" s="7">
-        <v>7525.4410946227326</v>
+        <v>7336.7306917134556</v>
       </c>
       <c r="G25" s="7">
-        <v>7601.498892818192</v>
+        <v>7410.8812398804594</v>
       </c>
       <c r="H25" s="7">
-        <v>7731.0682751098921</v>
+        <v>7537.2014982962919</v>
       </c>
       <c r="I25" s="7">
-        <v>7779.7281422480746</v>
+        <v>7584.6411548158949</v>
       </c>
       <c r="J25" s="7">
-        <v>7680.7673860594241</v>
+        <v>7488.1619706623924</v>
       </c>
       <c r="K25" s="7">
-        <v>7453.6642231549731</v>
+        <v>7266.7537203663578</v>
       </c>
       <c r="L25" s="7">
-        <v>8117.0651683907863</v>
+        <v>7913.519008224519</v>
       </c>
       <c r="M25" s="7">
-        <v>8014.322926926</v>
+        <v>7813.3531645467656</v>
       </c>
       <c r="N25" s="7">
-        <v>8313.9164490861622</v>
+        <v>8105.4339823265491</v>
       </c>
       <c r="O25" s="7">
-        <v>7929.489228938759</v>
+        <v>7730.6467838989538</v>
       </c>
       <c r="P25" s="7">
-        <v>7569.1065472452656</v>
+        <v>7379.3011752765005</v>
       </c>
       <c r="Q25" s="7">
-        <v>7586.9437419440128</v>
+        <v>7396.6910786927774</v>
       </c>
       <c r="R25" s="7">
-        <v>7584.5178834649842</v>
+        <v>7394.3260518281641</v>
       </c>
       <c r="S25" s="7">
-        <v>7579.5234689493345</v>
+        <v>7389.456878871606</v>
       </c>
       <c r="T25" s="7">
-        <v>7640.8120699342298</v>
+        <v>7449.2085870099327</v>
       </c>
       <c r="U25" s="7">
-        <v>8089.7385861123048</v>
+        <v>7886.8776761907829</v>
       </c>
       <c r="V25" s="7">
-        <v>8273.6043890669916</v>
+        <v>8066.1328006057629</v>
       </c>
       <c r="W25" s="7">
-        <v>8179.2099547212219</v>
+        <v>7974.1054317268272</v>
       </c>
       <c r="X25" s="14">
+        <v>8418.6609226605233</v>
+      </c>
+      <c r="Y25" s="14">
         <v>8635.2000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="7">
-        <v>28863.984576285708</v>
+        <v>28326.355689238044</v>
       </c>
       <c r="C26" s="7">
-        <v>28488.236404306153</v>
+        <v>27957.606310892737</v>
       </c>
       <c r="D26" s="7">
-        <v>28910.671849151429</v>
+        <v>28372.173351517475</v>
       </c>
       <c r="E26" s="7">
-        <v>28414.549262795193</v>
+        <v>27885.291687295081</v>
       </c>
       <c r="F26" s="7">
-        <v>28557.142319077855</v>
+        <v>28025.228764256961</v>
       </c>
       <c r="G26" s="7">
-        <v>28570.642253400471</v>
+        <v>28038.47724491607</v>
       </c>
       <c r="H26" s="7">
-        <v>28949.76540896068</v>
+        <v>28410.538743426157</v>
       </c>
       <c r="I26" s="7">
-        <v>28832.484729532931</v>
+        <v>28295.442567700113</v>
       </c>
       <c r="J26" s="7">
-        <v>27926.301638127148</v>
+        <v>27406.138303457166</v>
       </c>
       <c r="K26" s="7">
-        <v>25246.002177823892</v>
+        <v>24775.762872595817</v>
       </c>
       <c r="L26" s="7">
-        <v>28582.454695932764</v>
+        <v>28050.069665492792</v>
       </c>
       <c r="M26" s="7">
-        <v>27454.366434098934</v>
+        <v>26942.993500415683</v>
       </c>
       <c r="N26" s="7">
-        <v>29363.200897590883</v>
+        <v>28816.273463611487</v>
       </c>
       <c r="O26" s="7">
-        <v>27497.678723384004</v>
+        <v>26985.499042530333</v>
       </c>
       <c r="P26" s="7">
-        <v>26310.528248888724</v>
+        <v>25820.460774569608</v>
       </c>
       <c r="Q26" s="7">
-        <v>26337.246868902239</v>
+        <v>25846.681725874103</v>
       </c>
       <c r="R26" s="7">
-        <v>26346.528073749039</v>
+        <v>25855.790056327241</v>
       </c>
       <c r="S26" s="7">
-        <v>26058.529474866507</v>
+        <v>25573.15580226617</v>
       </c>
       <c r="T26" s="7">
-        <v>26656.745314537548</v>
+        <v>26160.229101473105</v>
       </c>
       <c r="U26" s="7">
-        <v>27527.209829714731</v>
+        <v>27014.480093972146</v>
       </c>
       <c r="V26" s="7">
-        <v>28478.67395082763</v>
+        <v>27948.221970425864</v>
       </c>
       <c r="W26" s="7">
-        <v>28298.112329262607</v>
+        <v>27771.023541610233</v>
       </c>
       <c r="X26" s="14">
+        <v>28997.336032619358</v>
+      </c>
+      <c r="Y26" s="14">
         <v>29547.7</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="7">
-        <v>32736.097754347284</v>
+        <v>32070.085523427973</v>
       </c>
       <c r="C27" s="7">
-        <v>32470.635245901638</v>
+        <v>31810.023819892005</v>
       </c>
       <c r="D27" s="7">
-        <v>33233.213866861064</v>
+        <v>32557.087864483543</v>
       </c>
       <c r="E27" s="7">
-        <v>32761.767478041325</v>
+        <v>32095.232999477445</v>
       </c>
       <c r="F27" s="7">
-        <v>34501.360826428652</v>
+        <v>33799.434516634734</v>
       </c>
       <c r="G27" s="7">
-        <v>34519.204414850115</v>
+        <v>33816.91507925449</v>
       </c>
       <c r="H27" s="7">
-        <v>34938.998310870884</v>
+        <v>34228.168315624454</v>
       </c>
       <c r="I27" s="7">
-        <v>34221.498229081466</v>
+        <v>33525.265692388086</v>
       </c>
       <c r="J27" s="7">
-        <v>33870.261278048434</v>
+        <v>33181.174617662429</v>
       </c>
       <c r="K27" s="7">
-        <v>28575.724243447956</v>
+        <v>27994.354344190906</v>
       </c>
       <c r="L27" s="7">
-        <v>33672.729623768711</v>
+        <v>32987.661722696394</v>
       </c>
       <c r="M27" s="7">
-        <v>33170.917830091392</v>
+        <v>32496.059233583001</v>
       </c>
       <c r="N27" s="7">
-        <v>35795.177509690264</v>
+        <v>35066.928644835396</v>
       </c>
       <c r="O27" s="7">
-        <v>33210.674597276055</v>
+        <v>32535.007153805956</v>
       </c>
       <c r="P27" s="7">
-        <v>31628.230045161981</v>
+        <v>30984.757258317368</v>
       </c>
       <c r="Q27" s="7">
-        <v>32059.293575975251</v>
+        <v>31407.050850026128</v>
       </c>
       <c r="R27" s="7">
-        <v>31463.881204437967</v>
+        <v>30823.752076293327</v>
       </c>
       <c r="S27" s="7">
-        <v>31570.003598734042</v>
+        <v>30927.715422400281</v>
       </c>
       <c r="T27" s="7">
-        <v>31990.736630987514</v>
+        <v>31339.888688381812</v>
       </c>
       <c r="U27" s="7">
-        <v>32965.873085949999</v>
+        <v>32295.186101724441</v>
       </c>
       <c r="V27" s="7">
-        <v>34094.714837665801</v>
+        <v>33401.061694826683</v>
       </c>
       <c r="W27" s="7">
-        <v>33672.416578357814</v>
+        <v>32987.355046159209</v>
       </c>
       <c r="X27" s="14">
+        <v>34496.203609127326</v>
+      </c>
+      <c r="Y27" s="14">
         <v>35212.6</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="7">
-        <v>44672.229460658542</v>
+        <v>43867.553277577048</v>
       </c>
       <c r="C28" s="7">
-        <v>44399.532887000212</v>
+        <v>43599.768758693688</v>
       </c>
       <c r="D28" s="7">
-        <v>44940.651793350436</v>
+        <v>44131.140546948132</v>
       </c>
       <c r="E28" s="7">
-        <v>43955.01182649134</v>
+        <v>43163.254809416743</v>
       </c>
       <c r="F28" s="7">
-        <v>44385.000467714352</v>
+        <v>43585.498110351946</v>
       </c>
       <c r="G28" s="7">
-        <v>44376.451985781474</v>
+        <v>43577.103611327388</v>
       </c>
       <c r="H28" s="7">
-        <v>45107.347191041263</v>
+        <v>44294.833277926984</v>
       </c>
       <c r="I28" s="7">
-        <v>44834.2231932863</v>
+        <v>44026.629034092402</v>
       </c>
       <c r="J28" s="7">
-        <v>44253.781270044899</v>
+        <v>43456.642550324999</v>
       </c>
       <c r="K28" s="7">
-        <v>39838.917775817827</v>
+        <v>39121.3035290927</v>
       </c>
       <c r="L28" s="7">
-        <v>46135.729567564675</v>
+        <v>45304.691510581149</v>
       </c>
       <c r="M28" s="7">
-        <v>44473.904679816122</v>
+        <v>43672.800900207338</v>
       </c>
       <c r="N28" s="7">
-        <v>47971.088638550355</v>
+        <v>47106.990451153477</v>
       </c>
       <c r="O28" s="7">
-        <v>44995.789501817402</v>
+        <v>44185.285065656521</v>
       </c>
       <c r="P28" s="7">
-        <v>42710.352857066493</v>
+        <v>41941.015751441293</v>
       </c>
       <c r="Q28" s="7">
-        <v>43273.270392345519</v>
+        <v>42493.793512208351</v>
       </c>
       <c r="R28" s="7">
-        <v>42375.252365298271</v>
+        <v>41611.951389678674</v>
       </c>
       <c r="S28" s="7">
-        <v>42636.408488347231</v>
+        <v>41868.40333487888</v>
       </c>
       <c r="T28" s="7">
-        <v>43580.588317831942</v>
+        <v>42795.575752141165</v>
       </c>
       <c r="U28" s="7">
-        <v>44638.46295702373</v>
+        <v>43834.395006430059</v>
       </c>
       <c r="V28" s="7">
-        <v>45845.508605943985</v>
+        <v>45019.698268697459</v>
       </c>
       <c r="W28" s="7">
-        <v>45529.642198524693</v>
+        <v>44709.521529740086</v>
       </c>
       <c r="X28" s="14">
+        <v>47113.28632542189</v>
+      </c>
+      <c r="Y28" s="14">
         <v>47977.5</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="7">
-        <v>28491.928688750799</v>
+        <v>27590.052732265616</v>
       </c>
       <c r="C29" s="7">
-        <v>28519.650775101589</v>
+        <v>27616.89731104517</v>
       </c>
       <c r="D29" s="7">
-        <v>28717.863692509734</v>
+        <v>27808.836049319008</v>
       </c>
       <c r="E29" s="7">
-        <v>28608.91589315113</v>
+        <v>27703.336854715344</v>
       </c>
       <c r="F29" s="7">
-        <v>28019.26711646984</v>
+        <v>27132.352664074166</v>
       </c>
       <c r="G29" s="7">
-        <v>28544.323431953788</v>
+        <v>27640.788986158976</v>
       </c>
       <c r="H29" s="7">
-        <v>28996.193439471655</v>
+        <v>28078.355620265764</v>
       </c>
       <c r="I29" s="7">
-        <v>29149.219356128015</v>
+        <v>28226.537695128918</v>
       </c>
       <c r="J29" s="7">
-        <v>27801.648738616143</v>
+        <v>26921.622720654639</v>
       </c>
       <c r="K29" s="7">
-        <v>26736.56618101881</v>
+        <v>25890.254003944043</v>
       </c>
       <c r="L29" s="7">
-        <v>28896.116707745306</v>
+        <v>27981.446690871559</v>
       </c>
       <c r="M29" s="7">
-        <v>28110.472780563934</v>
+        <v>27220.671328258904</v>
       </c>
       <c r="N29" s="7">
-        <v>28984.550163204327</v>
+        <v>28067.080897178352</v>
       </c>
       <c r="O29" s="7">
-        <v>26888.205993357635</v>
+        <v>26037.093849868226</v>
       </c>
       <c r="P29" s="7">
-        <v>25424.479834035952</v>
+        <v>24619.7000903076</v>
       </c>
       <c r="Q29" s="7">
-        <v>25745.224373114586</v>
+        <v>24930.291866787076</v>
       </c>
       <c r="R29" s="7">
-        <v>25041.083379804535</v>
+        <v>24248.439565786321</v>
       </c>
       <c r="S29" s="7">
-        <v>25565.585253561472</v>
+        <v>24756.338996295544</v>
       </c>
       <c r="T29" s="7">
-        <v>26400.297273583739</v>
+        <v>25564.629263348015</v>
       </c>
       <c r="U29" s="7">
-        <v>27086.973352492794</v>
+        <v>26229.569479717651</v>
       </c>
       <c r="V29" s="7">
-        <v>27742.600694688961</v>
+        <v>26864.443767854184</v>
       </c>
       <c r="W29" s="7">
-        <v>27533.298942740505</v>
+        <v>26661.767198068523</v>
       </c>
       <c r="X29" s="14">
+        <v>28209.088718922208</v>
+      </c>
+      <c r="Y29" s="14">
         <v>29131.200000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="7">
-        <v>12581.814392830165</v>
+        <v>12375.795434447584</v>
       </c>
       <c r="C30" s="7">
-        <v>12481.332770664105</v>
+        <v>12276.959132939492</v>
       </c>
       <c r="D30" s="7">
-        <v>12555.110377050556</v>
+        <v>12349.528679411442</v>
       </c>
       <c r="E30" s="7">
-        <v>12458.727510794855</v>
+        <v>12254.724019374014</v>
       </c>
       <c r="F30" s="7">
-        <v>12529.275794342844</v>
+        <v>12324.117121050895</v>
       </c>
       <c r="G30" s="7">
-        <v>12437.985321793953</v>
+        <v>12234.321470113384</v>
       </c>
       <c r="H30" s="7">
-        <v>12682.171810271668</v>
+        <v>12474.509565002018</v>
       </c>
       <c r="I30" s="7">
-        <v>12729.493810327622</v>
+        <v>12521.056698345137</v>
       </c>
       <c r="J30" s="7">
-        <v>12351.166219329085</v>
+        <v>12148.923973507503</v>
       </c>
       <c r="K30" s="7">
-        <v>12451.026817872364</v>
+        <v>12247.149420247311</v>
       </c>
       <c r="L30" s="7">
-        <v>13449.757008029694</v>
+        <v>13229.526058599055</v>
       </c>
       <c r="M30" s="7">
-        <v>13017.897180747386</v>
+        <v>12804.737652735479</v>
       </c>
       <c r="N30" s="7">
-        <v>13687.609055555036</v>
+        <v>13463.483434851209</v>
       </c>
       <c r="O30" s="7">
-        <v>13111.547543062847</v>
+        <v>12896.854551792461</v>
       </c>
       <c r="P30" s="7">
-        <v>12341.726660262808</v>
+        <v>12139.638981029611</v>
       </c>
       <c r="Q30" s="7">
-        <v>12256.025400318949</v>
+        <v>12055.341023006642</v>
       </c>
       <c r="R30" s="7">
-        <v>12139.148754511458</v>
+        <v>11940.378155615896</v>
       </c>
       <c r="S30" s="7">
-        <v>11815.222832868587</v>
+        <v>11621.7563084798</v>
       </c>
       <c r="T30" s="7">
-        <v>12105.365069432139</v>
+        <v>11907.147656221332</v>
       </c>
       <c r="U30" s="7">
-        <v>12649.3817629888</v>
+        <v>12442.256433236709</v>
       </c>
       <c r="V30" s="7">
-        <v>12744.770991448049</v>
+        <v>12536.083725644885</v>
       </c>
       <c r="W30" s="7">
-        <v>12567.158235332519</v>
+        <v>12361.37926191612</v>
       </c>
       <c r="X30" s="14">
+        <v>13100.024847723187</v>
+      </c>
+      <c r="Y30" s="14">
         <v>13318.1</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="7">
-        <v>27425.827524219592</v>
+        <v>26723.695272225086</v>
       </c>
       <c r="C31" s="7">
-        <v>27226.189332615715</v>
+        <v>26529.168044472022</v>
       </c>
       <c r="D31" s="7">
-        <v>27313.531041442413</v>
+        <v>26614.273706613989</v>
       </c>
       <c r="E31" s="7">
-        <v>27241.321482777177</v>
+        <v>26543.912794447988</v>
       </c>
       <c r="F31" s="7">
-        <v>27324.150094187298</v>
+        <v>26624.620899579575</v>
       </c>
       <c r="G31" s="7">
-        <v>27443.879913885896</v>
+        <v>26741.285500266586</v>
       </c>
       <c r="H31" s="7">
-        <v>27775.459835844995</v>
+        <v>27064.376600617081</v>
       </c>
       <c r="I31" s="7">
-        <v>27599.714512917111</v>
+        <v>26893.130557036595</v>
       </c>
       <c r="J31" s="7">
-        <v>27532.5490043057</v>
+        <v>26827.684561529248</v>
       </c>
       <c r="K31" s="7">
-        <v>26688.599787405812</v>
+        <v>26005.341400589114</v>
       </c>
       <c r="L31" s="7">
-        <v>28949.927069429494</v>
+        <v>28208.776142611157</v>
       </c>
       <c r="M31" s="7">
-        <v>28076.775457481162</v>
+        <v>27357.978201015652</v>
       </c>
       <c r="N31" s="7">
-        <v>29517.249962325081</v>
+        <v>28761.574926797715</v>
       </c>
       <c r="O31" s="7">
-        <v>27851.120586652312</v>
+        <v>27138.100350496901</v>
       </c>
       <c r="P31" s="7">
-        <v>26547.100909580193</v>
+        <v>25867.465054322649</v>
       </c>
       <c r="Q31" s="7">
-        <v>26667.627158234656</v>
+        <v>25984.905694482077</v>
       </c>
       <c r="R31" s="7">
-        <v>25987.476829924646</v>
+        <v>25322.16798503614</v>
       </c>
       <c r="S31" s="7">
-        <v>25851.818431108721</v>
+        <v>25189.98259490075</v>
       </c>
       <c r="T31" s="7">
-        <v>26582.674736275567</v>
+        <v>25902.128150757369</v>
       </c>
       <c r="U31" s="7">
-        <v>27499.098988159309</v>
+        <v>26795.090903687644</v>
       </c>
       <c r="V31" s="7">
-        <v>28278.271983315393</v>
+        <v>27554.316187537694</v>
       </c>
       <c r="W31" s="7">
-        <v>28004.831375134552</v>
+        <v>27287.875968673794</v>
       </c>
       <c r="X31" s="14">
+        <v>28837.626795094791</v>
+      </c>
+      <c r="Y31" s="14">
         <v>29595.3</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="7">
-        <v>4807.5285007855364</v>
+        <v>4694.283116915778</v>
       </c>
       <c r="C32" s="7">
-        <v>4768.6901975429473</v>
+        <v>4656.3596826248422</v>
       </c>
       <c r="D32" s="7">
-        <v>4833.2059571947366</v>
+        <v>4719.3557192076523</v>
       </c>
       <c r="E32" s="7">
-        <v>4792.6650269142619</v>
+        <v>4679.7697646930619</v>
       </c>
       <c r="F32" s="7">
-        <v>4927.0345120663451</v>
+        <v>4810.9740634247346</v>
       </c>
       <c r="G32" s="7">
-        <v>4964.3082391119588</v>
+        <v>4847.3697764290682</v>
       </c>
       <c r="H32" s="7">
-        <v>5033.4717104077063</v>
+        <v>4914.9040438926659</v>
       </c>
       <c r="I32" s="7">
-        <v>5137.7461122414825</v>
+        <v>5016.7221743467653</v>
       </c>
       <c r="J32" s="7">
-        <v>4996.1519664151247</v>
+        <v>4878.4633979093151</v>
       </c>
       <c r="K32" s="7">
-        <v>4820.3212120431663</v>
+        <v>4706.7744850826975</v>
       </c>
       <c r="L32" s="7">
-        <v>5264.7528858783844</v>
+        <v>5140.737196435608</v>
       </c>
       <c r="M32" s="7">
-        <v>5225.8225487418549</v>
+        <v>5102.7238961866369</v>
       </c>
       <c r="N32" s="7">
-        <v>5440.5376233033712</v>
+        <v>5312.3811762832074</v>
       </c>
       <c r="O32" s="7">
-        <v>5024.176287119788</v>
+        <v>4905.8275821310917</v>
       </c>
       <c r="P32" s="7">
-        <v>4758.7965539444203</v>
+        <v>4646.6990921360375</v>
       </c>
       <c r="Q32" s="7">
-        <v>4830.3529064826025</v>
+        <v>4716.5698745085547</v>
       </c>
       <c r="R32" s="7">
-        <v>4673.1590156334514</v>
+        <v>4563.0788181841053</v>
       </c>
       <c r="S32" s="7">
-        <v>4685.9057099441115</v>
+        <v>4575.5252533720068</v>
       </c>
       <c r="T32" s="7">
-        <v>4798.3711283385283</v>
+        <v>4685.3414540912563</v>
       </c>
       <c r="U32" s="7">
-        <v>5007.1039997939588</v>
+        <v>4889.1574469155257</v>
       </c>
       <c r="V32" s="7">
-        <v>5137.4239936126924</v>
+        <v>5016.4076434936424</v>
       </c>
       <c r="W32" s="7">
-        <v>5064.993319082083</v>
+        <v>4945.6831345197879</v>
       </c>
       <c r="X32" s="14">
+        <v>5233.8383289602743</v>
+      </c>
+      <c r="Y32" s="14">
         <v>5360.1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="7">
-        <v>9360.7533014518904</v>
+        <v>9172.7426987152776</v>
       </c>
       <c r="C33" s="7">
-        <v>9177.5862187053572</v>
+        <v>8993.2545243343066</v>
       </c>
       <c r="D33" s="7">
-        <v>9216.975000759885</v>
+        <v>9031.8521832370279</v>
       </c>
       <c r="E33" s="7">
-        <v>9213.553909360784</v>
+        <v>9028.4998044121439</v>
       </c>
       <c r="F33" s="7">
-        <v>9191.5479700908836</v>
+        <v>9006.9358541331603</v>
       </c>
       <c r="G33" s="7">
-        <v>9304.9987578394903</v>
+        <v>9118.1079843529715</v>
       </c>
       <c r="H33" s="7">
-        <v>9528.8490896564308</v>
+        <v>9337.4622853001347</v>
       </c>
       <c r="I33" s="7">
-        <v>9541.7012978854891</v>
+        <v>9350.0563571017246</v>
       </c>
       <c r="J33" s="7">
-        <v>9328.5765499143854</v>
+        <v>9141.2122167947437</v>
       </c>
       <c r="K33" s="7">
-        <v>9423.2575659327867</v>
+        <v>9233.9915658942446</v>
       </c>
       <c r="L33" s="7">
-        <v>9832.956376457716</v>
+        <v>9635.4615813824184</v>
       </c>
       <c r="M33" s="7">
-        <v>9488.9979979533728</v>
+        <v>9298.4116022318849</v>
       </c>
       <c r="N33" s="7">
-        <v>10017.417926220123</v>
+        <v>9816.2182234268585</v>
       </c>
       <c r="O33" s="7">
-        <v>9206.0644930546423</v>
+        <v>9021.1608129306405</v>
       </c>
       <c r="P33" s="7">
-        <v>8714.6293366700793</v>
+        <v>8539.5961249776628</v>
       </c>
       <c r="Q33" s="7">
-        <v>8623.0920262616637</v>
+        <v>8449.8973402037282</v>
       </c>
       <c r="R33" s="7">
-        <v>8387.7764151612464</v>
+        <v>8219.3080399515493</v>
       </c>
       <c r="S33" s="7">
-        <v>8180.4767687615886</v>
+        <v>8016.1720041301805</v>
       </c>
       <c r="T33" s="7">
-        <v>8350.7916432790607</v>
+        <v>8183.0661067095571</v>
       </c>
       <c r="U33" s="7">
-        <v>8531.9245635720727</v>
+        <v>8360.5609747622184</v>
       </c>
       <c r="V33" s="7">
-        <v>8757.3467481940042</v>
+        <v>8581.4555578721629</v>
       </c>
       <c r="W33" s="7">
-        <v>8650.9230671030109</v>
+        <v>8477.1693949683286</v>
       </c>
       <c r="X33" s="14">
+        <v>8942.6064226286217</v>
+      </c>
+      <c r="Y33" s="14">
         <v>9125.9</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="7">
-        <v>16641.882836193668</v>
+        <v>16251.214698222173</v>
       </c>
       <c r="C34" s="7">
-        <v>16563.876226495879</v>
+        <v>16175.039293398257</v>
       </c>
       <c r="D34" s="7">
-        <v>16882.836586149071</v>
+        <v>16486.51205978938</v>
       </c>
       <c r="E34" s="7">
-        <v>16631.009187569129</v>
+        <v>16240.59630845884</v>
       </c>
       <c r="F34" s="7">
-        <v>17378.454338673422</v>
+        <v>16970.495187407996</v>
       </c>
       <c r="G34" s="7">
-        <v>17384.757903093443</v>
+        <v>16976.650775676593</v>
       </c>
       <c r="H34" s="7">
-        <v>17613.577291540299</v>
+        <v>17200.098629826749</v>
       </c>
       <c r="I34" s="7">
-        <v>17727.199040211221</v>
+        <v>17311.053108368247</v>
       </c>
       <c r="J34" s="7">
-        <v>17522.805963891959</v>
+        <v>17111.45815875892</v>
       </c>
       <c r="K34" s="7">
-        <v>15646.707603382451</v>
+        <v>15279.401200317066</v>
       </c>
       <c r="L34" s="7">
-        <v>17983.438933885183</v>
+        <v>17561.27777148681</v>
       </c>
       <c r="M34" s="7">
-        <v>17630.124148142862</v>
+        <v>17216.257049031818</v>
       </c>
       <c r="N34" s="7">
-        <v>17780.621748670921</v>
+        <v>17363.221718944627</v>
       </c>
       <c r="O34" s="7">
-        <v>17032.546241124626</v>
+        <v>16632.707281168612</v>
       </c>
       <c r="P34" s="7">
-        <v>16274.385030506297</v>
+        <v>15892.343902162836</v>
       </c>
       <c r="Q34" s="7">
-        <v>16349.397447104577</v>
+        <v>15965.595402559167</v>
       </c>
       <c r="R34" s="7">
-        <v>15691.46291076462</v>
+        <v>15323.10587702412</v>
       </c>
       <c r="S34" s="7">
-        <v>15817.061431833588</v>
+        <v>15445.75597327596</v>
       </c>
       <c r="T34" s="7">
-        <v>16114.274494237698</v>
+        <v>15735.991960140414</v>
       </c>
       <c r="U34" s="7">
-        <v>16707.439906161915</v>
+        <v>16315.232816215606</v>
       </c>
       <c r="V34" s="7">
-        <v>16760.862614621616</v>
+        <v>16367.401426791983</v>
       </c>
       <c r="W34" s="7">
-        <v>16650.235059050203</v>
+        <v>16259.370852678067</v>
       </c>
       <c r="X34" s="14">
+        <v>17252.267240403125</v>
+      </c>
+      <c r="Y34" s="14">
         <v>17667</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="7">
-        <v>8173.3470296638789</v>
+        <v>8043.3570864883995</v>
       </c>
       <c r="C35" s="7">
-        <v>8122.3095326250022</v>
+        <v>7993.1312962467291</v>
       </c>
       <c r="D35" s="7">
-        <v>8239.7905823104647</v>
+        <v>8108.7439124841339</v>
       </c>
       <c r="E35" s="7">
-        <v>8045.1212437597051</v>
+        <v>7917.1706196738005</v>
       </c>
       <c r="F35" s="7">
-        <v>8276.7651157689706</v>
+        <v>8145.1303982938889</v>
       </c>
       <c r="G35" s="7">
-        <v>8402.8577555120773</v>
+        <v>8269.2176447733091</v>
       </c>
       <c r="H35" s="7">
-        <v>8515.7564912219132</v>
+        <v>8380.3208247351467</v>
       </c>
       <c r="I35" s="7">
-        <v>8423.162146748904</v>
+        <v>8289.1991124081524</v>
       </c>
       <c r="J35" s="7">
-        <v>8359.1677619168786</v>
+        <v>8226.2225023528081</v>
       </c>
       <c r="K35" s="7">
-        <v>8011.2279214227419</v>
+        <v>7883.8163410148582</v>
       </c>
       <c r="L35" s="7">
-        <v>8790.1422918659027</v>
+        <v>8650.3427589601015</v>
       </c>
       <c r="M35" s="7">
-        <v>8571.7713293032793</v>
+        <v>8435.4447957588982</v>
       </c>
       <c r="N35" s="7">
-        <v>8891.9802697035357</v>
+        <v>8750.5610927395337</v>
       </c>
       <c r="O35" s="7">
-        <v>8491.2648130763209</v>
+        <v>8356.2186653312492</v>
       </c>
       <c r="P35" s="7">
-        <v>7953.3959588337993</v>
+        <v>7826.9041452611391</v>
       </c>
       <c r="Q35" s="7">
-        <v>8250.7723347692954</v>
+        <v>8119.5510097652368</v>
       </c>
       <c r="R35" s="7">
-        <v>7886.1623520534831</v>
+        <v>7760.7398302523761</v>
       </c>
       <c r="S35" s="7">
-        <v>8090.6283618624802</v>
+        <v>7961.9539868242691</v>
       </c>
       <c r="T35" s="7">
-        <v>8290.7490739359673</v>
+        <v>8158.8919538245009</v>
       </c>
       <c r="U35" s="7">
-        <v>8605.4276354001231</v>
+        <v>8468.5658277139319</v>
       </c>
       <c r="V35" s="7">
-        <v>8660.4154031076432</v>
+        <v>8522.679063020747</v>
       </c>
       <c r="W35" s="7">
-        <v>8561.2636093246874</v>
+        <v>8425.1041918856135</v>
       </c>
       <c r="X35" s="14">
+        <v>8861.5865238000661</v>
+      </c>
+      <c r="Y35" s="14">
         <v>9004.7999999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="7">
-        <v>51848.89285362004</v>
+        <v>50872.391822968078</v>
       </c>
       <c r="C36" s="7">
-        <v>51137.825182481763</v>
+        <v>50174.716112111186</v>
       </c>
       <c r="D36" s="7">
-        <v>51606.199102387058</v>
+        <v>50634.26886746801</v>
       </c>
       <c r="E36" s="7">
-        <v>50773.53435588874</v>
+        <v>49817.286191278094</v>
       </c>
       <c r="F36" s="7">
-        <v>53066.865205168673</v>
+        <v>52067.425376962245</v>
       </c>
       <c r="G36" s="7">
-        <v>52529.936555533641</v>
+        <v>51540.609023866215</v>
       </c>
       <c r="H36" s="7">
-        <v>53166.94510258433</v>
+        <v>52165.620410158139</v>
       </c>
       <c r="I36" s="7">
-        <v>52588.983695008879</v>
+        <v>51598.54409345179</v>
       </c>
       <c r="J36" s="7">
-        <v>52669.047612941416</v>
+        <v>51677.100120008523</v>
       </c>
       <c r="K36" s="7">
-        <v>44530.049955612551</v>
+        <v>43691.389045351614</v>
       </c>
       <c r="L36" s="7">
-        <v>52479.39620733873</v>
+        <v>51491.020532102273</v>
       </c>
       <c r="M36" s="7">
-        <v>51812.363691063336</v>
+        <v>50836.550635851578</v>
       </c>
       <c r="N36" s="7">
-        <v>53745.907309133952</v>
+        <v>52733.678677196454</v>
       </c>
       <c r="O36" s="7">
-        <v>50804.559124087602</v>
+        <v>49847.726651568824</v>
       </c>
       <c r="P36" s="7">
-        <v>49065.670906490428</v>
+        <v>48141.587949789988</v>
       </c>
       <c r="Q36" s="7">
-        <v>49386.426977707641</v>
+        <v>48456.303031182862</v>
       </c>
       <c r="R36" s="7">
-        <v>45494.820166699552</v>
+        <v>44637.989165360123</v>
       </c>
       <c r="S36" s="7">
-        <v>45829.087024067863</v>
+        <v>44965.960576234444</v>
       </c>
       <c r="T36" s="7">
-        <v>45904.647346616694</v>
+        <v>45040.097826297359</v>
       </c>
       <c r="U36" s="7">
-        <v>46379.526459854016</v>
+        <v>45506.03325881192</v>
       </c>
       <c r="V36" s="7">
-        <v>48379.122810218978</v>
+        <v>47467.970022066082</v>
       </c>
       <c r="W36" s="7">
-        <v>48082.385914381535</v>
+        <v>47176.821748640228</v>
       </c>
       <c r="X36" s="14">
+        <v>49775.062327003856</v>
+      </c>
+      <c r="Y36" s="14">
         <v>50730.5</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="7">
-        <v>8357.1885034517018</v>
+        <v>8091.3510354506907</v>
       </c>
       <c r="C37" s="7">
-        <v>8228.9988646385591</v>
+        <v>7967.2390369817831</v>
       </c>
       <c r="D37" s="7">
-        <v>8296.6962958832992</v>
+        <v>8032.7830509971727</v>
       </c>
       <c r="E37" s="7">
-        <v>8298.1215049621369</v>
+        <v>8034.1629249764437</v>
       </c>
       <c r="F37" s="7">
-        <v>8284.0277707380865</v>
+        <v>8020.5175045147607</v>
       </c>
       <c r="G37" s="7">
-        <v>8387.2762506715862</v>
+        <v>8120.4817083464195</v>
       </c>
       <c r="H37" s="7">
-        <v>8504.4601082648223</v>
+        <v>8233.9380133087307</v>
       </c>
       <c r="I37" s="7">
-        <v>8517.1286334100369</v>
+        <v>8246.2035597911417</v>
       </c>
       <c r="J37" s="7">
-        <v>8153.225248613744</v>
+        <v>7893.8757370838557</v>
       </c>
       <c r="K37" s="7">
-        <v>7845.0633744563947</v>
+        <v>7595.5163188991837</v>
       </c>
       <c r="L37" s="7">
-        <v>8576.0372753352858</v>
+        <v>8303.2383509343581</v>
       </c>
       <c r="M37" s="7">
-        <v>8178.4831206220151</v>
+        <v>7918.3301703831648</v>
       </c>
       <c r="N37" s="7">
-        <v>8766.8569353350831</v>
+        <v>8487.9881448256911</v>
       </c>
       <c r="O37" s="7">
-        <v>8424.7275781321277</v>
+        <v>8156.7417301350497</v>
       </c>
       <c r="P37" s="7">
-        <v>7892.728700315266</v>
+        <v>7641.6654375392591</v>
       </c>
       <c r="Q37" s="7">
-        <v>7661.6072946972527</v>
+        <v>7417.895873900753</v>
       </c>
       <c r="R37" s="7">
-        <v>7330.167005585573</v>
+        <v>7096.9985140546478</v>
       </c>
       <c r="S37" s="7">
-        <v>7093.9781899094742</v>
+        <v>6868.3227318231775</v>
       </c>
       <c r="T37" s="7">
-        <v>7099.2831348140335</v>
+        <v>6873.4589294126881</v>
       </c>
       <c r="U37" s="7">
-        <v>7294.9326700254433</v>
+        <v>7062.8849629004389</v>
       </c>
       <c r="V37" s="7">
-        <v>7538.4850659421982</v>
+        <v>7298.6900940248115</v>
       </c>
       <c r="W37" s="7">
-        <v>7445.5297626891834</v>
+        <v>7208.6916467101119</v>
       </c>
       <c r="X37" s="14">
+        <v>7562.246024065641</v>
+      </c>
+      <c r="Y37" s="14">
         <v>7810.7</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="7">
-        <v>107278.17371616396</v>
+        <v>106398.71795579846</v>
       </c>
       <c r="C38" s="7">
-        <v>106241.46530549112</v>
+        <v>105370.50837719929</v>
       </c>
       <c r="D38" s="7">
-        <v>107173.987099768</v>
+        <v>106295.38545088453</v>
       </c>
       <c r="E38" s="7">
-        <v>104382.61102088168</v>
+        <v>103526.8927944772</v>
       </c>
       <c r="F38" s="7">
-        <v>108999.83176334108</v>
+        <v>108106.26202214872</v>
       </c>
       <c r="G38" s="7">
-        <v>108683.14571152358</v>
+        <v>107792.17213097464</v>
       </c>
       <c r="H38" s="7">
-        <v>110037.57172467132</v>
+        <v>109135.49469485592</v>
       </c>
       <c r="I38" s="7">
-        <v>108764.63821345709</v>
+        <v>107872.9965655113</v>
       </c>
       <c r="J38" s="7">
-        <v>107597.95441995362</v>
+        <v>106715.8771292967</v>
       </c>
       <c r="K38" s="7">
-        <v>88790.722834493441</v>
+        <v>88062.825351167368</v>
       </c>
       <c r="L38" s="7">
-        <v>104373.32706496521</v>
+        <v>103517.68494750468</v>
       </c>
       <c r="M38" s="7">
-        <v>99740.633062645022</v>
+        <v>98922.969308212283</v>
       </c>
       <c r="N38" s="7">
-        <v>106531.33104021655</v>
+        <v>105657.99782156383</v>
       </c>
       <c r="O38" s="7">
-        <v>99853.072084300089</v>
+        <v>99034.486565990708</v>
       </c>
       <c r="P38" s="7">
-        <v>94217.710843000779</v>
+        <v>93445.323453665085</v>
       </c>
       <c r="Q38" s="7">
-        <v>95923.8956303171</v>
+        <v>95137.521108394445</v>
       </c>
       <c r="R38" s="7">
-        <v>94716.981361175553</v>
+        <v>93940.501001965575</v>
       </c>
       <c r="S38" s="7">
-        <v>95612.367331786561</v>
+        <v>94828.546687760681</v>
       </c>
       <c r="T38" s="7">
-        <v>97376.318955916475</v>
+        <v>96578.03761254136</v>
       </c>
       <c r="U38" s="7">
-        <v>98805.016616395995</v>
+        <v>97995.022952202897</v>
       </c>
       <c r="V38" s="7">
-        <v>102542.32464810519</v>
+        <v>101701.69290570018</v>
       </c>
       <c r="W38" s="7">
-        <v>101937.83596287703</v>
+        <v>101102.15975837767</v>
       </c>
       <c r="X38" s="14">
+        <v>105828.85453760967</v>
+      </c>
+      <c r="Y38" s="14">
         <v>106703.6</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="7">
-        <v>42384.078199282434</v>
+        <v>41711.481281483131</v>
       </c>
       <c r="C39" s="7">
-        <v>42430.252225182834</v>
+        <v>41756.922567429698</v>
       </c>
       <c r="D39" s="7">
-        <v>42706.887760886995</v>
+        <v>42029.16814783524</v>
       </c>
       <c r="E39" s="7">
-        <v>42631.293116713772</v>
+        <v>41954.773122170503</v>
       </c>
       <c r="F39" s="7">
-        <v>43890.250406971565</v>
+        <v>43193.751900943695</v>
       </c>
       <c r="G39" s="7">
-        <v>44155.853210823421</v>
+        <v>43455.139828954918</v>
       </c>
       <c r="H39" s="7">
-        <v>45084.237165210208</v>
+        <v>44368.791171172605</v>
       </c>
       <c r="I39" s="7">
-        <v>45387.841600997788</v>
+        <v>44667.577679653121</v>
       </c>
       <c r="J39" s="7">
-        <v>44246.158164133049</v>
+        <v>43544.011724478733</v>
       </c>
       <c r="K39" s="7">
-        <v>43017.030111846318</v>
+        <v>42334.388820697575</v>
       </c>
       <c r="L39" s="7">
-        <v>47416.638402727724</v>
+        <v>46664.179314385001</v>
       </c>
       <c r="M39" s="7">
-        <v>46920.574089072106</v>
+        <v>46175.987091914816</v>
       </c>
       <c r="N39" s="7">
-        <v>49726.156937144151</v>
+        <v>48937.047882261046</v>
       </c>
       <c r="O39" s="7">
-        <v>47283.428381103564</v>
+        <v>46533.083215105529</v>
       </c>
       <c r="P39" s="7">
-        <v>44402.250888858296</v>
+        <v>43697.627399094563</v>
       </c>
       <c r="Q39" s="7">
-        <v>45233.383355065482</v>
+        <v>44515.570546132752</v>
       </c>
       <c r="R39" s="7">
-        <v>44221.232362540803</v>
+        <v>43519.48147277307</v>
       </c>
       <c r="S39" s="7">
-        <v>44242.889206547181</v>
+        <v>43540.794642287823</v>
       </c>
       <c r="T39" s="7">
-        <v>44865.217006956984</v>
+        <v>44153.246664381819</v>
       </c>
       <c r="U39" s="7">
-        <v>46467.006224032782</v>
+        <v>45729.616937926417</v>
       </c>
       <c r="V39" s="7">
-        <v>47740.673823426987</v>
+        <v>46983.072586558694</v>
       </c>
       <c r="W39" s="7">
-        <v>47563.332874393593</v>
+        <v>46808.545877701974</v>
       </c>
       <c r="X39" s="14">
+        <v>49652.848669737934</v>
+      </c>
+      <c r="Y39" s="14">
         <v>50453.5</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="7">
-        <v>4456.1609201573528</v>
+        <v>4354.6382702222763</v>
       </c>
       <c r="C40" s="7">
-        <v>4389.3104808317776</v>
+        <v>4289.3108534875037</v>
       </c>
       <c r="D40" s="7">
-        <v>4409.4393606806207</v>
+        <v>4308.9811463914202</v>
       </c>
       <c r="E40" s="7">
-        <v>4354.1283223028713</v>
+        <v>4254.9302337782892</v>
       </c>
       <c r="F40" s="7">
-        <v>4449.0897834863154</v>
+        <v>4347.7282319823235</v>
       </c>
       <c r="G40" s="7">
-        <v>4466.7025533540527</v>
+        <v>4364.9397382732495</v>
       </c>
       <c r="H40" s="7">
-        <v>4528.7376787502717</v>
+        <v>4425.5615461452317</v>
       </c>
       <c r="I40" s="7">
-        <v>4517.02475297616</v>
+        <v>4414.1154705330391</v>
       </c>
       <c r="J40" s="7">
-        <v>4363.3251380958782</v>
+        <v>4263.9175227774922</v>
       </c>
       <c r="K40" s="7">
-        <v>4233.4418056229551</v>
+        <v>4136.9932621000698</v>
       </c>
       <c r="L40" s="7">
-        <v>4512.8167759387943</v>
+        <v>4410.0033618871776</v>
       </c>
       <c r="M40" s="7">
-        <v>4351.6122123217665</v>
+        <v>4252.4714471653006</v>
       </c>
       <c r="N40" s="7">
-        <v>4646.4308921768043</v>
+        <v>4540.5734096114456</v>
       </c>
       <c r="O40" s="7">
-        <v>4243.8532951999423</v>
+        <v>4147.1675515331299</v>
       </c>
       <c r="P40" s="7">
-        <v>4025.6024449423362</v>
+        <v>3933.8890092926117</v>
       </c>
       <c r="Q40" s="7">
-        <v>3979.9654156298725</v>
+        <v>3889.2917072776991</v>
       </c>
       <c r="R40" s="7">
-        <v>3817.9799902945706</v>
+        <v>3730.9967208483422</v>
       </c>
       <c r="S40" s="7">
-        <v>3745.3598504950805</v>
+        <v>3660.0310520527491</v>
       </c>
       <c r="T40" s="7">
-        <v>3814.4661125623375</v>
+        <v>3727.5628981646842</v>
       </c>
       <c r="U40" s="7">
-        <v>3936.5408278525192</v>
+        <v>3846.8564417673115</v>
       </c>
       <c r="V40" s="7">
-        <v>4027.8148864774457</v>
+        <v>3936.0510457971363</v>
       </c>
       <c r="W40" s="7">
-        <v>3974.2824775691001</v>
+        <v>3883.7382409621537</v>
       </c>
       <c r="X40" s="14">
+        <v>4105.8768935839616</v>
+      </c>
+      <c r="Y40" s="14">
         <v>4201.6000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="7">
-        <v>55362.238302594043</v>
+        <v>54478.360605949383</v>
       </c>
       <c r="C41" s="7">
-        <v>54469.0674822371</v>
+        <v>53599.449573339691</v>
       </c>
       <c r="D41" s="7">
-        <v>54994.039948343059</v>
+        <v>54116.040668526228</v>
       </c>
       <c r="E41" s="7">
-        <v>54442.018427726915</v>
+        <v>53572.83236654249</v>
       </c>
       <c r="F41" s="7">
-        <v>55078.499240997335</v>
+        <v>54199.15153872974</v>
       </c>
       <c r="G41" s="7">
-        <v>55626.104589448558</v>
+        <v>54738.014174297619</v>
       </c>
       <c r="H41" s="7">
-        <v>56415.495363929658</v>
+        <v>55514.802046134362</v>
       </c>
       <c r="I41" s="7">
-        <v>56739.531996531339</v>
+        <v>55833.665319398817</v>
       </c>
       <c r="J41" s="7">
-        <v>55862.921821792894</v>
+        <v>54971.050535848641</v>
       </c>
       <c r="K41" s="7">
-        <v>53390.417430953137</v>
+        <v>52538.020551263464</v>
       </c>
       <c r="L41" s="7">
-        <v>59098.31995412417</v>
+        <v>58154.794393775352</v>
       </c>
       <c r="M41" s="7">
-        <v>57001.190197303396</v>
+        <v>56091.146054539109</v>
       </c>
       <c r="N41" s="7">
-        <v>60091.406669712633</v>
+        <v>59132.026129044098</v>
       </c>
       <c r="O41" s="7">
-        <v>55937.996748596684</v>
+        <v>55044.926864918431</v>
       </c>
       <c r="P41" s="7">
-        <v>53620.610405050073</v>
+        <v>52764.538413190683</v>
       </c>
       <c r="Q41" s="7">
-        <v>54216.793647315521</v>
+        <v>53351.203379333121</v>
       </c>
       <c r="R41" s="7">
-        <v>52806.930683661863</v>
+        <v>51963.849376066646</v>
       </c>
       <c r="S41" s="7">
-        <v>52724.12745556944</v>
+        <v>51882.368130769086</v>
       </c>
       <c r="T41" s="7">
-        <v>53644.347330436569</v>
+        <v>52787.896370175979</v>
       </c>
       <c r="U41" s="7">
-        <v>56018.039869086024</v>
+        <v>55123.69206870607</v>
       </c>
       <c r="V41" s="7">
-        <v>56675.497500139863</v>
+        <v>55770.653156368702</v>
       </c>
       <c r="W41" s="7">
-        <v>56046.744988158069</v>
+        <v>55151.938900409223</v>
       </c>
       <c r="X41" s="14">
+        <v>58256.917554548287</v>
+      </c>
+      <c r="Y41" s="14">
         <v>59202.1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="7">
-        <v>16042.077280170439</v>
+        <v>15646.600727294584</v>
       </c>
       <c r="C42" s="7">
-        <v>15883.042842553792</v>
+        <v>15491.486878643986</v>
       </c>
       <c r="D42" s="7">
-        <v>16045.477433355638</v>
+        <v>15649.917058363888</v>
       </c>
       <c r="E42" s="7">
-        <v>15969.128539106245</v>
+        <v>15575.450351625894</v>
       </c>
       <c r="F42" s="7">
-        <v>16272.669487093708</v>
+        <v>15871.508270721884</v>
       </c>
       <c r="G42" s="7">
-        <v>16384.719989787653</v>
+        <v>15980.796453687562</v>
       </c>
       <c r="H42" s="7">
-        <v>16543.136217734267</v>
+        <v>16135.307333052833</v>
       </c>
       <c r="I42" s="7">
-        <v>16586.719999471774</v>
+        <v>16177.816667668449</v>
       </c>
       <c r="J42" s="7">
-        <v>16380.392522097405</v>
+        <v>15976.57566869027</v>
       </c>
       <c r="K42" s="7">
-        <v>16357.36421188858</v>
+        <v>15954.115062811803</v>
       </c>
       <c r="L42" s="7">
-        <v>17562.718516040426</v>
+        <v>17129.754426879845</v>
       </c>
       <c r="M42" s="7">
-        <v>16801.85696464415</v>
+        <v>16387.649978962552</v>
       </c>
       <c r="N42" s="7">
-        <v>17752.972541993873</v>
+        <v>17315.318224439503</v>
       </c>
       <c r="O42" s="7">
-        <v>17233.676419164</v>
+        <v>16808.824024764079</v>
       </c>
       <c r="P42" s="7">
-        <v>16304.816389935555</v>
+        <v>15902.862673558933</v>
       </c>
       <c r="Q42" s="7">
-        <v>16206.366499982392</v>
+        <v>15806.839814870467</v>
       </c>
       <c r="R42" s="7">
-        <v>15989.993115469944</v>
+        <v>15595.800565005708</v>
       </c>
       <c r="S42" s="7">
-        <v>15676.869917596929</v>
+        <v>15290.396621987134</v>
       </c>
       <c r="T42" s="7">
-        <v>15834.513383455997</v>
+        <v>15444.153789745746</v>
       </c>
       <c r="U42" s="7">
-        <v>16494.452206218968</v>
+        <v>16087.823501833262</v>
       </c>
       <c r="V42" s="7">
-        <v>16854.559339014686</v>
+        <v>16439.053110536755</v>
       </c>
       <c r="W42" s="7">
-        <v>16667.241808993909</v>
+        <v>16256.353417082404</v>
       </c>
       <c r="X42" s="14">
+        <v>17122.518795455911</v>
+      </c>
+      <c r="Y42" s="14">
         <v>17555.3</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="7">
-        <v>18063.348377548027</v>
+        <v>17737.000066945748</v>
       </c>
       <c r="C43" s="7">
-        <v>17879.558578283308</v>
+        <v>17556.530775553787</v>
       </c>
       <c r="D43" s="7">
-        <v>18218.335297823498</v>
+        <v>17889.186857447927</v>
       </c>
       <c r="E43" s="7">
-        <v>18061.291029048793</v>
+        <v>17734.979888310761</v>
       </c>
       <c r="F43" s="7">
-        <v>18258.796484975057</v>
+        <v>17928.91703726929</v>
       </c>
       <c r="G43" s="7">
-        <v>18446.872426946513</v>
+        <v>18113.595034150807</v>
       </c>
       <c r="H43" s="7">
-        <v>18837.425750384034</v>
+        <v>18497.092278358727</v>
       </c>
       <c r="I43" s="7">
-        <v>19223.178593990022</v>
+        <v>18875.875772418349</v>
       </c>
       <c r="J43" s="7">
-        <v>18411.211719626492</v>
+        <v>18078.578604477738</v>
       </c>
       <c r="K43" s="7">
-        <v>17394.538669589379</v>
+        <v>17080.27366235615</v>
       </c>
       <c r="L43" s="7">
-        <v>19203.462337539051</v>
+        <v>18856.515727166414</v>
       </c>
       <c r="M43" s="7">
-        <v>18809.822991352674</v>
+        <v>18469.988215006015</v>
       </c>
       <c r="N43" s="7">
-        <v>19536.238457289815</v>
+        <v>19183.279621375183</v>
       </c>
       <c r="O43" s="7">
-        <v>18449.101221154011</v>
+        <v>18115.78356100537</v>
       </c>
       <c r="P43" s="7">
-        <v>17859.327984707525</v>
+        <v>17536.6656856431</v>
       </c>
       <c r="Q43" s="7">
-        <v>18084.264753956882</v>
+        <v>17757.538549734756</v>
       </c>
       <c r="R43" s="7">
-        <v>18011.743219358959</v>
+        <v>17686.327252851548</v>
       </c>
       <c r="S43" s="7">
-        <v>17922.762896767177</v>
+        <v>17598.954526888461</v>
       </c>
       <c r="T43" s="7">
-        <v>18325.660311200096</v>
+        <v>17994.572842906291</v>
       </c>
       <c r="U43" s="7">
-        <v>19089.965278664753</v>
+        <v>18745.069205803095</v>
       </c>
       <c r="V43" s="7">
-        <v>19107.109849491691</v>
+        <v>18761.904027761298</v>
       </c>
       <c r="W43" s="7">
-        <v>18860.399475292128</v>
+        <v>18519.650939782721</v>
       </c>
       <c r="X43" s="14">
+        <v>19507.181595851056</v>
+      </c>
+      <c r="Y43" s="14">
         <v>19866.099999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="7">
-        <v>57125.988017592419</v>
+        <v>56167.568058131277</v>
       </c>
       <c r="C44" s="7">
-        <v>56237.668502882123</v>
+        <v>55294.152148291934</v>
       </c>
       <c r="D44" s="7">
-        <v>57165.299022545791</v>
+        <v>56206.219530478185</v>
       </c>
       <c r="E44" s="7">
-        <v>56083.700400148075</v>
+        <v>55142.767214933185</v>
       </c>
       <c r="F44" s="7">
-        <v>57686.169838178008</v>
+        <v>56718.351539074822</v>
       </c>
       <c r="G44" s="7">
-        <v>57925.857771157607</v>
+        <v>56954.018155190039</v>
       </c>
       <c r="H44" s="7">
-        <v>58867.683931498883</v>
+        <v>57880.04301350157</v>
       </c>
       <c r="I44" s="7">
-        <v>58732.2793588817</v>
+        <v>57746.910164306631</v>
       </c>
       <c r="J44" s="7">
-        <v>58379.572286661147</v>
+        <v>57400.120565194025</v>
       </c>
       <c r="K44" s="7">
-        <v>52147.14004301151</v>
+        <v>51272.251720193424</v>
       </c>
       <c r="L44" s="7">
-        <v>60027.904563803349</v>
+        <v>59020.798273740402</v>
       </c>
       <c r="M44" s="7">
-        <v>58364.830659803622</v>
+        <v>57385.626263063932</v>
       </c>
       <c r="N44" s="7">
-        <v>60829.412275908267</v>
+        <v>59808.85884881363</v>
       </c>
       <c r="O44" s="7">
-        <v>56812.591950325237</v>
+        <v>55859.429931365587</v>
       </c>
       <c r="P44" s="7">
-        <v>54167.834894850959</v>
+        <v>53259.044764025857</v>
       </c>
       <c r="Q44" s="7">
-        <v>55194.288913077966</v>
+        <v>54268.277653084209</v>
       </c>
       <c r="R44" s="7">
-        <v>53791.650416894357</v>
+        <v>52889.171646706069</v>
       </c>
       <c r="S44" s="7">
-        <v>54393.327187152951</v>
+        <v>53480.753904015808</v>
       </c>
       <c r="T44" s="7">
-        <v>55390.843937844838</v>
+        <v>54461.535014818786</v>
       </c>
       <c r="U44" s="7">
-        <v>56664.083709390259</v>
+        <v>55713.413258055014</v>
       </c>
       <c r="V44" s="7">
-        <v>58927.74241128876</v>
+        <v>57939.093874031576</v>
       </c>
       <c r="W44" s="7">
-        <v>58661.84714167357</v>
+        <v>57677.65960968507</v>
       </c>
       <c r="X44" s="14">
+        <v>60907.204854671822</v>
+      </c>
+      <c r="Y44" s="14">
         <v>61946.5</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="7">
-        <v>4841.4253675461814</v>
+        <v>4724.4219197249886</v>
       </c>
       <c r="C45" s="7">
-        <v>4740.4584869754553</v>
+        <v>4625.8951207925575</v>
       </c>
       <c r="D45" s="7">
-        <v>4847.9057373494188</v>
+        <v>4730.7456774661632</v>
       </c>
       <c r="E45" s="7">
-        <v>4765.1110825905698</v>
+        <v>4649.9519334582865</v>
       </c>
       <c r="F45" s="7">
-        <v>5002.7095362855043</v>
+        <v>4881.8083099406613</v>
       </c>
       <c r="G45" s="7">
-        <v>4954.0841041255444</v>
+        <v>4834.3580158407967</v>
       </c>
       <c r="H45" s="7">
-        <v>5061.8938926703195</v>
+        <v>4939.5623491712513</v>
       </c>
       <c r="I45" s="7">
-        <v>5060.670326343833</v>
+        <v>4938.368352954386</v>
       </c>
       <c r="J45" s="7">
-        <v>5181.4861717664335</v>
+        <v>5056.2644238492958</v>
       </c>
       <c r="K45" s="7">
-        <v>4565.5338195593868</v>
+        <v>4455.1978838629429</v>
       </c>
       <c r="L45" s="7">
-        <v>5276.6071243328397</v>
+        <v>5149.0865741900379</v>
       </c>
       <c r="M45" s="7">
-        <v>5226.1236840474767</v>
+        <v>5099.8231747238215</v>
       </c>
       <c r="N45" s="7">
-        <v>5247.6040706679996</v>
+        <v>5120.7844416421221</v>
       </c>
       <c r="O45" s="7">
-        <v>4910.307620000176</v>
+        <v>4791.6394845262876</v>
       </c>
       <c r="P45" s="7">
-        <v>4646.3345143787783</v>
+        <v>4534.0458562581507</v>
       </c>
       <c r="Q45" s="7">
-        <v>4744.9902141105867</v>
+        <v>4630.31732900317</v>
       </c>
       <c r="R45" s="7">
-        <v>4518.5851264394259</v>
+        <v>4409.3838068010045</v>
       </c>
       <c r="S45" s="7">
-        <v>4597.3012267766571</v>
+        <v>4486.1975634193313</v>
       </c>
       <c r="T45" s="7">
-        <v>4677.0143070836175</v>
+        <v>4563.9842058439926</v>
       </c>
       <c r="U45" s="7">
-        <v>4899.8846475893743</v>
+        <v>4781.4684056418801</v>
       </c>
       <c r="V45" s="7">
-        <v>4907.090093734234</v>
+        <v>4788.4997166967532</v>
       </c>
       <c r="W45" s="7">
-        <v>4834.8090459288896</v>
+        <v>4717.9654957374951</v>
       </c>
       <c r="X45" s="14">
+        <v>4996.166614267082</v>
+      </c>
+      <c r="Y45" s="14">
         <v>5119.8999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="7">
-        <v>22182.092180115698</v>
+        <v>21786.844958705042</v>
       </c>
       <c r="C46" s="7">
-        <v>22163.26454493665</v>
+        <v>21768.352800018914</v>
       </c>
       <c r="D46" s="7">
-        <v>22505.090721409601</v>
+        <v>22104.088214387037</v>
       </c>
       <c r="E46" s="7">
-        <v>22449.862991551057</v>
+        <v>22049.844548907731</v>
       </c>
       <c r="F46" s="7">
-        <v>22656.548586627723</v>
+        <v>22252.847357595434</v>
       </c>
       <c r="G46" s="7">
-        <v>22549.649458000014</v>
+        <v>22147.852989944204</v>
       </c>
       <c r="H46" s="7">
-        <v>23056.531236209292</v>
+        <v>22645.702995460706</v>
       </c>
       <c r="I46" s="7">
-        <v>23291.667480000964</v>
+        <v>22876.649510607447</v>
       </c>
       <c r="J46" s="7">
-        <v>22769.932789594885</v>
+        <v>22364.211246571889</v>
       </c>
       <c r="K46" s="7">
-        <v>22815.7467018639</v>
+        <v>22409.208832708129</v>
       </c>
       <c r="L46" s="7">
-        <v>24661.900929142826</v>
+        <v>24222.467726097784</v>
       </c>
       <c r="M46" s="7">
-        <v>23836.622920461203</v>
+        <v>23411.894770355892</v>
       </c>
       <c r="N46" s="7">
-        <v>24678.845800803971</v>
+        <v>24239.110668915298</v>
       </c>
       <c r="O46" s="7">
-        <v>23417.394243807721</v>
+        <v>23000.136036944801</v>
       </c>
       <c r="P46" s="7">
-        <v>22227.487700491849</v>
+        <v>21831.431607981591</v>
       </c>
       <c r="Q46" s="7">
-        <v>22352.796072405741</v>
+        <v>21954.507197459257</v>
       </c>
       <c r="R46" s="7">
-        <v>22065.988429844903</v>
+        <v>21672.809980140592</v>
       </c>
       <c r="S46" s="7">
-        <v>21942.353625502481</v>
+        <v>21551.378138101692</v>
       </c>
       <c r="T46" s="7">
-        <v>22656.130194734858</v>
+        <v>22252.436420735743</v>
       </c>
       <c r="U46" s="7">
-        <v>23641.233906491965</v>
+        <v>23219.987256879867</v>
       </c>
       <c r="V46" s="7">
-        <v>24706.25046978681</v>
+        <v>24266.027033225106</v>
       </c>
       <c r="W46" s="7">
-        <v>24536.592557228942</v>
+        <v>24099.392136620121</v>
       </c>
       <c r="X46" s="14">
+        <v>25607.735880118526</v>
+      </c>
+      <c r="Y46" s="14">
         <v>26072.3</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="7">
-        <v>5070.7594127885668</v>
+        <v>4976.8843228225396</v>
       </c>
       <c r="C47" s="7">
-        <v>5003.4477867350679</v>
+        <v>4910.8188385078092</v>
       </c>
       <c r="D47" s="7">
-        <v>5076.1821528032242</v>
+        <v>4982.2066715219526</v>
       </c>
       <c r="E47" s="7">
-        <v>5025.1884967020887</v>
+        <v>4932.1570621926112</v>
       </c>
       <c r="F47" s="7">
-        <v>5049.2674523635023</v>
+        <v>4955.7902435734895</v>
       </c>
       <c r="G47" s="7">
-        <v>5062.2521784536466</v>
+        <v>4968.534583119791</v>
       </c>
       <c r="H47" s="7">
-        <v>5133.2452977281055</v>
+        <v>5038.2134050836639</v>
       </c>
       <c r="I47" s="7">
-        <v>5189.2139446683768</v>
+        <v>5093.1459031280629</v>
       </c>
       <c r="J47" s="7">
-        <v>4931.2606696592156</v>
+        <v>4839.9681232523217</v>
       </c>
       <c r="K47" s="7">
-        <v>4802.6571564675705</v>
+        <v>4713.7454499680807</v>
       </c>
       <c r="L47" s="7">
-        <v>5188.3681962257233</v>
+        <v>5092.3158120465032</v>
       </c>
       <c r="M47" s="7">
-        <v>5170.9059783803596</v>
+        <v>5075.1768726566506</v>
       </c>
       <c r="N47" s="7">
-        <v>5480.4996582997437</v>
+        <v>5379.0390373946902</v>
       </c>
       <c r="O47" s="7">
-        <v>5070.7096628801764</v>
+        <v>4976.8354939353894</v>
       </c>
       <c r="P47" s="7">
-        <v>4849.1733208134847</v>
+        <v>4759.400459453871</v>
       </c>
       <c r="Q47" s="7">
-        <v>4829.0743578233787</v>
+        <v>4739.6735890450373</v>
       </c>
       <c r="R47" s="7">
-        <v>4800.0701612312196</v>
+        <v>4711.2063478362506</v>
       </c>
       <c r="S47" s="7">
-        <v>4728.5297929644566</v>
+        <v>4640.990408113722</v>
       </c>
       <c r="T47" s="7">
-        <v>4843.9993303407846</v>
+        <v>4754.3222551902109</v>
       </c>
       <c r="U47" s="7">
-        <v>5066.6301703920844</v>
+        <v>4972.8315251890417</v>
       </c>
       <c r="V47" s="7">
-        <v>5182.1494576768046</v>
+        <v>5086.2122011526808</v>
       </c>
       <c r="W47" s="7">
-        <v>5143.0460296812016</v>
+        <v>5047.8326958523276</v>
       </c>
       <c r="X47" s="14">
+        <v>5330.1613213569626</v>
+      </c>
+      <c r="Y47" s="14">
         <v>5430.7</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="7">
-        <v>35735.083629162742</v>
+        <v>35043.118361225133</v>
       </c>
       <c r="C48" s="7">
-        <v>35623.013076867348</v>
+        <v>34933.217915219451</v>
       </c>
       <c r="D48" s="7">
-        <v>36862.300896745473</v>
+        <v>36148.508474107992</v>
       </c>
       <c r="E48" s="7">
-        <v>36150.807115200398</v>
+        <v>35450.791881117773</v>
       </c>
       <c r="F48" s="7">
-        <v>37069.991278063542</v>
+        <v>36352.177190558883</v>
       </c>
       <c r="G48" s="7">
-        <v>36999.732980752975</v>
+        <v>36283.279357436055</v>
       </c>
       <c r="H48" s="7">
-        <v>37364.047956563387</v>
+        <v>36640.53982870224</v>
       </c>
       <c r="I48" s="7">
-        <v>37287.963361427064</v>
+        <v>36565.928516735083</v>
       </c>
       <c r="J48" s="7">
-        <v>37281.108893396762</v>
+        <v>36559.206776918218</v>
       </c>
       <c r="K48" s="7">
-        <v>35455.421333526523</v>
+        <v>34768.871376697192</v>
       </c>
       <c r="L48" s="7">
-        <v>39098.228368229131</v>
+        <v>38341.140002368171</v>
       </c>
       <c r="M48" s="7">
-        <v>38460.420118009773</v>
+        <v>37715.682112409217</v>
       </c>
       <c r="N48" s="7">
-        <v>40974.296268122067</v>
+        <v>40180.88019024313</v>
       </c>
       <c r="O48" s="7">
-        <v>38983.073305320097</v>
+        <v>38228.214773444903</v>
       </c>
       <c r="P48" s="7">
-        <v>37300.301403881604</v>
+        <v>36578.027648405427</v>
       </c>
       <c r="Q48" s="7">
-        <v>38214.001992320511</v>
+        <v>37474.03556599305</v>
       </c>
       <c r="R48" s="7">
-        <v>36374.605496389668</v>
+        <v>35670.256686138302</v>
       </c>
       <c r="S48" s="7">
-        <v>36976.770512851472</v>
+        <v>36260.761529049574</v>
       </c>
       <c r="T48" s="7">
-        <v>37291.047872040697</v>
+        <v>36568.953299652669</v>
       </c>
       <c r="U48" s="7">
-        <v>38860.035604176228</v>
+        <v>38107.559543732234</v>
       </c>
       <c r="V48" s="7">
-        <v>40423.539761887507</v>
+        <v>39640.78839595832</v>
       </c>
       <c r="W48" s="7">
-        <v>39998.220020607434</v>
+        <v>39223.704440322064</v>
       </c>
       <c r="X48" s="14">
+        <v>41751.078611461948</v>
+      </c>
+      <c r="Y48" s="14">
         <v>42575.5</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="7">
-        <v>138263.04820681832</v>
+        <v>135101.50976705048</v>
       </c>
       <c r="C49" s="7">
-        <v>137749.36174242111</v>
+        <v>134599.56931523033</v>
       </c>
       <c r="D49" s="7">
-        <v>139521.24648195226</v>
+        <v>136330.93793865151</v>
       </c>
       <c r="E49" s="7">
-        <v>138787.40867567054</v>
+        <v>135613.88015033701</v>
       </c>
       <c r="F49" s="7">
-        <v>139888.1653850931</v>
+        <v>136689.46683280874</v>
       </c>
       <c r="G49" s="7">
-        <v>139441.1914485397</v>
+        <v>136252.71345265355</v>
       </c>
       <c r="H49" s="7">
-        <v>141519.95381615229</v>
+        <v>138283.94260573352</v>
       </c>
       <c r="I49" s="7">
-        <v>141816.15743977873</v>
+        <v>138573.37320392593</v>
       </c>
       <c r="J49" s="7">
-        <v>138908.82547634622</v>
+        <v>135732.52062076723</v>
       </c>
       <c r="K49" s="7">
-        <v>134186.91275556255</v>
+        <v>131118.57968832177</v>
       </c>
       <c r="L49" s="7">
-        <v>145017.02452572394</v>
+        <v>141701.0489024104</v>
       </c>
       <c r="M49" s="7">
-        <v>142455.26345652228</v>
+        <v>139197.86535047618</v>
       </c>
       <c r="N49" s="7">
-        <v>150774.3156786433</v>
+        <v>147326.69318709595</v>
       </c>
       <c r="O49" s="7">
-        <v>145910.97239883078</v>
+        <v>142574.55566272081</v>
       </c>
       <c r="P49" s="7">
-        <v>142683.42030174803</v>
+        <v>139420.80513557032</v>
       </c>
       <c r="Q49" s="7">
-        <v>141342.49849208779</v>
+        <v>138110.54499510475</v>
       </c>
       <c r="R49" s="7">
-        <v>140991.59059562947</v>
+        <v>137767.6609981471</v>
       </c>
       <c r="S49" s="7">
-        <v>141194.39668027457</v>
+        <v>137965.82969600853</v>
       </c>
       <c r="T49" s="7">
-        <v>143580.03667596864</v>
+        <v>140296.91937874729</v>
       </c>
       <c r="U49" s="7">
-        <v>150459.43254722058</v>
+        <v>147019.01020883737</v>
       </c>
       <c r="V49" s="7">
-        <v>153126.59941041545</v>
+        <v>149625.18933400224</v>
       </c>
       <c r="W49" s="7">
-        <v>152579.55668209633</v>
+        <v>149090.65534634958</v>
       </c>
       <c r="X49" s="14">
+        <v>157443.72670949681</v>
+      </c>
+      <c r="Y49" s="14">
         <v>161128.1</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="7">
-        <v>17799.598062611476</v>
+        <v>17325.281324223808</v>
       </c>
       <c r="C50" s="7">
-        <v>18169.306855433915</v>
+        <v>17685.138261507262</v>
       </c>
       <c r="D50" s="7">
-        <v>18334.842980041823</v>
+        <v>17846.263244108864</v>
       </c>
       <c r="E50" s="7">
-        <v>18609.935170520941</v>
+        <v>18114.024885320243</v>
       </c>
       <c r="F50" s="7">
-        <v>18991.664221354327</v>
+        <v>18485.581769473109</v>
       </c>
       <c r="G50" s="7">
-        <v>18337.762185558768</v>
+        <v>17849.104659777149</v>
       </c>
       <c r="H50" s="7">
-        <v>19232.927971431207</v>
+        <v>18720.416417352</v>
       </c>
       <c r="I50" s="7">
-        <v>19228.46330417</v>
+        <v>18716.070722800505</v>
       </c>
       <c r="J50" s="7">
-        <v>18530.086313733933</v>
+        <v>18036.303809687724</v>
       </c>
       <c r="K50" s="7">
-        <v>18664.541485484962</v>
+        <v>18167.176072526992</v>
       </c>
       <c r="L50" s="7">
-        <v>20406.276871271297</v>
+        <v>19862.498373904647</v>
       </c>
       <c r="M50" s="7">
-        <v>20659.389161387538</v>
+        <v>20108.865826554818</v>
       </c>
       <c r="N50" s="7">
-        <v>21378.372308413804</v>
+        <v>20808.689791443729</v>
       </c>
       <c r="O50" s="7">
-        <v>20010.982100682701</v>
+        <v>19477.737263999163</v>
       </c>
       <c r="P50" s="7">
-        <v>19275.170592441111</v>
+        <v>18761.533373493072</v>
       </c>
       <c r="Q50" s="7">
-        <v>19647.626872808909</v>
+        <v>19124.064584346681</v>
       </c>
       <c r="R50" s="7">
-        <v>19326.685983916603</v>
+        <v>18811.676002933407</v>
       </c>
       <c r="S50" s="7">
-        <v>19826.213563257272</v>
+        <v>19297.892366406501</v>
       </c>
       <c r="T50" s="7">
-        <v>20390.135381942309</v>
+        <v>19846.787016680013</v>
       </c>
       <c r="U50" s="7">
-        <v>20922.117657912542</v>
+        <v>20364.593236700515</v>
       </c>
       <c r="V50" s="7">
-        <v>21424.564442770159</v>
+        <v>20853.651015841897</v>
       </c>
       <c r="W50" s="7">
-        <v>21154.795509410171</v>
+        <v>20591.070779672686</v>
       </c>
       <c r="X50" s="14">
+        <v>21740.506988543249</v>
+      </c>
+      <c r="Y50" s="14">
         <v>22335.7</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="7">
-        <v>3576.0123493696269</v>
+        <v>3498.0075029968398</v>
       </c>
       <c r="C51" s="7">
-        <v>3557.915050968305</v>
+        <v>3480.3049674888298</v>
       </c>
       <c r="D51" s="7">
-        <v>3582.4707363945258</v>
+        <v>3504.325010897599</v>
       </c>
       <c r="E51" s="7">
-        <v>3556.3954304918584</v>
+        <v>3478.8184950415925</v>
       </c>
       <c r="F51" s="7">
-        <v>3581.7109261563028</v>
+        <v>3503.5817746739799</v>
       </c>
       <c r="G51" s="7">
-        <v>3594.4895528900606</v>
+        <v>3516.0816566166586</v>
       </c>
       <c r="H51" s="7">
-        <v>3607.3717901108494</v>
+        <v>3528.6828889534672</v>
       </c>
       <c r="I51" s="7">
-        <v>3603.1582969716101</v>
+        <v>3524.5613062588541</v>
       </c>
       <c r="J51" s="7">
-        <v>3483.0392056742853</v>
+        <v>3407.0624159976751</v>
       </c>
       <c r="K51" s="7">
-        <v>3264.3520043819744</v>
+        <v>3193.1455174543207</v>
       </c>
       <c r="L51" s="7">
-        <v>3617.7673756429062</v>
+        <v>3538.8517118311597</v>
       </c>
       <c r="M51" s="7">
-        <v>3662.69979018512</v>
+        <v>3582.8039994187948</v>
       </c>
       <c r="N51" s="7">
-        <v>3675.8928588669996</v>
+        <v>3595.7092829379922</v>
       </c>
       <c r="O51" s="7">
-        <v>3439.9717798986198</v>
+        <v>3364.9344355043768</v>
       </c>
       <c r="P51" s="7">
-        <v>3305.6235150491116</v>
+        <v>3233.5167577827019</v>
       </c>
       <c r="Q51" s="7">
-        <v>3310.4586711105335</v>
+        <v>3238.2464428420935</v>
       </c>
       <c r="R51" s="7">
-        <v>3234.374036801159</v>
+        <v>3163.8214700860913</v>
       </c>
       <c r="S51" s="7">
-        <v>3300.8574326457101</v>
+        <v>3228.8546396527299</v>
       </c>
       <c r="T51" s="7">
-        <v>3378.4271506025216</v>
+        <v>3304.7323013912601</v>
       </c>
       <c r="U51" s="7">
-        <v>3475.3029559760107</v>
+        <v>3399.4949199026482</v>
       </c>
       <c r="V51" s="7">
-        <v>3568.8977625935349</v>
+        <v>3491.0481092665918</v>
       </c>
       <c r="W51" s="7">
-        <v>3523.481832445179</v>
+        <v>3446.6228531730171</v>
       </c>
       <c r="X51" s="14">
+        <v>3638.9521177667184</v>
+      </c>
+      <c r="Y51" s="14">
         <v>3720.1</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="7">
-        <v>37710.413234876462</v>
+        <v>36958.787788049529</v>
       </c>
       <c r="C52" s="7">
-        <v>37340.067452428288</v>
+        <v>36595.823555956675</v>
       </c>
       <c r="D52" s="7">
-        <v>38198.311559216134</v>
+        <v>37436.961562468365</v>
       </c>
       <c r="E52" s="7">
-        <v>37968.734024424877</v>
+        <v>37211.959854414788</v>
       </c>
       <c r="F52" s="7">
-        <v>39009.755751207042</v>
+        <v>38232.232447113602</v>
       </c>
       <c r="G52" s="7">
-        <v>39632.894774211876</v>
+        <v>38842.951368973314</v>
       </c>
       <c r="H52" s="7">
-        <v>39981.130360692987</v>
+        <v>39184.246094672555</v>
       </c>
       <c r="I52" s="7">
-        <v>40298.043169554105</v>
+        <v>39494.842352980864</v>
       </c>
       <c r="J52" s="7">
-        <v>39901.533655211591</v>
+        <v>39106.23587165559</v>
       </c>
       <c r="K52" s="7">
-        <v>38191.309997159893</v>
+        <v>37430.099552110398</v>
       </c>
       <c r="L52" s="7">
-        <v>41825.120704345354</v>
+        <v>40991.482927899051</v>
       </c>
       <c r="M52" s="7">
-        <v>40666.546435671684</v>
+        <v>39856.000792874256</v>
       </c>
       <c r="N52" s="7">
-        <v>42362.029963078669</v>
+        <v>41517.690774823714</v>
       </c>
       <c r="O52" s="7">
-        <v>40181.596137460954</v>
+        <v>39380.716285974559</v>
       </c>
       <c r="P52" s="7">
-        <v>38602.928145413236</v>
+        <v>37833.513529471304</v>
       </c>
       <c r="Q52" s="7">
-        <v>39094.880005680207</v>
+        <v>38315.660046728968</v>
       </c>
       <c r="R52" s="7">
-        <v>37881.398750355016</v>
+        <v>37126.365304160063</v>
       </c>
       <c r="S52" s="7">
-        <v>37693.462084635044</v>
+        <v>36942.174499814435</v>
       </c>
       <c r="T52" s="7">
-        <v>38652.67608633911</v>
+        <v>37882.269918856917</v>
       </c>
       <c r="U52" s="7">
-        <v>39952.018602669697</v>
+        <v>39155.714577920982</v>
       </c>
       <c r="V52" s="7">
-        <v>41279.367367225219</v>
+        <v>40456.607278416952</v>
       </c>
       <c r="W52" s="7">
-        <v>40854.851604657772</v>
+        <v>40040.552755659774</v>
       </c>
       <c r="X52" s="14">
+        <v>41964.082606531934</v>
+      </c>
+      <c r="Y52" s="14">
         <v>42817.5</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="7">
-        <v>70470.356496586828</v>
+        <v>69227.26139437611</v>
       </c>
       <c r="C53" s="7">
-        <v>71508.037301862772</v>
+        <v>70246.637539496718</v>
       </c>
       <c r="D53" s="7">
-        <v>72856.250838829103</v>
+        <v>71571.068627673827</v>
       </c>
       <c r="E53" s="7">
-        <v>68901.619715376597</v>
+        <v>67686.197085767548</v>
       </c>
       <c r="F53" s="7">
-        <v>72274.4037949786</v>
+        <v>70999.485349276001</v>
       </c>
       <c r="G53" s="7">
-        <v>74578.646673608688</v>
+        <v>73263.0814484781</v>
       </c>
       <c r="H53" s="7">
-        <v>77010.831609394882</v>
+        <v>75652.362710554429</v>
       </c>
       <c r="I53" s="7">
-        <v>78426.552261946068</v>
+        <v>77043.110090700357</v>
       </c>
       <c r="J53" s="7">
-        <v>79317.646187666309</v>
+        <v>77918.48514468869</v>
       </c>
       <c r="K53" s="7">
-        <v>79094.551243781083</v>
+        <v>77699.32558932509</v>
       </c>
       <c r="L53" s="7">
-        <v>85144.474650005781</v>
+        <v>83642.528517196697</v>
       </c>
       <c r="M53" s="7">
-        <v>82566.345759574222</v>
+        <v>81109.877747721126</v>
       </c>
       <c r="N53" s="7">
-        <v>83435.580238343173</v>
+        <v>81963.778954786219</v>
       </c>
       <c r="O53" s="7">
-        <v>80274.961379150758</v>
+        <v>78858.913323179731</v>
       </c>
       <c r="P53" s="7">
-        <v>76693.226703690831</v>
+        <v>75340.360346434492</v>
       </c>
       <c r="Q53" s="7">
-        <v>83159.765451810716</v>
+        <v>81692.829533313634</v>
       </c>
       <c r="R53" s="7">
-        <v>43189.766701376837</v>
+        <v>42427.900434179726</v>
       </c>
       <c r="S53" s="7">
-        <v>46658.346592618305</v>
+        <v>45835.294673910576</v>
       </c>
       <c r="T53" s="7">
-        <v>50722.917875737592</v>
+        <v>49828.167034166087</v>
       </c>
       <c r="U53" s="7">
-        <v>52405.452366076584</v>
+        <v>51481.021663522086</v>
       </c>
       <c r="V53" s="7">
-        <v>53794.81309730417</v>
+        <v>52845.874110613528</v>
       </c>
       <c r="W53" s="7">
-        <v>53284.330718500511</v>
+        <v>52344.396626582711</v>
       </c>
       <c r="X53" s="14">
+        <v>54587.782046327666</v>
+      </c>
+      <c r="Y53" s="14">
         <v>55568</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="7">
-        <v>7390.8569474048045</v>
+        <v>7263.240814651268</v>
       </c>
       <c r="C54" s="7">
-        <v>7274.4512932772623</v>
+        <v>7148.845108695652</v>
       </c>
       <c r="D54" s="7">
-        <v>7305.9883489832355</v>
+        <v>7179.837621716485</v>
       </c>
       <c r="E54" s="7">
-        <v>7241.9038971138898</v>
+        <v>7116.8597005208339</v>
       </c>
       <c r="F54" s="7">
-        <v>7291.194077999884</v>
+        <v>7165.298799818841</v>
       </c>
       <c r="G54" s="7">
-        <v>7295.2354398294829</v>
+        <v>7169.2703804347821</v>
       </c>
       <c r="H54" s="7">
-        <v>7367.4747825335562</v>
+        <v>7240.2623839447469</v>
       </c>
       <c r="I54" s="7">
-        <v>7340.3399245348228</v>
+        <v>7213.596056951993</v>
       </c>
       <c r="J54" s="7">
-        <v>7157.3961345699636</v>
+        <v>7033.8111129981889</v>
       </c>
       <c r="K54" s="7">
-        <v>7143.3235353418977</v>
+        <v>7019.9815019248199</v>
       </c>
       <c r="L54" s="7">
-        <v>7565.0685091307105</v>
+        <v>7434.444307631341</v>
       </c>
       <c r="M54" s="7">
-        <v>7194.2013940895213</v>
+        <v>7069.9808650362329</v>
       </c>
       <c r="N54" s="7">
-        <v>7704.1346563742163</v>
+        <v>7571.1092334692039</v>
       </c>
       <c r="O54" s="7">
-        <v>6970.7718186531483</v>
+        <v>6850.40919384058</v>
       </c>
       <c r="P54" s="7">
-        <v>6700.3614119476933</v>
+        <v>6584.667897984601</v>
       </c>
       <c r="Q54" s="7">
-        <v>6743.2287142116475</v>
+        <v>6626.795020946558</v>
       </c>
       <c r="R54" s="7">
-        <v>6638.8749783973726</v>
+        <v>6524.243135756341</v>
       </c>
       <c r="S54" s="7">
-        <v>6571.6873379802983</v>
+        <v>6458.215608016304</v>
       </c>
       <c r="T54" s="7">
-        <v>6655.7620974710535</v>
+        <v>6540.8386690443849</v>
       </c>
       <c r="U54" s="7">
-        <v>6907.6255400656728</v>
+        <v>6788.353246716486</v>
       </c>
       <c r="V54" s="7">
-        <v>7197.0159139351354</v>
+        <v>7072.746787250906</v>
       </c>
       <c r="W54" s="7">
-        <v>7134.2304712253008</v>
+        <v>7011.0454455389499</v>
       </c>
       <c r="X54" s="14">
+        <v>7386.714419157609</v>
+      </c>
+      <c r="Y54" s="14">
         <v>7516.5</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="7">
-        <v>26595.650356292419</v>
+        <v>25862.180851986435</v>
       </c>
       <c r="C55" s="7">
-        <v>26605.717133250691</v>
+        <v>25871.970001821224</v>
       </c>
       <c r="D55" s="7">
-        <v>26761.364992374722</v>
+        <v>26023.325318497577</v>
       </c>
       <c r="E55" s="7">
-        <v>26628.690034514435</v>
+        <v>25894.309343751898</v>
       </c>
       <c r="F55" s="7">
-        <v>26539.12153183444</v>
+        <v>25807.211010606468</v>
       </c>
       <c r="G55" s="7">
-        <v>26943.083222595807</v>
+        <v>26200.032023207612</v>
       </c>
       <c r="H55" s="7">
-        <v>27014.325028762029</v>
+        <v>26269.309083576885</v>
       </c>
       <c r="I55" s="7">
-        <v>27307.035928010202</v>
+        <v>26553.947440311513</v>
       </c>
       <c r="J55" s="7">
-        <v>26784.596016124571</v>
+        <v>26045.915664270164</v>
       </c>
       <c r="K55" s="7">
-        <v>25746.943621964379</v>
+        <v>25036.880219761159</v>
       </c>
       <c r="L55" s="7">
-        <v>27908.719443131449</v>
+        <v>27139.03739582159</v>
       </c>
       <c r="M55" s="7">
-        <v>27156.034273636145</v>
+        <v>26407.110192789682</v>
       </c>
       <c r="N55" s="7">
-        <v>28369.726203323022</v>
+        <v>27587.330257486534</v>
       </c>
       <c r="O55" s="7">
-        <v>26600.812806014612</v>
+        <v>25867.20092882479</v>
       </c>
       <c r="P55" s="7">
-        <v>25327.752704522554</v>
+        <v>24629.249980486875</v>
       </c>
       <c r="Q55" s="7">
-        <v>25561.869799423868</v>
+        <v>24856.910465106193</v>
       </c>
       <c r="R55" s="7">
-        <v>25145.776351815355</v>
+        <v>24452.292271934923</v>
       </c>
       <c r="S55" s="7">
-        <v>25183.204112301231</v>
+        <v>24488.687829012983</v>
       </c>
       <c r="T55" s="7">
-        <v>26092.827753351114</v>
+        <v>25373.225367930827</v>
       </c>
       <c r="U55" s="7">
-        <v>26999.095802081567</v>
+        <v>26254.499856903742</v>
       </c>
       <c r="V55" s="7">
-        <v>27753.587828979642</v>
+        <v>26988.184086829075</v>
       </c>
       <c r="W55" s="7">
-        <v>27459.844439787026</v>
+        <v>26702.541714726773</v>
       </c>
       <c r="X55" s="14">
+        <v>28144.307782701828</v>
+      </c>
+      <c r="Y55" s="14">
         <v>28942.5</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="7">
-        <v>2907.3267702711487</v>
+        <v>2841.3171450877862</v>
       </c>
       <c r="C56" s="7">
-        <v>2879.9695465987938</v>
+        <v>2814.5810556130505</v>
       </c>
       <c r="D56" s="7">
-        <v>2931.0691388070927</v>
+        <v>2864.5204531837248</v>
       </c>
       <c r="E56" s="7">
-        <v>2902.7286745376346</v>
+        <v>2836.8234471739565</v>
       </c>
       <c r="F56" s="7">
-        <v>3042.7537031016318</v>
+        <v>2973.6692666630352</v>
       </c>
       <c r="G56" s="7">
-        <v>2976.7319888902302</v>
+        <v>2909.1465475606874</v>
       </c>
       <c r="H56" s="7">
-        <v>3026.1832071563263</v>
+        <v>2957.4749968226301</v>
       </c>
       <c r="I56" s="7">
-        <v>3013.4299982350699</v>
+        <v>2945.0113441182348</v>
       </c>
       <c r="J56" s="7">
-        <v>2897.0605816837428</v>
+        <v>2831.2840459720028</v>
       </c>
       <c r="K56" s="7">
-        <v>2846.0477459987178</v>
+        <v>2781.4294351544199</v>
       </c>
       <c r="L56" s="7">
-        <v>2964.1522930155215</v>
+        <v>2896.8524683624742</v>
       </c>
       <c r="M56" s="7">
-        <v>2886.4184481621505</v>
+        <v>2820.8835375928247</v>
       </c>
       <c r="N56" s="7">
-        <v>3098.1911214736233</v>
+        <v>3027.8480018882656</v>
       </c>
       <c r="O56" s="7">
-        <v>2885.0881814719514</v>
+        <v>2819.583474045427</v>
       </c>
       <c r="P56" s="7">
-        <v>2761.1998662368906</v>
+        <v>2698.5079906312976</v>
       </c>
       <c r="Q56" s="7">
-        <v>2762.0385126285378</v>
+        <v>2699.3275959111788</v>
       </c>
       <c r="R56" s="7">
-        <v>2778.0017129109265</v>
+        <v>2714.9283584799459</v>
       </c>
       <c r="S56" s="7">
-        <v>2744.1088311519416</v>
+        <v>2681.8050002723458</v>
       </c>
       <c r="T56" s="7">
-        <v>2804.7805597614552</v>
+        <v>2741.0992029340741</v>
       </c>
       <c r="U56" s="7">
-        <v>2934.2502113271344</v>
+        <v>2867.6293007970658</v>
       </c>
       <c r="V56" s="7">
-        <v>2984.9738586012463</v>
+        <v>2917.2012891043446</v>
       </c>
       <c r="W56" s="7">
-        <v>2944.9212636898178</v>
+        <v>2878.0580714272746</v>
       </c>
       <c r="X56" s="14">
+        <v>3042.5161101730305</v>
+      </c>
+      <c r="Y56" s="14">
         <v>3113.2</v>
       </c>
     </row>
@@ -4652,28 +4814,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:T56"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:U56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="9" customWidth="1"/>
     <col min="2" max="19" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="9"/>
+    <col min="20" max="20" width="8.85546875" style="9"/>
+    <col min="21" max="21" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -4734,400 +4897,421 @@
       <c r="T4" s="11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="U4" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="13">
-        <v>1.1990430806629071</v>
+        <v>1.1990430806628989</v>
       </c>
       <c r="C5" s="13">
-        <v>2.508483145521208</v>
+        <v>2.5084831455212142</v>
       </c>
       <c r="D5" s="13">
-        <v>2.8441377988596392</v>
+        <v>2.8441377988596406</v>
       </c>
       <c r="E5" s="13">
-        <v>4.3370712401055371</v>
+        <v>4.3370712401055451</v>
       </c>
       <c r="F5" s="13">
-        <v>0.27833646302984361</v>
+        <v>0.27833646302986409</v>
       </c>
       <c r="G5" s="13">
-        <v>-6.7247773425273527</v>
+        <v>-6.7247773425273607</v>
       </c>
       <c r="H5" s="13">
-        <v>1.5448692265404631</v>
+        <v>1.5448692265404516</v>
       </c>
       <c r="I5" s="13">
-        <v>-0.97248951738114287</v>
+        <v>-0.97248951738114808</v>
       </c>
       <c r="J5" s="13">
-        <v>5.8307430537732614</v>
+        <v>5.8307430537732481</v>
       </c>
       <c r="K5" s="13">
-        <v>7.6356758625598724</v>
+        <v>7.6356758625598697</v>
       </c>
       <c r="L5" s="13">
-        <v>-7.0626990025784329</v>
+        <v>-7.0626990025784178</v>
       </c>
       <c r="M5" s="13">
-        <v>-3.6211542253058373</v>
+        <v>-3.6211542253058235</v>
       </c>
       <c r="N5" s="13">
         <v>-12.020478735348274</v>
       </c>
       <c r="O5" s="13">
-        <v>-7.0533774208785971</v>
+        <v>-7.0533774208785927</v>
       </c>
       <c r="P5" s="13">
-        <v>-0.49267406500533178</v>
+        <v>-0.49267406500535216</v>
       </c>
       <c r="Q5" s="13">
-        <v>1.3199423316708123</v>
+        <v>1.3199423316707963</v>
       </c>
       <c r="R5" s="13">
-        <v>9.1044593270173237</v>
+        <v>9.1044593270173202</v>
       </c>
       <c r="S5" s="13">
-        <v>7.86205073995772</v>
+        <v>7.8620507399577146</v>
       </c>
       <c r="T5" s="13">
-        <v>10.96988639182417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10.969886391824177</v>
+      </c>
+      <c r="U5" s="13">
+        <v>9.6816682850852498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="13">
-        <v>2.2159615291203165</v>
+        <v>2.2159615291203227</v>
       </c>
       <c r="C6" s="13">
-        <v>2.8048316808516875</v>
+        <v>2.8048316808517035</v>
       </c>
       <c r="D6" s="13">
-        <v>3.6242218667488921</v>
+        <v>3.624221866748885</v>
       </c>
       <c r="E6" s="13">
-        <v>5.6684055605747252</v>
+        <v>5.6684055605747279</v>
       </c>
       <c r="F6" s="13">
-        <v>0.59211526763990463</v>
+        <v>0.59211526763989863</v>
       </c>
       <c r="G6" s="13">
-        <v>0.76434329065909379</v>
+        <v>0.76434329065907147</v>
       </c>
       <c r="H6" s="13">
-        <v>6.1142883712279783</v>
+        <v>6.1142883712279819</v>
       </c>
       <c r="I6" s="13">
-        <v>1.7596116719068817</v>
+        <v>1.7596116719068839</v>
       </c>
       <c r="J6" s="13">
-        <v>8.3116809493664849</v>
+        <v>8.3116809493664974</v>
       </c>
       <c r="K6" s="13">
-        <v>1.8747176630025502</v>
+        <v>1.8747176630025517</v>
       </c>
       <c r="L6" s="13">
-        <v>-9.7388484795373031</v>
+        <v>-9.7388484795372765</v>
       </c>
       <c r="M6" s="13">
-        <v>-7.410920786354442</v>
+        <v>-7.410920786354434</v>
       </c>
       <c r="N6" s="13">
-        <v>-11.76244809658396</v>
+        <v>-11.762448096583972</v>
       </c>
       <c r="O6" s="13">
-        <v>-8.5516591530559491</v>
+        <v>-8.5516591530559456</v>
       </c>
       <c r="P6" s="13">
-        <v>-1.4893637678767295</v>
+        <v>-1.4893637678767546</v>
       </c>
       <c r="Q6" s="13">
-        <v>2.7106405815485197</v>
+        <v>2.7106405815485286</v>
       </c>
       <c r="R6" s="13">
-        <v>6.2351708320151857</v>
+        <v>6.2351708320151928</v>
       </c>
       <c r="S6" s="13">
-        <v>8.0290127385317955</v>
+        <v>8.0290127385317795</v>
       </c>
       <c r="T6" s="13">
-        <v>11.367690685274439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>11.367690685274452</v>
+      </c>
+      <c r="U6" s="13">
+        <v>9.7726646589969732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="13">
-        <v>2.3927520520365491</v>
+        <v>2.3927520520365677</v>
       </c>
       <c r="C7" s="13">
-        <v>2.5486166314442458</v>
+        <v>2.5486166314442626</v>
       </c>
       <c r="D7" s="13">
-        <v>4.0630214226808254</v>
+        <v>4.0630214226808237</v>
       </c>
       <c r="E7" s="13">
-        <v>4.7498985683649249</v>
+        <v>4.7498985683649266</v>
       </c>
       <c r="F7" s="13">
-        <v>-0.47549723965816532</v>
+        <v>-0.4754972396581848</v>
       </c>
       <c r="G7" s="13">
-        <v>-3.5667356758647291</v>
+        <v>-3.5667356758647375</v>
       </c>
       <c r="H7" s="13">
-        <v>-2.1185230236179979</v>
+        <v>-2.1185230236179993</v>
       </c>
       <c r="I7" s="13">
-        <v>0.26559690136946862</v>
+        <v>0.26559690136946706</v>
       </c>
       <c r="J7" s="13">
-        <v>4.343613757468086</v>
+        <v>4.3436137574680975</v>
       </c>
       <c r="K7" s="13">
-        <v>-0.83129104989707425</v>
+        <v>-0.83129104989707936</v>
       </c>
       <c r="L7" s="13">
-        <v>-9.75804933157597</v>
+        <v>-9.7580493315759682</v>
       </c>
       <c r="M7" s="13">
-        <v>-11.462156121519818</v>
+        <v>-11.462156121519815</v>
       </c>
       <c r="N7" s="13">
-        <v>-14.535656416698529</v>
+        <v>-14.535656416698519</v>
       </c>
       <c r="O7" s="13">
-        <v>-7.5739902334868807</v>
+        <v>-7.5739902334868896</v>
       </c>
       <c r="P7" s="13">
-        <v>-0.56961034896458618</v>
+        <v>-0.56961034896459162</v>
       </c>
       <c r="Q7" s="13">
-        <v>3.0864005152657881</v>
+        <v>3.0864005152657903</v>
       </c>
       <c r="R7" s="13">
-        <v>8.4325671559125013</v>
+        <v>8.4325671559124871</v>
       </c>
       <c r="S7" s="13">
-        <v>8.2310160427807446</v>
+        <v>8.2310160427807553</v>
       </c>
       <c r="T7" s="13">
-        <v>11.656821496395928</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>11.656821496395933</v>
+      </c>
+      <c r="U7" s="13">
+        <v>10.079409867784575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="13">
-        <v>1.3384040826701809</v>
+        <v>1.3384040826701646</v>
       </c>
       <c r="C8" s="13">
-        <v>3.6121259998025042</v>
+        <v>3.6121259998025006</v>
       </c>
       <c r="D8" s="13">
-        <v>3.1028222478956979</v>
+        <v>3.1028222478956851</v>
       </c>
       <c r="E8" s="13">
-        <v>3.6428029344801365</v>
+        <v>3.642802934480144</v>
       </c>
       <c r="F8" s="13">
-        <v>-9.4544402103143091E-2</v>
+        <v>-9.4544402103121372E-2</v>
       </c>
       <c r="G8" s="13">
-        <v>-1.0893183897529677</v>
+        <v>-1.0893183897529597</v>
       </c>
       <c r="H8" s="13">
-        <v>4.7392160001506722</v>
+        <v>4.7392160001506483</v>
       </c>
       <c r="I8" s="13">
-        <v>3.9494188993822896</v>
+        <v>3.9494188993822665</v>
       </c>
       <c r="J8" s="13">
-        <v>7.5639502882470566</v>
+        <v>7.563950288247054</v>
       </c>
       <c r="K8" s="13">
-        <v>3.7173001878884273</v>
+        <v>3.7173001878884335</v>
       </c>
       <c r="L8" s="13">
-        <v>-6.9629243383199197</v>
+        <v>-6.9629243383199046</v>
       </c>
       <c r="M8" s="13">
-        <v>-6.0995764433888109</v>
+        <v>-6.0995764433888127</v>
       </c>
       <c r="N8" s="13">
-        <v>-5.0426429661549692</v>
+        <v>-5.0426429661549728</v>
       </c>
       <c r="O8" s="13">
-        <v>-4.2408702841801187</v>
+        <v>-4.240870284180132</v>
       </c>
       <c r="P8" s="13">
-        <v>0.95374298221033849</v>
+        <v>0.9537429822103296</v>
       </c>
       <c r="Q8" s="13">
-        <v>3.5171916326039909</v>
+        <v>3.5171916326040069</v>
       </c>
       <c r="R8" s="13">
-        <v>3.4044604955896141</v>
+        <v>3.4044604955896118</v>
       </c>
       <c r="S8" s="13">
-        <v>5.5346436679019888</v>
+        <v>5.534643667901987</v>
       </c>
       <c r="T8" s="13">
-        <v>9.1640025269444934</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9.1640025269445058</v>
+      </c>
+      <c r="U8" s="13">
+        <v>8.2048089787423688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="13">
-        <v>-1.5771831586289791</v>
+        <v>-1.5771831586289695</v>
       </c>
       <c r="C9" s="13">
-        <v>-1.8805320529710847</v>
+        <v>-1.8805320529710974</v>
       </c>
       <c r="D9" s="13">
-        <v>0.24661877825837958</v>
+        <v>0.24661877825840992</v>
       </c>
       <c r="E9" s="13">
-        <v>2.6424548494323585</v>
+        <v>2.6424548494323625</v>
       </c>
       <c r="F9" s="13">
-        <v>1.5207590999468541</v>
+        <v>1.5207590999468437</v>
       </c>
       <c r="G9" s="13">
-        <v>4.14644334818587</v>
+        <v>4.1464433481858727</v>
       </c>
       <c r="H9" s="13">
-        <v>9.1424722260187234</v>
+        <v>9.1424722260187004</v>
       </c>
       <c r="I9" s="13">
-        <v>2.9078818396725086</v>
+        <v>2.9078818396724979</v>
       </c>
       <c r="J9" s="13">
-        <v>9.370849048371614</v>
+        <v>9.37084904837163</v>
       </c>
       <c r="K9" s="13">
-        <v>3.1247314087076115</v>
+        <v>3.1247314087076035</v>
       </c>
       <c r="L9" s="13">
-        <v>-8.7988264653530042</v>
+        <v>-8.7988264653530059</v>
       </c>
       <c r="M9" s="13">
-        <v>-4.8380770954728929</v>
+        <v>-4.8380770954728867</v>
       </c>
       <c r="N9" s="13">
-        <v>-10.035105138115672</v>
+        <v>-10.035105138115686</v>
       </c>
       <c r="O9" s="13">
-        <v>-6.3240264851599672</v>
+        <v>-6.3240264851599619</v>
       </c>
       <c r="P9" s="13">
-        <v>1.4819246385908442</v>
+        <v>1.4819246385908538</v>
       </c>
       <c r="Q9" s="13">
-        <v>4.9319477562876193</v>
+        <v>4.9319477562876095</v>
       </c>
       <c r="R9" s="13">
-        <v>8.6506247290213292</v>
+        <v>8.6506247290213345</v>
       </c>
       <c r="S9" s="13">
-        <v>7.8196053620150963</v>
+        <v>7.8196053620150989</v>
       </c>
       <c r="T9" s="13">
         <v>10.522551776792021</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U9" s="13">
+        <v>9.5218501304555119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="13">
-        <v>1.8982461961879018</v>
+        <v>1.8982461961879069</v>
       </c>
       <c r="C10" s="13">
-        <v>4.8260459576157722</v>
+        <v>4.8260459576157695</v>
       </c>
       <c r="D10" s="13">
-        <v>5.0931171736540728</v>
+        <v>5.0931171736540932</v>
       </c>
       <c r="E10" s="13">
-        <v>6.397670387035201</v>
+        <v>6.3976703870351921</v>
       </c>
       <c r="F10" s="13">
-        <v>0.5804152938471997</v>
+        <v>0.5804152938472078</v>
       </c>
       <c r="G10" s="13">
-        <v>-11.483140322137741</v>
+        <v>-11.483140322137736</v>
       </c>
       <c r="H10" s="13">
-        <v>-3.5561576173098959</v>
+        <v>-3.5561576173099017</v>
       </c>
       <c r="I10" s="13">
-        <v>-5.2102117220610173</v>
+        <v>-5.2102117220610102</v>
       </c>
       <c r="J10" s="13">
-        <v>2.3739691850610556</v>
+        <v>2.3739691850610467</v>
       </c>
       <c r="K10" s="13">
-        <v>9.6234488660676085</v>
+        <v>9.6234488660675996</v>
       </c>
       <c r="L10" s="13">
-        <v>-5.9546900828420526</v>
+        <v>-5.954690082842049</v>
       </c>
       <c r="M10" s="13">
-        <v>-2.595722080054077</v>
+        <v>-2.5957220800540695</v>
       </c>
       <c r="N10" s="13">
-        <v>-9.6412326639195687</v>
+        <v>-9.6412326639195705</v>
       </c>
       <c r="O10" s="13">
-        <v>-3.6701276396424536</v>
+        <v>-3.6701276396424376</v>
       </c>
       <c r="P10" s="13">
-        <v>3.7327914655829457</v>
+        <v>3.7327914655829364</v>
       </c>
       <c r="Q10" s="13">
-        <v>4.1520021414337718</v>
+        <v>4.1520021414337647</v>
       </c>
       <c r="R10" s="13">
-        <v>9.3821416071318424</v>
+        <v>9.3821416071318318</v>
       </c>
       <c r="S10" s="13">
-        <v>7.1924226308058499</v>
+        <v>7.1924226308058472</v>
       </c>
       <c r="T10" s="13">
         <v>9.2625784777519797</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10" s="13">
+        <v>8.3261148921993229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="13">
-        <v>2.0163069544364429</v>
+        <v>2.0163069544364629</v>
       </c>
       <c r="C11" s="13">
-        <v>4.0231054768896639</v>
+        <v>4.0231054768896657</v>
       </c>
       <c r="D11" s="13">
-        <v>2.7266272189349059</v>
+        <v>2.7266272189349126</v>
       </c>
       <c r="E11" s="13">
-        <v>4.94772253760729</v>
+        <v>4.947722537607282</v>
       </c>
       <c r="F11" s="13">
-        <v>1.7536106514217009</v>
+        <v>1.7536106514216845</v>
       </c>
       <c r="G11" s="13">
-        <v>-3.9047796515419675</v>
+        <v>-3.904779651541979</v>
       </c>
       <c r="H11" s="13">
         <v>4.5454126537947612</v>
@@ -5136,1377 +5320,1443 @@
         <v>1.451584996038642</v>
       </c>
       <c r="J11" s="13">
-        <v>4.1084118022122107</v>
+        <v>4.1084118022122178</v>
       </c>
       <c r="K11" s="13">
-        <v>3.2722830355151684</v>
+        <v>3.2722830355151933</v>
       </c>
       <c r="L11" s="13">
         <v>-8.9847227976762358</v>
       </c>
       <c r="M11" s="13">
-        <v>-6.8390108163906396</v>
+        <v>-6.8390108163906369</v>
       </c>
       <c r="N11" s="13">
-        <v>-9.2266316359408016</v>
+        <v>-9.226631635940814</v>
       </c>
       <c r="O11" s="13">
-        <v>-3.586383010684032</v>
+        <v>-3.5863830106840342</v>
       </c>
       <c r="P11" s="13">
-        <v>1.6833744975543619</v>
+        <v>1.6833744975543499</v>
       </c>
       <c r="Q11" s="13">
         <v>4.8214595417493644</v>
       </c>
       <c r="R11" s="13">
-        <v>8.8238745257558477</v>
+        <v>8.8238745257558655</v>
       </c>
       <c r="S11" s="13">
-        <v>7.2584571640017908</v>
+        <v>7.2584571640017765</v>
       </c>
       <c r="T11" s="13">
-        <v>10.563615061486134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10.563615061486152</v>
+      </c>
+      <c r="U11" s="13">
+        <v>8.8721389833624276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="13">
-        <v>0.96766716884921766</v>
+        <v>0.96766716884922332</v>
       </c>
       <c r="C12" s="13">
-        <v>-0.17404925593941487</v>
+        <v>-0.17404925593941928</v>
       </c>
       <c r="D12" s="13">
-        <v>-0.32794988545518583</v>
+        <v>-0.32794988545518106</v>
       </c>
       <c r="E12" s="13">
-        <v>0.11163097711079646</v>
+        <v>0.11163097711079485</v>
       </c>
       <c r="F12" s="13">
-        <v>-3.5408895265423252</v>
+        <v>-3.5408895265423093</v>
       </c>
       <c r="G12" s="13">
-        <v>-14.220401204970994</v>
+        <v>-14.220401204970999</v>
       </c>
       <c r="H12" s="13">
-        <v>-2.8916398039178026</v>
+        <v>-2.8916398039178319</v>
       </c>
       <c r="I12" s="13">
-        <v>-3.8969098154809756</v>
+        <v>-3.8969098154809791</v>
       </c>
       <c r="J12" s="13">
-        <v>3.3019990480723482</v>
+        <v>3.3019990480723327</v>
       </c>
       <c r="K12" s="13">
-        <v>10.490300142279642</v>
+        <v>10.490300142279635</v>
       </c>
       <c r="L12" s="13">
-        <v>-9.0952839268527317</v>
+        <v>-9.0952839268527423</v>
       </c>
       <c r="M12" s="13">
-        <v>-4.6058074540428171</v>
+        <v>-4.6058074540428109</v>
       </c>
       <c r="N12" s="13">
-        <v>-14.483864155579866</v>
+        <v>-14.483864155579873</v>
       </c>
       <c r="O12" s="13">
-        <v>-6.1687515329899547</v>
+        <v>-6.1687515329899503</v>
       </c>
       <c r="P12" s="13">
-        <v>2.2061127256619733</v>
+        <v>2.2061127256619892</v>
       </c>
       <c r="Q12" s="13">
-        <v>2.0476155221102319</v>
+        <v>2.0476155221102106</v>
       </c>
       <c r="R12" s="13">
-        <v>11.675964484953255</v>
+        <v>11.675964484953248</v>
       </c>
       <c r="S12" s="13">
         <v>7.6122946891473982</v>
       </c>
       <c r="T12" s="13">
-        <v>9.9658573195353277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9.9658573195353259</v>
+      </c>
+      <c r="U12" s="13">
+        <v>9.2667253977302266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="13">
-        <v>0.75493556016798569</v>
+        <v>0.75493556016799646</v>
       </c>
       <c r="C13" s="13">
-        <v>1.6105131804710713</v>
+        <v>1.6105131804710546</v>
       </c>
       <c r="D13" s="13">
-        <v>2.2357330652644429</v>
+        <v>2.2357330652644691</v>
       </c>
       <c r="E13" s="13">
-        <v>1.7661966593931129</v>
+        <v>1.766196659393116</v>
       </c>
       <c r="F13" s="13">
-        <v>-1.3232151925417059</v>
+        <v>-1.3232151925417095</v>
       </c>
       <c r="G13" s="13">
-        <v>-11.187013086694538</v>
+        <v>-11.187013086694543</v>
       </c>
       <c r="H13" s="13">
-        <v>0.70436517316037972</v>
+        <v>0.70436517316035641</v>
       </c>
       <c r="I13" s="13">
-        <v>-1.659583469548658</v>
+        <v>-1.6595834695486544</v>
       </c>
       <c r="J13" s="13">
-        <v>4.4413803817994637</v>
+        <v>4.4413803817994655</v>
       </c>
       <c r="K13" s="13">
-        <v>10.304856970011228</v>
+        <v>10.304856970011242</v>
       </c>
       <c r="L13" s="13">
-        <v>-7.3248587040201301</v>
+        <v>-7.3248587040201238</v>
       </c>
       <c r="M13" s="13">
-        <v>-2.8491532715397487</v>
+        <v>-2.8491532715397541</v>
       </c>
       <c r="N13" s="13">
-        <v>-11.388992190405359</v>
+        <v>-11.388992190405348</v>
       </c>
       <c r="O13" s="13">
-        <v>-6.5215900966633109</v>
+        <v>-6.5215900966633074</v>
       </c>
       <c r="P13" s="13">
-        <v>-3.0350919847637705</v>
+        <v>-3.0350919847637567</v>
       </c>
       <c r="Q13" s="13">
-        <v>-0.74374509369779052</v>
+        <v>-0.7437450936977732</v>
       </c>
       <c r="R13" s="13">
-        <v>6.1882278879446018</v>
+        <v>6.1882278879445831</v>
       </c>
       <c r="S13" s="13">
-        <v>4.6810828933031559</v>
+        <v>4.6810828933031488</v>
       </c>
       <c r="T13" s="13">
-        <v>10.240712106648852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10.240712106648825</v>
+      </c>
+      <c r="U13" s="13">
+        <v>9.4095697758129351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="13">
-        <v>-3.5902291232721204</v>
+        <v>-3.5902291232720969</v>
       </c>
       <c r="C14" s="13">
-        <v>4.3054005911484259</v>
+        <v>4.3054005911483868</v>
       </c>
       <c r="D14" s="13">
-        <v>0.60493474325995977</v>
+        <v>0.60493474325998142</v>
       </c>
       <c r="E14" s="13">
-        <v>2.924477244772445</v>
+        <v>2.9244772447724321</v>
       </c>
       <c r="F14" s="13">
-        <v>-4.4290371999842906</v>
+        <v>-4.4290371999843021</v>
       </c>
       <c r="G14" s="13">
-        <v>-14.841470165989517</v>
+        <v>-14.841470165989485</v>
       </c>
       <c r="H14" s="13">
-        <v>-12.137682874863865</v>
+        <v>-12.137682874863893</v>
       </c>
       <c r="I14" s="13">
         <v>-15.347476505062287</v>
       </c>
       <c r="J14" s="13">
-        <v>-8.3499455393657946</v>
+        <v>-8.3499455393657964</v>
       </c>
       <c r="K14" s="13">
-        <v>-5.5059720569438824</v>
+        <v>-5.5059720569439001</v>
       </c>
       <c r="L14" s="13">
-        <v>-11.939172513390892</v>
+        <v>-11.939172513390881</v>
       </c>
       <c r="M14" s="13">
-        <v>-7.2506324539212157</v>
+        <v>-7.250632453921213</v>
       </c>
       <c r="N14" s="13">
-        <v>-11.37545968248272</v>
+        <v>-11.375459682482724</v>
       </c>
       <c r="O14" s="13">
-        <v>-6.5905619235298936</v>
+        <v>-6.5905619235298953</v>
       </c>
       <c r="P14" s="13">
-        <v>1.4221199623052421</v>
+        <v>1.4221199623052556</v>
       </c>
       <c r="Q14" s="13">
-        <v>3.3729482246359397</v>
+        <v>3.3729482246359241</v>
       </c>
       <c r="R14" s="13">
         <v>9.1491030539179707</v>
       </c>
       <c r="S14" s="13">
-        <v>7.0605565056736683</v>
+        <v>7.0605565056736737</v>
       </c>
       <c r="T14" s="13">
-        <v>8.1946639958489946</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>8.1946639958489733</v>
+      </c>
+      <c r="U14" s="13">
+        <v>7.2325488255942743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="13">
-        <v>0.55564071122011283</v>
+        <v>0.55564071122010839</v>
       </c>
       <c r="C15" s="13">
-        <v>2.3932453416149091</v>
+        <v>2.3932453416149087</v>
       </c>
       <c r="D15" s="13">
-        <v>2.2107939881584922</v>
+        <v>2.2107939881584815</v>
       </c>
       <c r="E15" s="13">
         <v>3.849178944137515</v>
       </c>
       <c r="F15" s="13">
-        <v>-0.33344765824472267</v>
+        <v>-0.33344765824471573</v>
       </c>
       <c r="G15" s="13">
-        <v>-6.7171535268136546</v>
+        <v>-6.7171535268136537</v>
       </c>
       <c r="H15" s="13">
-        <v>1.783294034644739</v>
+        <v>1.7832940346447417</v>
       </c>
       <c r="I15" s="13">
-        <v>-0.60497464648236121</v>
+        <v>-0.60497464648236932</v>
       </c>
       <c r="J15" s="13">
-        <v>7.5458351654654132</v>
+        <v>7.5458351654654114</v>
       </c>
       <c r="K15" s="13">
-        <v>12.597161117263951</v>
+        <v>12.597161117263941</v>
       </c>
       <c r="L15" s="13">
-        <v>-3.3289858905721452</v>
+        <v>-3.3289858905721328</v>
       </c>
       <c r="M15" s="13">
-        <v>-1.6726448231656012E-2</v>
+        <v>-1.6726448231639716E-2</v>
       </c>
       <c r="N15" s="13">
-        <v>-6.0822341522380583</v>
+        <v>-6.0822341522380663</v>
       </c>
       <c r="O15" s="13">
-        <v>-5.1021052726567158</v>
+        <v>-5.1021052726567202</v>
       </c>
       <c r="P15" s="13">
-        <v>2.0303227571632205</v>
+        <v>2.0303227571632072</v>
       </c>
       <c r="Q15" s="13">
-        <v>3.6553403472247981</v>
+        <v>3.6553403472247807</v>
       </c>
       <c r="R15" s="13">
-        <v>11.368002649884067</v>
+        <v>11.368002649884072</v>
       </c>
       <c r="S15" s="13">
-        <v>11.36901762026568</v>
+        <v>11.369017620265691</v>
       </c>
       <c r="T15" s="13">
-        <v>14.52586804752878</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>14.525868047528784</v>
+      </c>
+      <c r="U15" s="13">
+        <v>14.103955025150421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="13">
-        <v>-0.23437946607213542</v>
+        <v>-0.23437946607214202</v>
       </c>
       <c r="C16" s="13">
-        <v>1.1341034271725856</v>
+        <v>1.1341034271725852</v>
       </c>
       <c r="D16" s="13">
-        <v>2.1496490078177923</v>
+        <v>2.1496490078177781</v>
       </c>
       <c r="E16" s="13">
-        <v>3.8837005761110963</v>
+        <v>3.8837005761111065</v>
       </c>
       <c r="F16" s="13">
-        <v>-2.1029108411643409</v>
+        <v>-2.1029108411643369</v>
       </c>
       <c r="G16" s="13">
-        <v>-4.4836519732985387</v>
+        <v>-4.4836519732985494</v>
       </c>
       <c r="H16" s="13">
-        <v>2.7348980806427634</v>
+        <v>2.7348980806427732</v>
       </c>
       <c r="I16" s="13">
-        <v>0.47032246715613124</v>
+        <v>0.47032246715613729</v>
       </c>
       <c r="J16" s="13">
-        <v>10.522875816993464</v>
+        <v>10.522875816993446</v>
       </c>
       <c r="K16" s="13">
-        <v>9.3615125717679781</v>
+        <v>9.3615125717679852</v>
       </c>
       <c r="L16" s="13">
-        <v>-3.8288512541071911</v>
+        <v>-3.8288512541071902</v>
       </c>
       <c r="M16" s="13">
-        <v>-2.4631631327233015</v>
+        <v>-2.4631631327233032</v>
       </c>
       <c r="N16" s="13">
-        <v>-8.1555557516968715</v>
+        <v>-8.1555557516968609</v>
       </c>
       <c r="O16" s="13">
-        <v>-6.4891334847977333</v>
+        <v>-6.4891334847977387</v>
       </c>
       <c r="P16" s="13">
-        <v>-1.0616770355869027</v>
+        <v>-1.0616770355868945</v>
       </c>
       <c r="Q16" s="13">
-        <v>3.041210815713391</v>
+        <v>3.0412108157133928</v>
       </c>
       <c r="R16" s="13">
-        <v>7.5247220273503999</v>
+        <v>7.5247220273504114</v>
       </c>
       <c r="S16" s="13">
-        <v>7.9383978007511384</v>
+        <v>7.9383978007511491</v>
       </c>
       <c r="T16" s="13">
-        <v>11.416585013175558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>11.416585013175553</v>
+      </c>
+      <c r="U16" s="13">
+        <v>9.2559482877183257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="13">
-        <v>-0.2435659578516701</v>
+        <v>-0.24356595785167492</v>
       </c>
       <c r="C17" s="13">
-        <v>-0.22118409762607205</v>
+        <v>-0.22118409762609831</v>
       </c>
       <c r="D17" s="13">
-        <v>-0.63457208255019548</v>
+        <v>-0.63457208255021202</v>
       </c>
       <c r="E17" s="13">
-        <v>1.3312310582814866</v>
+        <v>1.331231058281469</v>
       </c>
       <c r="F17" s="13">
-        <v>-3.4058503180764736</v>
+        <v>-3.405850318076463</v>
       </c>
       <c r="G17" s="13">
-        <v>-18.07410804716314</v>
+        <v>-18.074108047163129</v>
       </c>
       <c r="H17" s="13">
-        <v>-15.385047569106314</v>
+        <v>-15.385047569106307</v>
       </c>
       <c r="I17" s="13">
         <v>-17.814715775154433</v>
       </c>
       <c r="J17" s="13">
-        <v>-8.7442485041173832</v>
+        <v>-8.7442485041173921</v>
       </c>
       <c r="K17" s="13">
-        <v>3.6504863427491632</v>
+        <v>3.6504863427491712</v>
       </c>
       <c r="L17" s="13">
-        <v>-2.7655430380027006</v>
+        <v>-2.7655430380026909</v>
       </c>
       <c r="M17" s="13">
-        <v>0.1247066559343195</v>
+        <v>0.12470665593434146</v>
       </c>
       <c r="N17" s="13">
-        <v>-6.0450974876111827</v>
+        <v>-6.045097487611188</v>
       </c>
       <c r="O17" s="13">
-        <v>-0.10239445494642492</v>
+        <v>-0.10239445494642291</v>
       </c>
       <c r="P17" s="13">
-        <v>6.4942011995948361</v>
+        <v>6.4942011995948219</v>
       </c>
       <c r="Q17" s="13">
-        <v>9.4455201150401589</v>
+        <v>9.4455201150401464</v>
       </c>
       <c r="R17" s="13">
-        <v>12.784015661887498</v>
+        <v>12.784015661887517</v>
       </c>
       <c r="S17" s="13">
-        <v>9.6293125781417039</v>
+        <v>9.6293125781417164</v>
       </c>
       <c r="T17" s="13">
-        <v>9.5608588314505809</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9.5608588314505969</v>
+      </c>
+      <c r="U17" s="13">
+        <v>6.2911886115105533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="13">
-        <v>5.3107334509912771</v>
+        <v>5.3107334509912878</v>
       </c>
       <c r="C18" s="13">
-        <v>8.3938860141656413</v>
+        <v>8.3938860141656626</v>
       </c>
       <c r="D18" s="13">
-        <v>7.972405626525048</v>
+        <v>7.97240562652504</v>
       </c>
       <c r="E18" s="13">
-        <v>11.611148753822766</v>
+        <v>11.611148753822748</v>
       </c>
       <c r="F18" s="13">
-        <v>1.5244447091049864</v>
+        <v>1.5244447091049766</v>
       </c>
       <c r="G18" s="13">
-        <v>-8.3329806593592455</v>
+        <v>-8.3329806593592561</v>
       </c>
       <c r="H18" s="13">
-        <v>1.8702382040395704</v>
+        <v>1.8702382040395995</v>
       </c>
       <c r="I18" s="13">
-        <v>3.0862627671356293</v>
+        <v>3.0862627671356626</v>
       </c>
       <c r="J18" s="13">
-        <v>5.8914222032293528</v>
+        <v>5.8914222032293413</v>
       </c>
       <c r="K18" s="13">
-        <v>8.4653739612188303</v>
+        <v>8.4653739612188481</v>
       </c>
       <c r="L18" s="13">
-        <v>-8.7252263273794899</v>
+        <v>-8.7252263273795059</v>
       </c>
       <c r="M18" s="13">
-        <v>-7.4249743348957793</v>
+        <v>-7.4249743348957988</v>
       </c>
       <c r="N18" s="13">
-        <v>-14.63750454998655</v>
+        <v>-14.637504549986533</v>
       </c>
       <c r="O18" s="13">
-        <v>-7.0793748084584776</v>
+        <v>-7.0793748084584918</v>
       </c>
       <c r="P18" s="13">
-        <v>4.4677961255255774E-3</v>
+        <v>4.4677961255408169E-3</v>
       </c>
       <c r="Q18" s="13">
-        <v>1.7803261495611575</v>
+        <v>1.7803261495611669</v>
       </c>
       <c r="R18" s="13">
-        <v>8.9945863769513146</v>
+        <v>8.9945863769512986</v>
       </c>
       <c r="S18" s="13">
-        <v>6.0053869832893545</v>
+        <v>6.0053869832893509</v>
       </c>
       <c r="T18" s="13">
-        <v>10.232583074957338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10.232583074957324</v>
+      </c>
+      <c r="U18" s="13">
+        <v>6.613287386611252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="13">
-        <v>-0.27224544568125841</v>
+        <v>-0.27224544568121956</v>
       </c>
       <c r="C19" s="13">
-        <v>-5.9838051209793158E-2</v>
+        <v>-5.9838051209777365E-2</v>
       </c>
       <c r="D19" s="13">
-        <v>2.1307202162579815</v>
+        <v>2.1307202162579633</v>
       </c>
       <c r="E19" s="13">
-        <v>2.4077405552584352</v>
+        <v>2.4077405552584343</v>
       </c>
       <c r="F19" s="13">
-        <v>0.42303559500877358</v>
+        <v>0.42303559500875482</v>
       </c>
       <c r="G19" s="13">
-        <v>-5.7575494200925261</v>
+        <v>-5.7575494200925235</v>
       </c>
       <c r="H19" s="13">
-        <v>1.6192915953756057</v>
+        <v>1.6192915953756193</v>
       </c>
       <c r="I19" s="13">
-        <v>-0.43015449478212575</v>
+        <v>-0.43015449478211853</v>
       </c>
       <c r="J19" s="13">
-        <v>5.176502342439611</v>
+        <v>5.1765023424396066</v>
       </c>
       <c r="K19" s="13">
-        <v>4.832511860967954</v>
+        <v>4.8325118609679398</v>
       </c>
       <c r="L19" s="13">
-        <v>-8.8009302325581391</v>
+        <v>-8.8009302325581498</v>
       </c>
       <c r="M19" s="13">
-        <v>-6.1912300444410588</v>
+        <v>-6.19123004444105</v>
       </c>
       <c r="N19" s="13">
-        <v>-11.168750229130785</v>
+        <v>-11.168750229130774</v>
       </c>
       <c r="O19" s="13">
-        <v>-5.3917208347588188</v>
+        <v>-5.3917208347588108</v>
       </c>
       <c r="P19" s="13">
-        <v>0.98328216322074857</v>
+        <v>0.98328216322076356</v>
       </c>
       <c r="Q19" s="13">
-        <v>2.0942195474045966</v>
+        <v>2.0942195474045868</v>
       </c>
       <c r="R19" s="13">
-        <v>10.202018117661645</v>
+        <v>10.202018117661627</v>
       </c>
       <c r="S19" s="13">
-        <v>9.1436010290425518</v>
+        <v>9.1436010290425536</v>
       </c>
       <c r="T19" s="13">
-        <v>12.40063432421241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>12.400634324212394</v>
+      </c>
+      <c r="U19" s="13">
+        <v>12.717822077947931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="13">
-        <v>-2.504563067943363</v>
+        <v>-2.504563067943355</v>
       </c>
       <c r="C20" s="13">
-        <v>-1.0484347312463136</v>
+        <v>-1.0484347312463023</v>
       </c>
       <c r="D20" s="13">
-        <v>-0.44737278141112058</v>
+        <v>-0.44737278141113129</v>
       </c>
       <c r="E20" s="13">
-        <v>1.3065040969145596</v>
+        <v>1.3065040969145696</v>
       </c>
       <c r="F20" s="13">
-        <v>0.4214762681830484</v>
+        <v>0.42147626818304817</v>
       </c>
       <c r="G20" s="13">
-        <v>-1.2376262249415459</v>
+        <v>-1.2376262249415524</v>
       </c>
       <c r="H20" s="13">
-        <v>4.297043273937712</v>
+        <v>4.2970432739377404</v>
       </c>
       <c r="I20" s="13">
-        <v>0.7149698629076624</v>
+        <v>0.71496986290765319</v>
       </c>
       <c r="J20" s="13">
-        <v>10.230490090521188</v>
+        <v>10.230490090521187</v>
       </c>
       <c r="K20" s="13">
-        <v>4.2207694089915488</v>
+        <v>4.2207694089915426</v>
       </c>
       <c r="L20" s="13">
-        <v>-7.5528729266209025</v>
+        <v>-7.5528729266209114</v>
       </c>
       <c r="M20" s="13">
-        <v>-4.2843419788664683</v>
+        <v>-4.2843419788664541</v>
       </c>
       <c r="N20" s="13">
-        <v>-11.384643212444599</v>
+        <v>-11.384643212444603</v>
       </c>
       <c r="O20" s="13">
-        <v>-5.6088767748233694</v>
+        <v>-5.6088767748233677</v>
       </c>
       <c r="P20" s="13">
-        <v>2.7913446990851196</v>
+        <v>2.7913446990851067</v>
       </c>
       <c r="Q20" s="13">
-        <v>4.2503010839020527</v>
+        <v>4.2503010839020279</v>
       </c>
       <c r="R20" s="13">
-        <v>8.1984446122757273</v>
+        <v>8.1984446122757166</v>
       </c>
       <c r="S20" s="13">
-        <v>7.6235433861025195</v>
+        <v>7.6235433861025141</v>
       </c>
       <c r="T20" s="13">
-        <v>9.2253437648174366</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9.2253437648174526</v>
+      </c>
+      <c r="U20" s="13">
+        <v>8.7441636582430906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="13">
-        <v>0.1550508547300242</v>
+        <v>0.15505085473002911</v>
       </c>
       <c r="C21" s="13">
-        <v>1.6467450360565088</v>
+        <v>1.6467450360564999</v>
       </c>
       <c r="D21" s="13">
-        <v>2.549735460065214</v>
+        <v>2.5497354600652105</v>
       </c>
       <c r="E21" s="13">
-        <v>3.838837802942964</v>
+        <v>3.8388378029429568</v>
       </c>
       <c r="F21" s="13">
-        <v>-1.4857944034428263</v>
+        <v>-1.4857944034428354</v>
       </c>
       <c r="G21" s="13">
-        <v>-2.1283419341671808</v>
+        <v>-2.128341934167191</v>
       </c>
       <c r="H21" s="13">
-        <v>0.6311040036552622</v>
+        <v>0.63110400365526464</v>
       </c>
       <c r="I21" s="13">
-        <v>0.29518403918068864</v>
+        <v>0.29518403918068381</v>
       </c>
       <c r="J21" s="13">
-        <v>8.2723858470053315</v>
+        <v>8.2723858470053102</v>
       </c>
       <c r="K21" s="13">
-        <v>2.2987478526815432</v>
+        <v>2.2987478526815615</v>
       </c>
       <c r="L21" s="13">
-        <v>-6.9941447449322274</v>
+        <v>-6.9941447449322238</v>
       </c>
       <c r="M21" s="13">
-        <v>-7.1250792569249262</v>
+        <v>-7.1250792569249155</v>
       </c>
       <c r="N21" s="13">
-        <v>-11.897763578274759</v>
+        <v>-11.897763578274748</v>
       </c>
       <c r="O21" s="13">
         <v>-7.7798916736231147</v>
       </c>
       <c r="P21" s="13">
-        <v>-1.1502903694964635</v>
+        <v>-1.1502903694964697</v>
       </c>
       <c r="Q21" s="13">
-        <v>1.7984511921744386</v>
+        <v>1.7984511921744415</v>
       </c>
       <c r="R21" s="13">
-        <v>6.4735380662273529</v>
+        <v>6.4735380662273556</v>
       </c>
       <c r="S21" s="13">
-        <v>7.141579041544313</v>
+        <v>7.1415790415442961</v>
       </c>
       <c r="T21" s="13">
-        <v>10.725162564820165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10.725162564820163</v>
+      </c>
+      <c r="U21" s="13">
+        <v>9.4319603623442347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="13">
-        <v>-2.9277334083785398</v>
+        <v>-2.9277334083785531</v>
       </c>
       <c r="C22" s="13">
-        <v>-0.767991460172187</v>
+        <v>-0.76799146017218289</v>
       </c>
       <c r="D22" s="13">
-        <v>0.3603745532241584</v>
+        <v>0.360374553224173</v>
       </c>
       <c r="E22" s="13">
-        <v>2.2457027904475568</v>
+        <v>2.2457027904475417</v>
       </c>
       <c r="F22" s="13">
-        <v>-0.24292226487524787</v>
+        <v>-0.24292226487523388</v>
       </c>
       <c r="G22" s="13">
-        <v>-3.343758715486675</v>
+        <v>-3.3437587154866697</v>
       </c>
       <c r="H22" s="13">
-        <v>2.6332571350083835</v>
+        <v>2.6332571350083875</v>
       </c>
       <c r="I22" s="13">
-        <v>-0.44414574993426648</v>
+        <v>-0.44414574993425293</v>
       </c>
       <c r="J22" s="13">
-        <v>5.2109951998717339</v>
+        <v>5.2109951998717348</v>
       </c>
       <c r="K22" s="13">
-        <v>1.2685621245066323</v>
+        <v>1.268562124506645</v>
       </c>
       <c r="L22" s="13">
         <v>-10.536176883884108</v>
       </c>
       <c r="M22" s="13">
-        <v>-8.8413411209924284</v>
+        <v>-8.8413411209924355</v>
       </c>
       <c r="N22" s="13">
         <v>-11.986017582794389</v>
       </c>
       <c r="O22" s="13">
-        <v>-7.3399816831179221</v>
+        <v>-7.3399816831179452</v>
       </c>
       <c r="P22" s="13">
-        <v>-0.77680069238907246</v>
+        <v>-0.77680069238907434</v>
       </c>
       <c r="Q22" s="13">
-        <v>3.9022924358203768</v>
+        <v>3.9022924358203825</v>
       </c>
       <c r="R22" s="13">
-        <v>8.0082246631675904</v>
+        <v>8.0082246631675797</v>
       </c>
       <c r="S22" s="13">
-        <v>8.7373842757833078</v>
+        <v>8.7373842757832971</v>
       </c>
       <c r="T22" s="13">
-        <v>12.156748723912916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>12.156748723912914</v>
+      </c>
+      <c r="U22" s="13">
+        <v>10.305540635458414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="13">
-        <v>2.142751733976088</v>
+        <v>2.1427517339760884</v>
       </c>
       <c r="C23" s="13">
-        <v>3.024775951650903</v>
+        <v>3.0247759516508936</v>
       </c>
       <c r="D23" s="13">
-        <v>2.7374198382655091</v>
+        <v>2.7374198382655011</v>
       </c>
       <c r="E23" s="13">
-        <v>3.6873790582670356</v>
+        <v>3.6873790582670498</v>
       </c>
       <c r="F23" s="13">
-        <v>-0.31014322452633053</v>
+        <v>-0.3101432245263378</v>
       </c>
       <c r="G23" s="13">
-        <v>-2.0297233413399316</v>
+        <v>-2.0297233413399183</v>
       </c>
       <c r="H23" s="13">
-        <v>4.3542917763843434</v>
+        <v>4.3542917763843318</v>
       </c>
       <c r="I23" s="13">
-        <v>-3.2989302040613282E-2</v>
+        <v>-3.2989302040628034E-2</v>
       </c>
       <c r="J23" s="13">
-        <v>6.8269871788678094</v>
+        <v>6.8269871788678262</v>
       </c>
       <c r="K23" s="13">
-        <v>3.2243885285613754</v>
+        <v>3.2243885285613665</v>
       </c>
       <c r="L23" s="13">
-        <v>-8.7218959617322245</v>
+        <v>-8.7218959617322298</v>
       </c>
       <c r="M23" s="13">
-        <v>-5.6232321327550476</v>
+        <v>-5.6232321327550583</v>
       </c>
       <c r="N23" s="13">
-        <v>-10.916457894308428</v>
+        <v>-10.916457894308413</v>
       </c>
       <c r="O23" s="13">
-        <v>-8.052840258523613</v>
+        <v>-8.0528402585236165</v>
       </c>
       <c r="P23" s="13">
-        <v>-1.2648913108331188</v>
+        <v>-1.2648913108330895</v>
       </c>
       <c r="Q23" s="13">
-        <v>3.7034446930946148</v>
+        <v>3.7034446930946343</v>
       </c>
       <c r="R23" s="13">
-        <v>8.2611653146796389</v>
+        <v>8.2611653146796176</v>
       </c>
       <c r="S23" s="13">
-        <v>9.0987681002809584</v>
+        <v>9.0987681002809477</v>
       </c>
       <c r="T23" s="13">
-        <v>12.552120052371837</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+        <v>12.55212005237181</v>
+      </c>
+      <c r="U23" s="13">
+        <v>8.6538924693891381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="13">
-        <v>-2.2493715434892034</v>
+        <v>-2.2493715434892128</v>
       </c>
       <c r="C24" s="13">
-        <v>-0.68506378004778656</v>
+        <v>-0.68506378004778168</v>
       </c>
       <c r="D24" s="13">
-        <v>0.25213858434901437</v>
+        <v>0.25213858434903103</v>
       </c>
       <c r="E24" s="13">
-        <v>0.44872722761016975</v>
+        <v>0.44872722761015033</v>
       </c>
       <c r="F24" s="13">
-        <v>-4.6022651291493881</v>
+        <v>-4.6022651291493739</v>
       </c>
       <c r="G24" s="13">
         <v>-5.5848369170308265</v>
       </c>
       <c r="H24" s="13">
-        <v>2.4274760968954121</v>
+        <v>2.4274760968954001</v>
       </c>
       <c r="I24" s="13">
-        <v>-1.2814970355731266</v>
+        <v>-1.281497035573121</v>
       </c>
       <c r="J24" s="13">
-        <v>8.5303917445734943</v>
+        <v>8.5303917445734765</v>
       </c>
       <c r="K24" s="13">
-        <v>6.1428230754222017</v>
+        <v>6.1428230754221884</v>
       </c>
       <c r="L24" s="13">
-        <v>-8.8634398019742999</v>
+        <v>-8.8634398019742964</v>
       </c>
       <c r="M24" s="13">
-        <v>-4.0143055251441506</v>
+        <v>-4.0143055251441533</v>
       </c>
       <c r="N24" s="13">
-        <v>-9.1435668156979855</v>
+        <v>-9.1435668156979553</v>
       </c>
       <c r="O24" s="13">
-        <v>-7.3416325405173586</v>
+        <v>-7.3416325405173515</v>
       </c>
       <c r="P24" s="13">
-        <v>0.335962127905574</v>
+        <v>0.33596212790558605</v>
       </c>
       <c r="Q24" s="13">
-        <v>3.2718858967813551</v>
+        <v>3.2718858967813391</v>
       </c>
       <c r="R24" s="13">
-        <v>4.6256301464236245</v>
+        <v>4.6256301464236147</v>
       </c>
       <c r="S24" s="13">
-        <v>4.9078605122779209</v>
+        <v>4.9078605122779138</v>
       </c>
       <c r="T24" s="13">
-        <v>8.802522150350601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+        <v>8.8025221503506064</v>
+      </c>
+      <c r="U24" s="13">
+        <v>7.0548759322176551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="13">
-        <v>2.3701374330305298</v>
+        <v>2.3701374330305276</v>
       </c>
       <c r="C25" s="13">
-        <v>3.5303720835317458</v>
+        <v>3.5303720835317489</v>
       </c>
       <c r="D25" s="13">
-        <v>3.5185769013976818</v>
+        <v>3.5185769013976826</v>
       </c>
       <c r="E25" s="13">
-        <v>4.6570556504712615</v>
+        <v>4.6570556504712535</v>
       </c>
       <c r="F25" s="13">
-        <v>2.0640157763998594</v>
+        <v>2.0640157763998666</v>
       </c>
       <c r="G25" s="13">
-        <v>-1.944809461235222</v>
+        <v>-1.9448094612352254</v>
       </c>
       <c r="H25" s="13">
-        <v>4.9928015061464137</v>
+        <v>4.9928015061464102</v>
       </c>
       <c r="I25" s="13">
-        <v>3.0154624993121621</v>
+        <v>3.0154624993121684</v>
       </c>
       <c r="J25" s="13">
-        <v>8.2433047533232457</v>
+        <v>8.2433047533232475</v>
       </c>
       <c r="K25" s="13">
-        <v>6.3837730214036874</v>
+        <v>6.383773021403683</v>
       </c>
       <c r="L25" s="13">
-        <v>-6.7506988028057675</v>
+        <v>-6.7506988028057551</v>
       </c>
       <c r="M25" s="13">
-        <v>-5.3326923419332966</v>
+        <v>-5.3326923419332957</v>
       </c>
       <c r="N25" s="13">
-        <v>-8.7732246299077374</v>
+        <v>-8.7732246299077463</v>
       </c>
       <c r="O25" s="13">
-        <v>-4.4134716611029683</v>
+        <v>-4.4134716611029612</v>
       </c>
       <c r="P25" s="13">
-        <v>0.9473446072054712</v>
+        <v>0.94734460720547453</v>
       </c>
       <c r="Q25" s="13">
-        <v>6.6271065302437613</v>
+        <v>6.6271065302437453</v>
       </c>
       <c r="R25" s="13">
-        <v>9.0854358337566286</v>
+        <v>9.0854358337566428</v>
       </c>
       <c r="S25" s="13">
-        <v>7.9119286090820076</v>
+        <v>7.9119286090820102</v>
       </c>
       <c r="T25" s="13">
-        <v>13.014165522779706</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+        <v>13.014165522779686</v>
+      </c>
+      <c r="U25" s="13">
+        <v>9.4881948793029043</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="13">
-        <v>-1.0630627119304599</v>
+        <v>-1.0630627119304632</v>
       </c>
       <c r="C26" s="13">
-        <v>0.28926272558543142</v>
+        <v>0.28926272558543054</v>
       </c>
       <c r="D26" s="13">
-        <v>0.13522190011090479</v>
+        <v>0.13522190011090862</v>
       </c>
       <c r="E26" s="13">
-        <v>1.4708502425022256</v>
+        <v>1.4708502425022225</v>
       </c>
       <c r="F26" s="13">
-        <v>-2.2090469484030555</v>
+        <v>-2.2090469484030582</v>
       </c>
       <c r="G26" s="13">
-        <v>-11.636560515824181</v>
+        <v>-11.636560515824188</v>
       </c>
       <c r="H26" s="13">
-        <v>-1.2687864921842333</v>
+        <v>-1.2687864921842535</v>
       </c>
       <c r="I26" s="13">
-        <v>-4.7797416988567711</v>
+        <v>-4.779741698856764</v>
       </c>
       <c r="J26" s="13">
         <v>5.1453260015711102</v>
       </c>
       <c r="K26" s="13">
-        <v>8.9189430061048913</v>
+        <v>8.9189430061048895</v>
       </c>
       <c r="L26" s="13">
-        <v>-7.9486750568254401</v>
+        <v>-7.9486750568254374</v>
       </c>
       <c r="M26" s="13">
-        <v>-4.0690050811342271</v>
+        <v>-4.0690050811342324</v>
       </c>
       <c r="N26" s="13">
-        <v>-10.273651140292909</v>
+        <v>-10.273651140292914</v>
       </c>
       <c r="O26" s="13">
-        <v>-5.2337117725273492</v>
+        <v>-5.2337117725273412</v>
       </c>
       <c r="P26" s="13">
-        <v>1.3158879303894115</v>
+        <v>1.3158879303894235</v>
       </c>
       <c r="Q26" s="13">
-        <v>4.5181752167784239</v>
+        <v>4.518175216778431</v>
       </c>
       <c r="R26" s="13">
-        <v>8.0927015169144898</v>
+        <v>8.0927015169144969</v>
       </c>
       <c r="S26" s="13">
-        <v>8.5944329919160669</v>
+        <v>8.5944329919160722</v>
       </c>
       <c r="T26" s="13">
-        <v>10.845115003165219</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10.845115003165214</v>
+      </c>
+      <c r="U26" s="13">
+        <v>9.3772669220945044</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="13">
-        <v>5.3924053053847736</v>
+        <v>5.392405305384762</v>
       </c>
       <c r="C27" s="13">
-        <v>6.3089901181007626</v>
+        <v>6.3089901181007599</v>
       </c>
       <c r="D27" s="13">
-        <v>5.1327700379612251</v>
+        <v>5.132770037961194</v>
       </c>
       <c r="E27" s="13">
-        <v>4.4555921838421257</v>
+        <v>4.4555921838421426</v>
       </c>
       <c r="F27" s="13">
-        <v>-1.82920190178929</v>
+        <v>-1.8292019017892793</v>
       </c>
       <c r="G27" s="13">
-        <v>-17.217894421823008</v>
+        <v>-17.217894421823011</v>
       </c>
       <c r="H27" s="13">
-        <v>-3.6242272197831924</v>
+        <v>-3.6242272197831724</v>
       </c>
       <c r="I27" s="13">
-        <v>-3.0699427358714817</v>
+        <v>-3.0699427358714915</v>
       </c>
       <c r="J27" s="13">
-        <v>5.6832045546970198</v>
+        <v>5.6832045546970322</v>
       </c>
       <c r="K27" s="13">
-        <v>16.21988760229177</v>
+        <v>16.219887602291777</v>
       </c>
       <c r="L27" s="13">
-        <v>-6.0716775902942262</v>
+        <v>-6.0716775902942342</v>
       </c>
       <c r="M27" s="13">
-        <v>-3.3512013740774993</v>
+        <v>-3.3512013740775037</v>
       </c>
       <c r="N27" s="13">
-        <v>-12.100223009313904</v>
+        <v>-12.100223009313925</v>
       </c>
       <c r="O27" s="13">
-        <v>-4.9401917258151125</v>
+        <v>-4.9401917258151098</v>
       </c>
       <c r="P27" s="13">
-        <v>1.1461488211888855</v>
+        <v>1.1461488211888928</v>
       </c>
       <c r="Q27" s="13">
-        <v>2.8278212301412822</v>
+        <v>2.827821230141303</v>
       </c>
       <c r="R27" s="13">
-        <v>8.3614402690306235</v>
+        <v>8.3614402690306324</v>
       </c>
       <c r="S27" s="13">
-        <v>6.6595272092654394</v>
+        <v>6.6595272092654341</v>
       </c>
       <c r="T27" s="13">
-        <v>10.071238453107885</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10.071238453107872</v>
+      </c>
+      <c r="U27" s="13">
+        <v>9.0335875108017376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="13">
-        <v>-0.64296990862554582</v>
+        <v>-0.64296990862555137</v>
       </c>
       <c r="C28" s="13">
-        <v>-5.1984558660742516E-2</v>
+        <v>-5.1984558660717987E-2</v>
       </c>
       <c r="D28" s="13">
-        <v>0.37092340907145233</v>
+        <v>0.37092340907144694</v>
       </c>
       <c r="E28" s="13">
-        <v>2.0002528272898017</v>
+        <v>2.0002528272898004</v>
       </c>
       <c r="F28" s="13">
-        <v>-0.29563860828367222</v>
+        <v>-0.29563860828366245</v>
       </c>
       <c r="G28" s="13">
-        <v>-10.225094632210581</v>
+        <v>-10.225094632210599</v>
       </c>
       <c r="H28" s="13">
-        <v>2.2798555901945354</v>
+        <v>2.2798555901945305</v>
       </c>
       <c r="I28" s="13">
-        <v>-0.80366846530784519</v>
+        <v>-0.80366846530783642</v>
       </c>
       <c r="J28" s="13">
-        <v>8.3999768196569384</v>
+        <v>8.3999768196569473</v>
       </c>
       <c r="K28" s="13">
-        <v>12.94430675807612</v>
+        <v>12.944306758076127</v>
       </c>
       <c r="L28" s="13">
-        <v>-7.4245638740399658</v>
+        <v>-7.4245638740399587</v>
       </c>
       <c r="M28" s="13">
         <v>-2.6996376776772966</v>
       </c>
       <c r="N28" s="13">
-        <v>-11.66501831012269</v>
+        <v>-11.665018310122695</v>
       </c>
       <c r="O28" s="13">
-        <v>-5.2435595409985511</v>
+        <v>-5.243559540998552</v>
       </c>
       <c r="P28" s="13">
-        <v>2.0375281461095844</v>
+        <v>2.037528146109588</v>
       </c>
       <c r="Q28" s="13">
-        <v>3.1548171707394133</v>
+        <v>3.1548171707394324</v>
       </c>
       <c r="R28" s="13">
-        <v>8.1893464863174703</v>
+        <v>8.1893464863174721</v>
       </c>
       <c r="S28" s="13">
-        <v>6.7858288555617854</v>
+        <v>6.7858288555617916</v>
       </c>
       <c r="T28" s="13">
-        <v>10.08915173448672</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10.089151734486711</v>
+      </c>
+      <c r="U28" s="13">
+        <v>9.4517216285571859</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="13">
-        <v>-1.6589314729949289</v>
+        <v>-1.6589314729949252</v>
       </c>
       <c r="C29" s="13">
-        <v>8.6511076333861986E-2</v>
+        <v>8.651107633387381E-2</v>
       </c>
       <c r="D29" s="13">
-        <v>0.96918680979224692</v>
+        <v>0.96918680979226146</v>
       </c>
       <c r="E29" s="13">
-        <v>1.8885841917072823</v>
+        <v>1.8885841917072916</v>
       </c>
       <c r="F29" s="13">
-        <v>-0.77667405413962776</v>
+        <v>-0.77667405413962931</v>
       </c>
       <c r="G29" s="13">
-        <v>-6.3331585183458703</v>
+        <v>-6.3331585183458641</v>
       </c>
       <c r="H29" s="13">
-        <v>-0.34513748135683725</v>
+        <v>-0.34513748135685141</v>
       </c>
       <c r="I29" s="13">
-        <v>-3.5635485220831677</v>
+        <v>-3.5635485220831637</v>
       </c>
       <c r="J29" s="13">
-        <v>4.2547887562695124</v>
+        <v>4.254788756269515</v>
       </c>
       <c r="K29" s="13">
-        <v>0.567162631551686</v>
+        <v>0.5671626315516809</v>
       </c>
       <c r="L29" s="13">
-        <v>-12.014198685662208</v>
+        <v>-12.014198685662194</v>
       </c>
       <c r="M29" s="13">
-        <v>-8.4141182039624791</v>
+        <v>-8.4141182039624809</v>
       </c>
       <c r="N29" s="13">
-        <v>-13.605409644776872</v>
+        <v>-13.605409644776875</v>
       </c>
       <c r="O29" s="13">
-        <v>-4.9189623886506153</v>
+        <v>-4.9189623886506206</v>
       </c>
       <c r="P29" s="13">
-        <v>3.8381018841591117</v>
+        <v>3.8381018841590961</v>
       </c>
       <c r="Q29" s="13">
-        <v>5.2116422056875891</v>
+        <v>5.2116422056875864</v>
       </c>
       <c r="R29" s="13">
-        <v>10.788340400093</v>
+        <v>10.788340400093007</v>
       </c>
       <c r="S29" s="13">
-        <v>7.6967285108597912</v>
+        <v>7.6967285108597849</v>
       </c>
       <c r="T29" s="13">
-        <v>10.344212029569892</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10.344212029569904</v>
+      </c>
+      <c r="U29" s="13">
+        <v>11.062440512132966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="13">
-        <v>-0.41757569176398346</v>
+        <v>-0.41757569176397707</v>
       </c>
       <c r="C30" s="13">
-        <v>-0.34729823863069548</v>
+        <v>-0.34729823863068421</v>
       </c>
       <c r="D30" s="13">
-        <v>1.0120295991452757</v>
+        <v>1.0120295991452539</v>
       </c>
       <c r="E30" s="13">
-        <v>2.1733062168520916</v>
+        <v>2.1733062168520978</v>
       </c>
       <c r="F30" s="13">
-        <v>-1.4215472461239809</v>
+        <v>-1.4215472461239735</v>
       </c>
       <c r="G30" s="13">
-        <v>0.10485215845655944</v>
+        <v>0.1048521584565542</v>
       </c>
       <c r="H30" s="13">
-        <v>6.0524743651267663</v>
+        <v>6.0524743651267938</v>
       </c>
       <c r="I30" s="13">
-        <v>2.2656310982749268</v>
+        <v>2.2656310982749162</v>
       </c>
       <c r="J30" s="13">
         <v>10.820377707608463</v>
       </c>
       <c r="K30" s="13">
-        <v>5.3049498234343462</v>
+        <v>5.3049498234343435</v>
       </c>
       <c r="L30" s="13">
-        <v>-8.2382926851791911</v>
+        <v>-8.2382926851792089</v>
       </c>
       <c r="M30" s="13">
-        <v>-5.8524949909359805</v>
+        <v>-5.8524949909359778</v>
       </c>
       <c r="N30" s="13">
-        <v>-11.312861835538364</v>
+        <v>-11.312861835538373</v>
       </c>
       <c r="O30" s="13">
-        <v>-9.8868932590655838</v>
+        <v>-9.8868932590655785</v>
       </c>
       <c r="P30" s="13">
-        <v>-1.9151420002817992</v>
+        <v>-1.915142000281798</v>
       </c>
       <c r="Q30" s="13">
-        <v>3.2094936965422241</v>
+        <v>3.2094936965422254</v>
       </c>
       <c r="R30" s="13">
-        <v>4.9890008696986659</v>
+        <v>4.9890008696986889</v>
       </c>
       <c r="S30" s="13">
-        <v>6.3641237503547954</v>
+        <v>6.3641237503547909</v>
       </c>
       <c r="T30" s="13">
-        <v>10.018160737921066</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10.018160737921075</v>
+      </c>
+      <c r="U30" s="13">
+        <v>7.0392663216912226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="13">
-        <v>-0.37073605141906224</v>
+        <v>-0.37073605141906701</v>
       </c>
       <c r="C31" s="13">
-        <v>0.79956316549006534</v>
+        <v>0.79956316549008011</v>
       </c>
       <c r="D31" s="13">
-        <v>1.6912086309957661</v>
+        <v>1.6912086309957637</v>
       </c>
       <c r="E31" s="13">
-        <v>1.3156227768411364</v>
+        <v>1.315622776841139</v>
       </c>
       <c r="F31" s="13">
-        <v>0.76269128005827536</v>
+        <v>0.76269128005829834</v>
       </c>
       <c r="G31" s="13">
-        <v>-2.7520894598359305</v>
+        <v>-2.7520894598359353</v>
       </c>
       <c r="H31" s="13">
-        <v>4.2284348864994001</v>
+        <v>4.2284348864994135</v>
       </c>
       <c r="I31" s="13">
-        <v>1.7284995623443096</v>
+        <v>1.7284995623442951</v>
       </c>
       <c r="J31" s="13">
-        <v>7.2085623372866854</v>
+        <v>7.2085623372866685</v>
       </c>
       <c r="K31" s="13">
-        <v>4.3558703285553664</v>
+        <v>4.3558703285553735</v>
       </c>
       <c r="L31" s="13">
-        <v>-8.2999385597300304</v>
+        <v>-8.2999385597300286</v>
       </c>
       <c r="M31" s="13">
-        <v>-5.0189107413010747</v>
+        <v>-5.0189107413010534</v>
       </c>
       <c r="N31" s="13">
-        <v>-11.958340078786911</v>
+        <v>-11.958340078786902</v>
       </c>
       <c r="O31" s="13">
-        <v>-7.1785339815079467</v>
+        <v>-7.178533981507961</v>
       </c>
       <c r="P31" s="13">
-        <v>0.13400268005361102</v>
+        <v>0.13400268005359897</v>
       </c>
       <c r="Q31" s="13">
-        <v>3.1179070600884096</v>
+        <v>3.1179070600883905</v>
       </c>
       <c r="R31" s="13">
-        <v>8.8149964245581955</v>
+        <v>8.8149964245581884</v>
       </c>
       <c r="S31" s="13">
-        <v>8.3282843323509059</v>
+        <v>8.3282843323509237</v>
       </c>
       <c r="T31" s="13">
-        <v>11.333040386689559</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+        <v>11.333040386689573</v>
+      </c>
+      <c r="U31" s="13">
+        <v>10.450455668829171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="13">
-        <v>2.4858097307438065</v>
+        <v>2.4858097307438176</v>
       </c>
       <c r="C32" s="13">
-        <v>4.1021335726485866</v>
+        <v>4.1021335726485688</v>
       </c>
       <c r="D32" s="13">
-        <v>4.1435385743256603</v>
+        <v>4.1435385743256656</v>
       </c>
       <c r="E32" s="13">
-        <v>7.2001920307249092</v>
+        <v>7.2001920307249021</v>
       </c>
       <c r="F32" s="13">
-        <v>1.4028205846642723</v>
+        <v>1.4028205846642539</v>
       </c>
       <c r="G32" s="13">
-        <v>-2.900444938820915</v>
+        <v>-2.9004449388208959</v>
       </c>
       <c r="H32" s="13">
-        <v>4.5948639185248261</v>
+        <v>4.594863918524835</v>
       </c>
       <c r="I32" s="13">
-        <v>1.7143010685272395</v>
+        <v>1.7143010685272804</v>
       </c>
       <c r="J32" s="13">
-        <v>8.894558449692342</v>
+        <v>8.8945584496923669</v>
       </c>
       <c r="K32" s="13">
-        <v>4.2290765720613592</v>
+        <v>4.2290765720613628</v>
       </c>
       <c r="L32" s="13">
-        <v>-9.6102579342534344</v>
+        <v>-9.6102579342534327</v>
       </c>
       <c r="M32" s="13">
-        <v>-7.5676056462051875</v>
+        <v>-7.5676056462052061</v>
       </c>
       <c r="N32" s="13">
-        <v>-14.104830456148649</v>
+        <v>-14.104830456148656</v>
       </c>
       <c r="O32" s="13">
-        <v>-6.7328564493822132</v>
+        <v>-6.7328564493822176</v>
       </c>
       <c r="P32" s="13">
-        <v>0.83160887307329334</v>
+        <v>0.83160887307327935</v>
       </c>
       <c r="Q32" s="13">
-        <v>3.6591755661195369</v>
+        <v>3.6591755661195182</v>
       </c>
       <c r="R32" s="13">
-        <v>9.9347138932380066</v>
+        <v>9.9347138932380084</v>
       </c>
       <c r="S32" s="13">
-        <v>8.0899538446430412</v>
+        <v>8.0899538446430252</v>
       </c>
       <c r="T32" s="13">
-        <v>11.706657460153043</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+        <v>11.706657460153064</v>
+      </c>
+      <c r="U32" s="13">
+        <v>9.6323867291609346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="13">
-        <v>-1.8076037890536261</v>
+        <v>-1.807603789053627</v>
       </c>
       <c r="C33" s="13">
-        <v>1.3883011948658832</v>
+        <v>1.3883011948659014</v>
       </c>
       <c r="D33" s="13">
-        <v>3.3836924681995302</v>
+        <v>3.3836924681995368</v>
       </c>
       <c r="E33" s="13">
-        <v>3.5615723503968866</v>
+        <v>3.5615723503968955</v>
       </c>
       <c r="F33" s="13">
-        <v>1.4908106911848809</v>
+        <v>1.4908106911849022</v>
       </c>
       <c r="G33" s="13">
-        <v>1.2709169680830215</v>
+        <v>1.2709169680830039</v>
       </c>
       <c r="H33" s="13">
-        <v>3.1914377480423508</v>
+        <v>3.1914377480423219</v>
       </c>
       <c r="I33" s="13">
-        <v>-0.55234699019341327</v>
+        <v>-0.55234699019341826</v>
       </c>
       <c r="J33" s="13">
-        <v>7.384206718141364</v>
+        <v>7.3842067181413453</v>
       </c>
       <c r="K33" s="13">
-        <v>-2.3048618947161823</v>
+        <v>-2.3048618947161983</v>
       </c>
       <c r="L33" s="13">
-        <v>-11.373253342861974</v>
+        <v>-11.373253342861958</v>
       </c>
       <c r="M33" s="13">
         <v>-9.1253678405082539</v>
@@ -6515,866 +6765,908 @@
         <v>-16.268079489759195</v>
       </c>
       <c r="O33" s="13">
-        <v>-11.140349115159804</v>
+        <v>-11.140349115159786</v>
       </c>
       <c r="P33" s="13">
-        <v>-4.175022015681547</v>
+        <v>-4.1750220156815478</v>
       </c>
       <c r="Q33" s="13">
-        <v>-1.0572479385809654</v>
+        <v>-1.0572479385809421</v>
       </c>
       <c r="R33" s="13">
-        <v>4.4060584681864485</v>
+        <v>4.4060584681864334</v>
       </c>
       <c r="S33" s="13">
-        <v>5.7508420552930861</v>
+        <v>5.7508420552930728</v>
       </c>
       <c r="T33" s="13">
-        <v>9.2818548208512262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9.2818548208512368</v>
+      </c>
+      <c r="U33" s="13">
+        <v>9.1541587645624229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="13">
-        <v>4.4260106246981747</v>
+        <v>4.426010624698165</v>
       </c>
       <c r="C34" s="13">
-        <v>4.9558549301670523</v>
+        <v>4.9558549301670585</v>
       </c>
       <c r="D34" s="13">
-        <v>4.3283052682671759</v>
+        <v>4.3283052682671865</v>
       </c>
       <c r="E34" s="13">
-        <v>6.591240737582182</v>
+        <v>6.5912407375821811</v>
       </c>
       <c r="F34" s="13">
-        <v>0.83063558130886905</v>
+        <v>0.8306355813088917</v>
       </c>
       <c r="G34" s="13">
-        <v>-9.9975525077730527</v>
+        <v>-9.9975525077730421</v>
       </c>
       <c r="H34" s="13">
-        <v>2.0998666893324747</v>
+        <v>2.0998666893324605</v>
       </c>
       <c r="I34" s="13">
-        <v>-0.54760423148721815</v>
+        <v>-0.54760423148724979</v>
       </c>
       <c r="J34" s="13">
-        <v>1.4713156403730419</v>
+        <v>1.4713156403730325</v>
       </c>
       <c r="K34" s="13">
-        <v>8.8570622834582142</v>
+        <v>8.8570622834582213</v>
       </c>
       <c r="L34" s="13">
-        <v>-9.5034876792036265</v>
+        <v>-9.5034876792036211</v>
       </c>
       <c r="M34" s="13">
-        <v>-7.264422475284702</v>
+        <v>-7.2644224752846798</v>
       </c>
       <c r="N34" s="13">
-        <v>-11.749638833987701</v>
+        <v>-11.749638833987717</v>
       </c>
       <c r="O34" s="13">
-        <v>-7.1362484039895486</v>
+        <v>-7.1362484039895699</v>
       </c>
       <c r="P34" s="13">
-        <v>-0.98381927162514937</v>
+        <v>-0.98381927162514782</v>
       </c>
       <c r="Q34" s="13">
-        <v>2.1899428417207298</v>
+        <v>2.1899428417207338</v>
       </c>
       <c r="R34" s="13">
-        <v>6.8151689229904049</v>
+        <v>6.8151689229903987</v>
       </c>
       <c r="S34" s="13">
-        <v>5.2675626936604063</v>
+        <v>5.2675626936603948</v>
       </c>
       <c r="T34" s="13">
-        <v>9.6357146349811877</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9.6357146349811735</v>
+      </c>
+      <c r="U34" s="13">
+        <v>8.285307350569223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="13">
-        <v>1.2653088842276254</v>
+        <v>1.2653088842276172</v>
       </c>
       <c r="C35" s="13">
-        <v>3.4540449580281676</v>
+        <v>3.4540449580281463</v>
       </c>
       <c r="D35" s="13">
-        <v>3.349185955088517</v>
+        <v>3.3491859550885055</v>
       </c>
       <c r="E35" s="13">
-        <v>4.6990081508396271</v>
+        <v>4.6990081508396244</v>
       </c>
       <c r="F35" s="13">
-        <v>0.99559000400909825</v>
+        <v>0.99559000400908315</v>
       </c>
       <c r="G35" s="13">
-        <v>-4.6606743263318418</v>
+        <v>-4.6606743263318267</v>
       </c>
       <c r="H35" s="13">
-        <v>3.2220954289478323</v>
+        <v>3.2220954289478358</v>
       </c>
       <c r="I35" s="13">
-        <v>1.7642920789757586</v>
+        <v>1.7642920789757575</v>
       </c>
       <c r="J35" s="13">
-        <v>6.3739898870563572</v>
+        <v>6.3739898870563962</v>
       </c>
       <c r="K35" s="13">
-        <v>5.9920513604402306</v>
+        <v>5.992051360440243</v>
       </c>
       <c r="L35" s="13">
-        <v>-9.5191443465755938</v>
+        <v>-9.5191443465756009</v>
       </c>
       <c r="M35" s="13">
-        <v>-3.7448385193924087</v>
+        <v>-3.744838519392407</v>
       </c>
       <c r="N35" s="13">
-        <v>-11.311517650090188</v>
+        <v>-11.311517650090193</v>
       </c>
       <c r="O35" s="13">
         <v>-4.7182187816928201</v>
       </c>
       <c r="P35" s="13">
-        <v>4.2416235385272305</v>
+        <v>4.2416235385272527</v>
       </c>
       <c r="Q35" s="13">
-        <v>4.2984497237463097</v>
+        <v>4.298449723746316</v>
       </c>
       <c r="R35" s="13">
-        <v>9.817868520707691</v>
+        <v>9.8178685207076821</v>
       </c>
       <c r="S35" s="13">
-        <v>5.8170419701970584</v>
+        <v>5.8170419701970424</v>
       </c>
       <c r="T35" s="13">
-        <v>8.6126225712080551</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+        <v>8.6126225712080355</v>
+      </c>
+      <c r="U35" s="13">
+        <v>6.3320541304786966</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="13">
-        <v>2.3490807315543196</v>
+        <v>2.3490807315543347</v>
       </c>
       <c r="C36" s="13">
-        <v>2.7222733232870677</v>
+        <v>2.7222733232870833</v>
       </c>
       <c r="D36" s="13">
-        <v>3.0243382139047701</v>
+        <v>3.0243382139047847</v>
       </c>
       <c r="E36" s="13">
-        <v>3.5755819683440704</v>
+        <v>3.5755819683440633</v>
       </c>
       <c r="F36" s="13">
-        <v>-0.74965346207883699</v>
+        <v>-0.74965346207885486</v>
       </c>
       <c r="G36" s="13">
-        <v>-15.229195244627345</v>
+        <v>-15.229195244627334</v>
       </c>
       <c r="H36" s="13">
-        <v>-1.2931886417754319</v>
+        <v>-1.293188641775459</v>
       </c>
       <c r="I36" s="13">
-        <v>-1.4767731744913926</v>
+        <v>-1.4767731744913992</v>
       </c>
       <c r="J36" s="13">
-        <v>2.0445778782753963</v>
+        <v>2.0445778782754136</v>
       </c>
       <c r="K36" s="13">
-        <v>14.090505568103938</v>
+        <v>14.090505568103909</v>
       </c>
       <c r="L36" s="13">
-        <v>-6.5048867699642594</v>
+        <v>-6.5048867699642292</v>
       </c>
       <c r="M36" s="13">
-        <v>-4.6821579648838219</v>
+        <v>-4.6821579648838085</v>
       </c>
       <c r="N36" s="13">
-        <v>-15.352028750721553</v>
+        <v>-15.352028750721574</v>
       </c>
       <c r="O36" s="13">
-        <v>-9.7933574974391497</v>
+        <v>-9.7933574974391338</v>
       </c>
       <c r="P36" s="13">
-        <v>-6.4424341937523426</v>
+        <v>-6.442434193752347</v>
       </c>
       <c r="Q36" s="13">
-        <v>-6.0885160192109016</v>
+        <v>-6.0885160192108936</v>
       </c>
       <c r="R36" s="13">
-        <v>6.3398484331862983</v>
+        <v>6.3398484331863107</v>
       </c>
       <c r="S36" s="13">
         <v>4.9167440082983038</v>
       </c>
       <c r="T36" s="13">
-        <v>10.512775791401403</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10.512775791401401</v>
+      </c>
+      <c r="U36" s="13">
+        <v>11.480822139504763</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="13">
-        <v>-0.87542278941534346</v>
+        <v>-0.87542278941534646</v>
       </c>
       <c r="C37" s="13">
-        <v>1.9234099874915844</v>
+        <v>1.9234099874915902</v>
       </c>
       <c r="D37" s="13">
-        <v>2.5041752159183237</v>
+        <v>2.5041752159183108</v>
       </c>
       <c r="E37" s="13">
-        <v>2.6392374264095482</v>
+        <v>2.6392374264095437</v>
       </c>
       <c r="F37" s="13">
-        <v>-1.5789725209080057</v>
+        <v>-1.578972520908011</v>
       </c>
       <c r="G37" s="13">
-        <v>-6.4647074927545809</v>
+        <v>-6.4647074927545765</v>
       </c>
       <c r="H37" s="13">
-        <v>0.84164269288421023</v>
+        <v>0.84164269288420046</v>
       </c>
       <c r="I37" s="13">
-        <v>-3.9760525802043318</v>
+        <v>-3.9760525802043292</v>
       </c>
       <c r="J37" s="13">
-        <v>7.5262447437677755</v>
+        <v>7.5262447437677995</v>
       </c>
       <c r="K37" s="13">
-        <v>7.3889040280174854</v>
+        <v>7.3889040280174694</v>
       </c>
       <c r="L37" s="13">
-        <v>-7.9676493126402059</v>
+        <v>-7.9676493126402024</v>
       </c>
       <c r="M37" s="13">
-        <v>-6.3199473337722241</v>
+        <v>-6.3199473337722161</v>
       </c>
       <c r="N37" s="13">
-        <v>-16.38774238414782</v>
+        <v>-16.387742384147835</v>
       </c>
       <c r="O37" s="13">
-        <v>-15.795755718877478</v>
+        <v>-15.795755718877469</v>
       </c>
       <c r="P37" s="13">
-        <v>-10.052867590261137</v>
+        <v>-10.052867590261135</v>
       </c>
       <c r="Q37" s="13">
-        <v>-4.7858707783886558</v>
+        <v>-4.7858707783886576</v>
       </c>
       <c r="R37" s="13">
-        <v>2.8419278878351237</v>
+        <v>2.8419278878351286</v>
       </c>
       <c r="S37" s="13">
-        <v>4.9556336849154503</v>
+        <v>4.9556336849154494</v>
       </c>
       <c r="T37" s="13">
-        <v>10.020967634003259</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10.020967634003265</v>
+      </c>
+      <c r="U37" s="13">
+        <v>10.587954370312492</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="13">
-        <v>1.6048539861726858</v>
+        <v>1.6048539861726741</v>
       </c>
       <c r="C38" s="13">
-        <v>2.298236756252896</v>
+        <v>2.2982367562529058</v>
       </c>
       <c r="D38" s="13">
-        <v>2.6719026719026666</v>
+        <v>2.6719026719026435</v>
       </c>
       <c r="E38" s="13">
-        <v>4.1980432849095752</v>
+        <v>4.1980432849095939</v>
       </c>
       <c r="F38" s="13">
-        <v>-1.2861279881891892</v>
+        <v>-1.2861279881892094</v>
       </c>
       <c r="G38" s="13">
-        <v>-18.3031349955865</v>
+        <v>-18.303134995586507</v>
       </c>
       <c r="H38" s="13">
-        <v>-5.147555122243884</v>
+        <v>-5.1475551222438725</v>
       </c>
       <c r="I38" s="13">
-        <v>-8.2968189836681283</v>
+        <v>-8.296818983668139</v>
       </c>
       <c r="J38" s="13">
-        <v>-0.99130451455800617</v>
+        <v>-0.99130451455798807</v>
       </c>
       <c r="K38" s="13">
-        <v>12.458902120243968</v>
+        <v>12.458902120243977</v>
       </c>
       <c r="L38" s="13">
-        <v>-9.7300876646801342</v>
+        <v>-9.7300876646801289</v>
       </c>
       <c r="M38" s="13">
-        <v>-3.8266625297342038</v>
+        <v>-3.8266625297342158</v>
       </c>
       <c r="N38" s="13">
-        <v>-11.090023529867448</v>
+        <v>-11.090023529867436</v>
       </c>
       <c r="O38" s="13">
-        <v>-4.2469446998419329</v>
+        <v>-4.2469446998419462</v>
       </c>
       <c r="P38" s="13">
-        <v>3.3524568625733506</v>
+        <v>3.3524568625733671</v>
       </c>
       <c r="Q38" s="13">
-        <v>3.0035487686848135</v>
+        <v>3.0035487686848299</v>
       </c>
       <c r="R38" s="13">
-        <v>8.2618165976911531</v>
+        <v>8.261816597691146</v>
       </c>
       <c r="S38" s="13">
-        <v>6.6157431382703029</v>
+        <v>6.6157431382703189</v>
       </c>
       <c r="T38" s="13">
-        <v>9.5785927667959108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9.5785927667959037</v>
+      </c>
+      <c r="U38" s="13">
+        <v>8.8867544345029845</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="13">
-        <v>3.5536273800915898</v>
+        <v>3.5536273800915912</v>
       </c>
       <c r="C39" s="13">
-        <v>4.0669119204915392</v>
+        <v>4.06691192049154</v>
       </c>
       <c r="D39" s="13">
-        <v>5.5666650719992363</v>
+        <v>5.5666650719992168</v>
       </c>
       <c r="E39" s="13">
-        <v>6.4660212786351074</v>
+        <v>6.4660212786350835</v>
       </c>
       <c r="F39" s="13">
-        <v>0.81090391114503824</v>
+        <v>0.8109039111450409</v>
       </c>
       <c r="G39" s="13">
-        <v>-2.5790988423205397</v>
+        <v>-2.5790988423205272</v>
       </c>
       <c r="H39" s="13">
-        <v>5.1734295269774258</v>
+        <v>5.1734295269774249</v>
       </c>
       <c r="I39" s="13">
-        <v>3.3769671216104338</v>
+        <v>3.3769671216104533</v>
       </c>
       <c r="J39" s="13">
-        <v>12.385253320034721</v>
+        <v>12.385253320034726</v>
       </c>
       <c r="K39" s="13">
-        <v>9.9179284533693011</v>
+        <v>9.917928453369294</v>
       </c>
       <c r="L39" s="13">
-        <v>-6.3572358045863071</v>
+        <v>-6.3572358045863027</v>
       </c>
       <c r="M39" s="13">
-        <v>-3.5958441829883205</v>
+        <v>-3.5958441829883356</v>
       </c>
       <c r="N39" s="13">
-        <v>-11.070480635698015</v>
+        <v>-11.070480635698017</v>
       </c>
       <c r="O39" s="13">
-        <v>-6.4304541329991833</v>
+        <v>-6.4304541329991904</v>
       </c>
       <c r="P39" s="13">
-        <v>1.0426636236471927</v>
+        <v>1.0426636236472113</v>
       </c>
       <c r="Q39" s="13">
-        <v>2.7272398778658968</v>
+        <v>2.7272398778659124</v>
       </c>
       <c r="R39" s="13">
-        <v>7.9587141127877175</v>
+        <v>7.9587141127877121</v>
       </c>
       <c r="S39" s="13">
-        <v>7.5050335260542695</v>
+        <v>7.5050335260542891</v>
       </c>
       <c r="T39" s="13">
-        <v>12.45571372624025</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+        <v>12.455713726240235</v>
+      </c>
+      <c r="U39" s="13">
+        <v>10.330029810846224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="13">
-        <v>-0.15868225581915929</v>
+        <v>-0.15868225581915371</v>
       </c>
       <c r="C40" s="13">
-        <v>1.7631943071753107</v>
+        <v>1.7631943071753451</v>
       </c>
       <c r="D40" s="13">
-        <v>2.7055212309629471</v>
+        <v>2.7055212309629697</v>
       </c>
       <c r="E40" s="13">
-        <v>3.7411949904851172</v>
+        <v>3.7411949904851136</v>
       </c>
       <c r="F40" s="13">
-        <v>-1.9276896975370059</v>
+        <v>-1.9276896975370104</v>
       </c>
       <c r="G40" s="13">
-        <v>-5.222213589215646</v>
+        <v>-5.2222135892156505</v>
       </c>
       <c r="H40" s="13">
-        <v>-0.35155277123206757</v>
+        <v>-0.35155277123206302</v>
       </c>
       <c r="I40" s="13">
-        <v>-3.6619799469862797</v>
+        <v>-3.6619799469862704</v>
       </c>
       <c r="J40" s="13">
-        <v>6.4883029598035247</v>
+        <v>6.4883029598035318</v>
       </c>
       <c r="K40" s="13">
-        <v>0.24593439699958483</v>
+        <v>0.24593439699960365</v>
       </c>
       <c r="L40" s="13">
-        <v>-10.796235592682658</v>
+        <v>-10.796235592682672</v>
       </c>
       <c r="M40" s="13">
-        <v>-8.5404392339823154</v>
+        <v>-8.5404392339823296</v>
       </c>
       <c r="N40" s="13">
-        <v>-17.829833717684181</v>
+        <v>-17.829833717684174</v>
       </c>
       <c r="O40" s="13">
-        <v>-11.746245923926926</v>
+        <v>-11.746245923926935</v>
       </c>
       <c r="P40" s="13">
-        <v>-5.244838139574985</v>
+        <v>-5.2448381395749886</v>
       </c>
       <c r="Q40" s="13">
-        <v>-1.0910795256365531</v>
+        <v>-1.09107952563656</v>
       </c>
       <c r="R40" s="13">
-        <v>5.4959663674582444</v>
+        <v>5.4959663674582258</v>
       </c>
       <c r="S40" s="13">
-        <v>6.1121664195700571</v>
+        <v>6.1121664195700491</v>
       </c>
       <c r="T40" s="13">
-        <v>10.149097567355469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10.149097567355483</v>
+      </c>
+      <c r="U40" s="13">
+        <v>9.2216479508061298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="13">
-        <v>-0.51251371024031367</v>
+        <v>-0.5125137102403029</v>
       </c>
       <c r="C41" s="13">
-        <v>2.1242095021890708</v>
+        <v>2.124209502189085</v>
       </c>
       <c r="D41" s="13">
-        <v>2.5847444867149219</v>
+        <v>2.5847444867149179</v>
       </c>
       <c r="E41" s="13">
-        <v>4.2201109274712678</v>
+        <v>4.2201109274712723</v>
       </c>
       <c r="F41" s="13">
-        <v>1.4241901860166861</v>
+        <v>1.4241901860166855</v>
       </c>
       <c r="G41" s="13">
-        <v>-4.0191330581136846</v>
+        <v>-4.0191330581136944</v>
       </c>
       <c r="H41" s="13">
-        <v>4.7554746668232353</v>
+        <v>4.7554746668232406</v>
       </c>
       <c r="I41" s="13">
-        <v>0.46115678357737094</v>
+        <v>0.46115678357736872</v>
       </c>
       <c r="J41" s="13">
-        <v>7.5693943496348748</v>
+        <v>7.5693943496348721</v>
       </c>
       <c r="K41" s="13">
-        <v>4.7716040447486483</v>
+        <v>4.7716040447486545</v>
       </c>
       <c r="L41" s="13">
         <v>-9.2688075622559829</v>
       </c>
       <c r="M41" s="13">
-        <v>-4.884804230139741</v>
+        <v>-4.8848042301397436</v>
       </c>
       <c r="N41" s="13">
-        <v>-12.122325619849905</v>
+        <v>-12.122325619849903</v>
       </c>
       <c r="O41" s="13">
-        <v>-5.7454136362290642</v>
+        <v>-5.7454136362290749</v>
       </c>
       <c r="P41" s="13">
-        <v>4.4268286405521252E-2</v>
+        <v>4.4268286405507853E-2</v>
       </c>
       <c r="Q41" s="13">
-        <v>3.3223031105228222</v>
+        <v>3.3223031105228364</v>
       </c>
       <c r="R41" s="13">
-        <v>7.3258694765891983</v>
+        <v>7.3258694765892045</v>
       </c>
       <c r="S41" s="13">
-        <v>6.3018919286783737</v>
+        <v>6.3018919286783719</v>
       </c>
       <c r="T41" s="13">
-        <v>10.36036963098643</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10.360369630986446</v>
+      </c>
+      <c r="U41" s="13">
+        <v>7.398647982814011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="13">
-        <v>1.4374211200709248</v>
+        <v>1.4374211200709037</v>
       </c>
       <c r="C42" s="13">
-        <v>3.1585707613264686</v>
+        <v>3.1585707613264784</v>
       </c>
       <c r="D42" s="13">
-        <v>3.101551739084353</v>
+        <v>3.1015517390843614</v>
       </c>
       <c r="E42" s="13">
-        <v>3.867408661988855</v>
+        <v>3.8674086619888648</v>
       </c>
       <c r="F42" s="13">
-        <v>0.66198748207314795</v>
+        <v>0.66198748207316038</v>
       </c>
       <c r="G42" s="13">
-        <v>-0.16695908087610289</v>
+        <v>-0.16695908087611455</v>
       </c>
       <c r="H42" s="13">
-        <v>6.163174170162276</v>
+        <v>6.1631741701622733</v>
       </c>
       <c r="I42" s="13">
-        <v>1.2970434490919696</v>
+        <v>1.2970434490919773</v>
       </c>
       <c r="J42" s="13">
-        <v>8.3794086011359994</v>
+        <v>8.3794086011359958</v>
       </c>
       <c r="K42" s="13">
-        <v>5.3572947078999027</v>
+        <v>5.3572947078998885</v>
       </c>
       <c r="L42" s="13">
-        <v>-7.1623429194973474</v>
+        <v>-7.1623429194973438</v>
       </c>
       <c r="M42" s="13">
-        <v>-3.5441943465822732</v>
+        <v>-3.5441943465822923</v>
       </c>
       <c r="N42" s="13">
-        <v>-9.9306154073841935</v>
+        <v>-9.9306154073842112</v>
       </c>
       <c r="O42" s="13">
-        <v>-9.0335135910750211</v>
+        <v>-9.0335135910750086</v>
       </c>
       <c r="P42" s="13">
-        <v>-2.884442211626876</v>
+        <v>-2.8844422116268724</v>
       </c>
       <c r="Q42" s="13">
-        <v>1.7776082395575146</v>
+        <v>1.7776082395575088</v>
       </c>
       <c r="R42" s="13">
-        <v>5.4069205490044521</v>
+        <v>5.4069205490044636</v>
       </c>
       <c r="S42" s="13">
-        <v>6.3174083640594008</v>
+        <v>6.3174083640593901</v>
       </c>
       <c r="T42" s="13">
         <v>10.867316063794496</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U42" s="13">
+        <v>9.1216596079607282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="13">
-        <v>1.082014825501364</v>
+        <v>1.0820148255013764</v>
       </c>
       <c r="C43" s="13">
-        <v>3.1729745797654663</v>
+        <v>3.1729745797654516</v>
       </c>
       <c r="D43" s="13">
-        <v>3.3981724588991278</v>
+        <v>3.3981724588991393</v>
       </c>
       <c r="E43" s="13">
-        <v>6.4330260947155606</v>
+        <v>6.433026094715558</v>
       </c>
       <c r="F43" s="13">
-        <v>0.8347496220621955</v>
+        <v>0.83474962206218506</v>
       </c>
       <c r="G43" s="13">
-        <v>-5.7046730361723705</v>
+        <v>-5.704673036172359</v>
       </c>
       <c r="H43" s="13">
-        <v>1.9431348635710179</v>
+        <v>1.9431348635709969</v>
       </c>
       <c r="I43" s="13">
-        <v>-2.1502978844850378</v>
+        <v>-2.1502978844850298</v>
       </c>
       <c r="J43" s="13">
-        <v>6.1105523894662328</v>
+        <v>6.1105523894662284</v>
       </c>
       <c r="K43" s="13">
-        <v>6.0626071872104781</v>
+        <v>6.0626071872104612</v>
       </c>
       <c r="L43" s="13">
-        <v>-6.9994375451972743</v>
+        <v>-6.999437545197269</v>
       </c>
       <c r="M43" s="13">
-        <v>-3.8573368698331074</v>
+        <v>-3.8573368698331176</v>
       </c>
       <c r="N43" s="13">
-        <v>-7.8034225537516457</v>
+        <v>-7.8034225537516466</v>
       </c>
       <c r="O43" s="13">
-        <v>-2.8529212240611841</v>
+        <v>-2.852921224061181</v>
       </c>
       <c r="P43" s="13">
-        <v>2.6111415104301758</v>
+        <v>2.6111415104301727</v>
       </c>
       <c r="Q43" s="13">
-        <v>5.5611911149875235</v>
+        <v>5.561191114987551</v>
       </c>
       <c r="R43" s="13">
-        <v>6.0814026537722112</v>
+        <v>6.0814026537722032</v>
       </c>
       <c r="S43" s="13">
-        <v>5.2315403820583786</v>
+        <v>5.2315403820583732</v>
       </c>
       <c r="T43" s="13">
-        <v>8.4059164179662993</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+        <v>8.4059164179663011</v>
+      </c>
+      <c r="U43" s="13">
+        <v>5.9804036031505055</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="13">
-        <v>0.98060767091341383</v>
+        <v>0.98060767091340795</v>
       </c>
       <c r="C44" s="13">
         <v>3.001883458573618</v>
       </c>
       <c r="D44" s="13">
-        <v>2.9780040305250179</v>
+        <v>2.9780040305250268</v>
       </c>
       <c r="E44" s="13">
-        <v>4.7225467289719578</v>
+        <v>4.7225467289719552</v>
       </c>
       <c r="F44" s="13">
-        <v>1.2020254602243146</v>
+        <v>1.2020254602243059</v>
       </c>
       <c r="G44" s="13">
-        <v>-9.976058966576808</v>
+        <v>-9.9760589665768009</v>
       </c>
       <c r="H44" s="13">
-        <v>1.9708956677394547</v>
+        <v>1.9708956677394478</v>
       </c>
       <c r="I44" s="13">
-        <v>-0.6256333026559302</v>
+        <v>-0.6256333026559211</v>
       </c>
       <c r="J44" s="13">
-        <v>4.1963993453355126</v>
+        <v>4.1963993453355259</v>
       </c>
       <c r="K44" s="13">
-        <v>8.94670715108367</v>
+        <v>8.9467071510836647</v>
       </c>
       <c r="L44" s="13">
         <v>-9.762242596230811</v>
       </c>
       <c r="M44" s="13">
-        <v>-5.4322812400606102</v>
+        <v>-5.4322812400606217</v>
       </c>
       <c r="N44" s="13">
-        <v>-11.569669335439631</v>
+        <v>-11.569669335439629</v>
       </c>
       <c r="O44" s="13">
-        <v>-4.2583249243188899</v>
+        <v>-4.2583249243188748</v>
       </c>
       <c r="P44" s="13">
-        <v>2.2578141536724683</v>
+        <v>2.2578141536724639</v>
       </c>
       <c r="Q44" s="13">
-        <v>2.6629472455510412</v>
+        <v>2.662947245551055</v>
       </c>
       <c r="R44" s="13">
-        <v>9.5481212318060962</v>
+        <v>9.5481212318060873</v>
       </c>
       <c r="S44" s="13">
-        <v>7.847506624909669</v>
+        <v>7.8475066249096397</v>
       </c>
       <c r="T44" s="13">
-        <v>11.83527022897754</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+        <v>11.835270228977556</v>
+      </c>
+      <c r="U44" s="13">
+        <v>11.187766782613718</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="13">
-        <v>3.3313364659190827</v>
+        <v>3.3313364659190778</v>
       </c>
       <c r="C45" s="13">
-        <v>4.5064336653729065</v>
+        <v>4.5064336653729233</v>
       </c>
       <c r="D45" s="13">
-        <v>4.4140329229647559</v>
+        <v>4.4140329229647461</v>
       </c>
       <c r="E45" s="13">
-        <v>6.2025677603423546</v>
+        <v>6.202567760342351</v>
       </c>
       <c r="F45" s="13">
-        <v>3.5735961519299044</v>
+        <v>3.5735961519299195</v>
       </c>
       <c r="G45" s="13">
-        <v>-7.843029637760691</v>
+        <v>-7.8430296377606989</v>
       </c>
       <c r="H45" s="13">
-        <v>4.2417568644302772</v>
+        <v>4.2417568644303101</v>
       </c>
       <c r="I45" s="13">
-        <v>3.2693960885450171</v>
+        <v>3.2693960885450135</v>
       </c>
       <c r="J45" s="13">
-        <v>1.2760412111459081</v>
+        <v>1.276041211145911</v>
       </c>
       <c r="K45" s="13">
-        <v>7.5516645822166506</v>
+        <v>7.5516645822166737</v>
       </c>
       <c r="L45" s="13">
-        <v>-11.944656767178804</v>
+        <v>-11.944656767178834</v>
       </c>
       <c r="M45" s="13">
-        <v>-9.2063161728362761</v>
+        <v>-9.2063161728362726</v>
       </c>
       <c r="N45" s="13">
-        <v>-13.892415174831823</v>
+        <v>-13.892415174831831</v>
       </c>
       <c r="O45" s="13">
-        <v>-6.374476253760812</v>
+        <v>-6.3744762537608333</v>
       </c>
       <c r="P45" s="13">
-        <v>0.66030098801315285</v>
+        <v>0.66030098801315174</v>
       </c>
       <c r="Q45" s="13">
-        <v>3.2643783546310501</v>
+        <v>3.2643783546310496</v>
       </c>
       <c r="R45" s="13">
-        <v>8.5979340086250371</v>
+        <v>8.5979340086250335</v>
       </c>
       <c r="S45" s="13">
-        <v>5.1662444429110925</v>
+        <v>5.1662444429110854</v>
       </c>
       <c r="T45" s="13">
-        <v>9.4694106931767408</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9.4694106931767585</v>
+      </c>
+      <c r="U45" s="13">
+        <v>7.0779845362731715</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="13">
-        <v>2.1389163955297841</v>
+        <v>2.138916395529765</v>
       </c>
       <c r="C46" s="13">
-        <v>1.7433574024257932</v>
+        <v>1.7433574024257801</v>
       </c>
       <c r="D46" s="13">
-        <v>2.4502923433012138</v>
+        <v>2.4502923433012036</v>
       </c>
       <c r="E46" s="13">
-        <v>3.7497088011927624</v>
+        <v>3.7497088011927633</v>
       </c>
       <c r="F46" s="13">
-        <v>0.5004478176966578</v>
+        <v>0.50044781769665991</v>
       </c>
       <c r="G46" s="13">
-        <v>1.1800504675671635</v>
+        <v>1.1800504675671675</v>
       </c>
       <c r="H46" s="13">
-        <v>6.9627546159778388</v>
+        <v>6.9627546159778664</v>
       </c>
       <c r="I46" s="13">
-        <v>2.3397012726897133</v>
+        <v>2.3397012726896995</v>
       </c>
       <c r="J46" s="13">
-        <v>8.383481096972746</v>
+        <v>8.3834810969727549</v>
       </c>
       <c r="K46" s="13">
-        <v>2.6369837893347157</v>
+        <v>2.6369837893346948</v>
       </c>
       <c r="L46" s="13">
         <v>-9.8711499800659954</v>
       </c>
       <c r="M46" s="13">
-        <v>-6.2249877132626628</v>
+        <v>-6.2249877132626459</v>
       </c>
       <c r="N46" s="13">
-        <v>-10.587437484106115</v>
+        <v>-10.587437484106131</v>
       </c>
       <c r="O46" s="13">
-        <v>-6.2989101304270267</v>
+        <v>-6.2989101304270063</v>
       </c>
       <c r="P46" s="13">
-        <v>1.9284342882957684</v>
+        <v>1.9284342882957455</v>
       </c>
       <c r="Q46" s="13">
-        <v>5.7641014122469674</v>
+        <v>5.764101412246962</v>
       </c>
       <c r="R46" s="13">
-        <v>11.965301478953347</v>
+        <v>11.965301478953364</v>
       </c>
       <c r="S46" s="13">
-        <v>11.822974763797939</v>
+        <v>11.822974763797937</v>
       </c>
       <c r="T46" s="13">
-        <v>15.078346460328152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+        <v>15.078346460328159</v>
+      </c>
+      <c r="U46" s="13">
+        <v>12.283868684187231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="13">
-        <v>-0.42384105960265567</v>
+        <v>-0.42384105960266727</v>
       </c>
       <c r="C47" s="13">
-        <v>1.1752774131965251</v>
+        <v>1.1752774131965165</v>
       </c>
       <c r="D47" s="13">
-        <v>1.1241350922241677</v>
+        <v>1.1241350922241564</v>
       </c>
       <c r="E47" s="13">
-        <v>3.2640655783148049</v>
+        <v>3.2640655783148032</v>
       </c>
       <c r="F47" s="13">
-        <v>-2.337106992600464</v>
+        <v>-2.3371069926004693</v>
       </c>
       <c r="G47" s="13">
-        <v>-5.1280539339976912</v>
+        <v>-5.1280539339976929</v>
       </c>
       <c r="H47" s="13">
-        <v>1.0738411141586077</v>
+        <v>1.0738411141586182</v>
       </c>
       <c r="I47" s="13">
-        <v>-0.35280808390695989</v>
+        <v>-0.35280808390696539</v>
       </c>
       <c r="J47" s="13">
-        <v>11.13790215998629</v>
+        <v>11.137902159986297</v>
       </c>
       <c r="K47" s="13">
-        <v>5.5813375321123839</v>
+        <v>5.5813375321123928</v>
       </c>
       <c r="L47" s="13">
-        <v>-6.5376022399294218</v>
+        <v>-6.5376022399294191</v>
       </c>
       <c r="M47" s="13">
         <v>-6.6106717466181806</v>
@@ -7383,355 +7675,373 @@
         <v>-12.415464638120584</v>
       </c>
       <c r="O47" s="13">
-        <v>-6.7481652996350157</v>
+        <v>-6.7481652996350272</v>
       </c>
       <c r="P47" s="13">
-        <v>-0.10669840260178867</v>
+        <v>-0.10669840260180304</v>
       </c>
       <c r="Q47" s="13">
-        <v>4.919282557408784</v>
+        <v>4.9192825574088062</v>
       </c>
       <c r="R47" s="13">
-        <v>7.9598689938228224</v>
+        <v>7.9598689938228189</v>
       </c>
       <c r="S47" s="13">
-        <v>8.7662815899669386</v>
+        <v>8.7662815899669582</v>
       </c>
       <c r="T47" s="13">
-        <v>12.111906498094823</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+        <v>12.111906498094829</v>
+      </c>
+      <c r="U47" s="13">
+        <v>9.2073996975707377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="13">
-        <v>3.7355660413549634</v>
+        <v>3.7355660413549563</v>
       </c>
       <c r="C48" s="13">
-        <v>3.8646924697664971</v>
+        <v>3.8646924697664873</v>
       </c>
       <c r="D48" s="13">
-        <v>1.3611387450375134</v>
+        <v>1.3611387450375008</v>
       </c>
       <c r="E48" s="13">
-        <v>3.1455902010788699</v>
+        <v>3.1455902010788845</v>
       </c>
       <c r="F48" s="13">
-        <v>0.56951083087562093</v>
+        <v>0.56951083087563414</v>
       </c>
       <c r="G48" s="13">
-        <v>-4.1738453843161327</v>
+        <v>-4.1738453843161043</v>
       </c>
       <c r="H48" s="13">
-        <v>4.6413076379780129</v>
+        <v>4.6413076379780076</v>
       </c>
       <c r="I48" s="13">
-        <v>3.144330370683559</v>
+        <v>3.1443303706835386</v>
       </c>
       <c r="J48" s="13">
-        <v>9.9063238308864854</v>
+        <v>9.9063238308864729</v>
       </c>
       <c r="K48" s="13">
-        <v>9.9495418164946141</v>
+        <v>9.9495418164946052</v>
       </c>
       <c r="L48" s="13">
-        <v>-4.5984870399102444</v>
+        <v>-4.598487039910248</v>
       </c>
       <c r="M48" s="13">
-        <v>-0.64070575654963491</v>
+        <v>-0.64070575654963424</v>
       </c>
       <c r="N48" s="13">
-        <v>-11.225795658901776</v>
+        <v>-11.225795658901752</v>
       </c>
       <c r="O48" s="13">
-        <v>-5.1465998505428781</v>
+        <v>-5.1465998505428852</v>
       </c>
       <c r="P48" s="13">
-        <v>-2.4808195892871275E-2</v>
+        <v>-2.4808195892851884E-2</v>
       </c>
       <c r="Q48" s="13">
-        <v>1.6905677975982312</v>
+        <v>1.690567797598223</v>
       </c>
       <c r="R48" s="13">
-        <v>11.131211487365032</v>
+        <v>11.131211487365025</v>
       </c>
       <c r="S48" s="13">
-        <v>8.1712098321454043</v>
+        <v>8.1712098321453848</v>
       </c>
       <c r="T48" s="13">
-        <v>14.170833026983315</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+        <v>14.170833026983297</v>
+      </c>
+      <c r="U48" s="13">
+        <v>11.724551531935175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="13">
-        <v>1.1753806959643198</v>
+        <v>1.1753806959643234</v>
       </c>
       <c r="C49" s="13">
-        <v>1.2281942251624778</v>
+        <v>1.2281942251624764</v>
       </c>
       <c r="D49" s="13">
-        <v>1.4325469307347245</v>
+        <v>1.4325469307347256</v>
       </c>
       <c r="E49" s="13">
-        <v>2.1822936194348999</v>
+        <v>2.1822936194349238</v>
       </c>
       <c r="F49" s="13">
-        <v>-0.70008774941818441</v>
+        <v>-0.70008774941817387</v>
       </c>
       <c r="G49" s="13">
-        <v>-3.7680965275717884</v>
+        <v>-3.7680965275717919</v>
       </c>
       <c r="H49" s="13">
-        <v>2.4710796006297975</v>
+        <v>2.4710796006297846</v>
       </c>
       <c r="I49" s="13">
-        <v>0.45065811137559686</v>
+        <v>0.45065811137557604</v>
       </c>
       <c r="J49" s="13">
-        <v>8.5419268081836659</v>
+        <v>8.5419268081836535</v>
       </c>
       <c r="K49" s="13">
-        <v>8.7371110956438862</v>
+        <v>8.7371110956438933</v>
       </c>
       <c r="L49" s="13">
-        <v>-1.6091932872074366</v>
+        <v>-1.6091932872074128</v>
       </c>
       <c r="M49" s="13">
-        <v>-0.78113292372247911</v>
+        <v>-0.78113292372245924</v>
       </c>
       <c r="N49" s="13">
-        <v>-6.4883233188499316</v>
+        <v>-6.4883233188499414</v>
       </c>
       <c r="O49" s="13">
-        <v>-3.2325024232338033</v>
+        <v>-3.2325024232338082</v>
       </c>
       <c r="P49" s="13">
-        <v>0.62839562741378108</v>
+        <v>0.62839562741375043</v>
       </c>
       <c r="Q49" s="13">
-        <v>6.4502426038854468</v>
+        <v>6.4502426038854415</v>
       </c>
       <c r="R49" s="13">
-        <v>8.6069025560465917</v>
+        <v>8.6069025560466006</v>
       </c>
       <c r="S49" s="13">
-        <v>8.0634644642469091</v>
+        <v>8.0634644642469055</v>
       </c>
       <c r="T49" s="13">
-        <v>12.221798886730905</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+        <v>12.221798886730927</v>
+      </c>
+      <c r="U49" s="13">
+        <v>9.5967791995885268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="13">
-        <v>6.6971521185459668</v>
+        <v>6.6971521185459499</v>
       </c>
       <c r="C50" s="13">
-        <v>0.92714230358475314</v>
+        <v>0.92714230358475647</v>
       </c>
       <c r="D50" s="13">
-        <v>4.898242064941507</v>
+        <v>4.8982420649415106</v>
       </c>
       <c r="E50" s="13">
-        <v>3.3236447520184704</v>
+        <v>3.3236447520184482</v>
       </c>
       <c r="F50" s="13">
-        <v>-2.4304236966310397</v>
+        <v>-2.4304236966310522</v>
       </c>
       <c r="G50" s="13">
-        <v>1.7820020601179882</v>
+        <v>1.78200206011798</v>
       </c>
       <c r="H50" s="13">
-        <v>6.1007294447470226</v>
+        <v>6.100729444747012</v>
       </c>
       <c r="I50" s="13">
-        <v>7.4417067790706888</v>
+        <v>7.4417067790707083</v>
       </c>
       <c r="J50" s="13">
-        <v>15.371142618849046</v>
+        <v>15.371142618849047</v>
       </c>
       <c r="K50" s="13">
-        <v>7.2138960190628731</v>
+        <v>7.2138960190628882</v>
       </c>
       <c r="L50" s="13">
-        <v>-5.5429331179103958</v>
+        <v>-5.5429331179104011</v>
       </c>
       <c r="M50" s="13">
-        <v>-4.8973485163327881</v>
+        <v>-4.8973485163328077</v>
       </c>
       <c r="N50" s="13">
-        <v>-9.5970184020498461</v>
+        <v>-9.5970184020498408</v>
       </c>
       <c r="O50" s="13">
-        <v>-0.92333567885768675</v>
+        <v>-0.92333567885768097</v>
       </c>
       <c r="P50" s="13">
-        <v>5.7844613315040627</v>
+        <v>5.7844613315040885</v>
       </c>
       <c r="Q50" s="13">
-        <v>6.4867415966019237</v>
+        <v>6.4867415966019308</v>
       </c>
       <c r="R50" s="13">
-        <v>10.854827675057075</v>
+        <v>10.854827675057093</v>
       </c>
       <c r="S50" s="13">
-        <v>6.7011380761835442</v>
+        <v>6.7011380761835522</v>
       </c>
       <c r="T50" s="13">
-        <v>9.5416954405349426</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9.5416954405349355</v>
+      </c>
+      <c r="U50" s="13">
+        <v>9.6790873276428151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="13">
-        <v>0.1593556238048337</v>
+        <v>0.15935562380482315</v>
       </c>
       <c r="C51" s="13">
-        <v>1.0279756935681112</v>
+        <v>1.0279756935681144</v>
       </c>
       <c r="D51" s="13">
-        <v>0.69508045001881791</v>
+        <v>0.6950804500187957</v>
       </c>
       <c r="E51" s="13">
-        <v>1.3148950220443918</v>
+        <v>1.314895022044392</v>
       </c>
       <c r="F51" s="13">
-        <v>-2.7548767199899791</v>
+        <v>-2.7548767199899671</v>
       </c>
       <c r="G51" s="13">
-        <v>-9.1845460572460755</v>
+        <v>-9.1845460572460773</v>
       </c>
       <c r="H51" s="13">
-        <v>0.28817616084250197</v>
+        <v>0.28817616084250486</v>
       </c>
       <c r="I51" s="13">
-        <v>1.6524806379878876</v>
+        <v>1.6524806379878922</v>
       </c>
       <c r="J51" s="13">
-        <v>5.5369360436291615</v>
+        <v>5.5369360436291393</v>
       </c>
       <c r="K51" s="13">
-        <v>5.3799276328318246</v>
+        <v>5.3799276328318344</v>
       </c>
       <c r="L51" s="13">
-        <v>-8.628079922864698</v>
+        <v>-8.6280799228646927</v>
       </c>
       <c r="M51" s="13">
-        <v>-9.6169803492626293</v>
+        <v>-9.6169803492626347</v>
       </c>
       <c r="N51" s="13">
-        <v>-12.011199428753958</v>
+        <v>-12.011199428753951</v>
       </c>
       <c r="O51" s="13">
-        <v>-4.0440548979448199</v>
+        <v>-4.044054897944827</v>
       </c>
       <c r="P51" s="13">
-        <v>2.2024176444161205</v>
+        <v>2.2024176444161165</v>
       </c>
       <c r="Q51" s="13">
-        <v>4.9794998591593416</v>
+        <v>4.9794998591593496</v>
       </c>
       <c r="R51" s="13">
-        <v>10.342765616657761</v>
+        <v>10.342765616657768</v>
       </c>
       <c r="S51" s="13">
-        <v>6.7444415380591121</v>
+        <v>6.7444415380590996</v>
       </c>
       <c r="T51" s="13">
-        <v>10.113370339702104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10.113370339702101</v>
+      </c>
+      <c r="U51" s="13">
+        <v>9.4309621767733915</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="13">
-        <v>3.4455801590868904</v>
+        <v>3.4455801590869162</v>
       </c>
       <c r="C52" s="13">
-        <v>6.1403941615924484</v>
+        <v>6.1403941615924529</v>
       </c>
       <c r="D52" s="13">
-        <v>4.6672712188157197</v>
+        <v>4.6672712188157215</v>
       </c>
       <c r="E52" s="13">
-        <v>6.1348085601979987</v>
+        <v>6.1348085601979845</v>
       </c>
       <c r="F52" s="13">
-        <v>2.2860381636123326</v>
+        <v>2.2860381636123175</v>
       </c>
       <c r="G52" s="13">
-        <v>-3.6373441437085892</v>
+        <v>-3.6373441437085634</v>
       </c>
       <c r="H52" s="13">
-        <v>4.6121516000589775</v>
+        <v>4.6121516000589988</v>
       </c>
       <c r="I52" s="13">
-        <v>0.91444456637038407</v>
+        <v>0.9144445663704075</v>
       </c>
       <c r="J52" s="13">
-        <v>6.1664203915773763</v>
+        <v>6.1664203915773932</v>
       </c>
       <c r="K52" s="13">
-        <v>5.2113586584201199</v>
+        <v>5.2113586584200799</v>
       </c>
       <c r="L52" s="13">
-        <v>-7.7039647577092429</v>
+        <v>-7.7039647577092527</v>
       </c>
       <c r="M52" s="13">
-        <v>-3.8647649425495612</v>
+        <v>-3.8647649425495829</v>
       </c>
       <c r="N52" s="13">
-        <v>-10.576998355906978</v>
+        <v>-10.576998355906987</v>
       </c>
       <c r="O52" s="13">
-        <v>-6.1922230374174809</v>
+        <v>-6.1922230374174534</v>
       </c>
       <c r="P52" s="13">
-        <v>0.12887089999618331</v>
+        <v>0.12887089999619838</v>
       </c>
       <c r="Q52" s="13">
-        <v>2.1924574186311734</v>
+        <v>2.1924574186311845</v>
       </c>
       <c r="R52" s="13">
-        <v>8.9700188719624769</v>
+        <v>8.9700188719624823</v>
       </c>
       <c r="S52" s="13">
-        <v>8.3871030814954022</v>
+        <v>8.3871030814953844</v>
       </c>
       <c r="T52" s="13">
-        <v>10.774994994804125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10.774994994804114</v>
+      </c>
+      <c r="U52" s="13">
+        <v>9.3518544139756692</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="13">
-        <v>2.5600087584048894</v>
+        <v>2.5600087584049129</v>
       </c>
       <c r="C53" s="13">
-        <v>4.2940758656033289</v>
+        <v>4.2940758656033369</v>
       </c>
       <c r="D53" s="13">
-        <v>5.7024355806565525</v>
+        <v>5.7024355806565676</v>
       </c>
       <c r="E53" s="13">
-        <v>13.82396028702329</v>
+        <v>13.823960287023272</v>
       </c>
       <c r="F53" s="13">
-        <v>9.7451407730284885</v>
+        <v>9.7451407730284956</v>
       </c>
       <c r="G53" s="13">
-        <v>6.0552246140052963</v>
+        <v>6.0552246140052901</v>
       </c>
       <c r="H53" s="13">
         <v>10.56168706483445</v>
@@ -7740,223 +8050,235 @@
         <v>5.2785611227702205</v>
       </c>
       <c r="J53" s="13">
-        <v>5.1916997649347696</v>
+        <v>5.1916997649347616</v>
       </c>
       <c r="K53" s="13">
-        <v>1.4924038594409328</v>
+        <v>1.4924038594409039</v>
       </c>
       <c r="L53" s="13">
-        <v>-9.9257737875001109</v>
+        <v>-9.9257737875000984</v>
       </c>
       <c r="M53" s="13">
-        <v>0.71871860959485645</v>
+        <v>0.71871860959485478</v>
       </c>
       <c r="N53" s="13">
         <v>-48.23579271816606</v>
       </c>
       <c r="O53" s="13">
-        <v>-41.876837072217455</v>
+        <v>-41.876837072217448</v>
       </c>
       <c r="P53" s="13">
-        <v>-33.862584669036259</v>
+        <v>-33.862584669036266</v>
       </c>
       <c r="Q53" s="13">
-        <v>-36.982202773955144</v>
+        <v>-36.982202773955123</v>
       </c>
       <c r="R53" s="13">
-        <v>24.55453503431232</v>
+        <v>24.554535034312298</v>
       </c>
       <c r="S53" s="13">
-        <v>14.201069282919008</v>
+        <v>14.201069282919025</v>
       </c>
       <c r="T53" s="13">
-        <v>9.552057190660884</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9.5520571906608875</v>
+      </c>
+      <c r="U53" s="13">
+        <v>7.9388058053514214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="13">
-        <v>-1.3484616210832721</v>
+        <v>-1.3484616210832543</v>
       </c>
       <c r="C54" s="13">
-        <v>0.28571428571428353</v>
+        <v>0.2857142857142802</v>
       </c>
       <c r="D54" s="13">
-        <v>0.84158953742210263</v>
+        <v>0.84158953742210318</v>
       </c>
       <c r="E54" s="13">
-        <v>1.359256195876372</v>
+        <v>1.3592561958763858</v>
       </c>
       <c r="F54" s="13">
-        <v>-1.8350621585240237</v>
+        <v>-1.8350621585240297</v>
       </c>
       <c r="G54" s="13">
-        <v>-2.082344096232978</v>
+        <v>-2.0823440962329629</v>
       </c>
       <c r="H54" s="13">
-        <v>2.681973572079265</v>
+        <v>2.6819735720792615</v>
       </c>
       <c r="I54" s="13">
-        <v>-1.9908959523364678</v>
+        <v>-1.9908959523364651</v>
       </c>
       <c r="J54" s="13">
-        <v>7.6387908608764228</v>
+        <v>7.6387908608764103</v>
       </c>
       <c r="K54" s="13">
-        <v>-2.4155663093662549</v>
+        <v>-2.4155663093662656</v>
       </c>
       <c r="L54" s="13">
-        <v>-11.430261287645354</v>
+        <v>-11.430261287645369</v>
       </c>
       <c r="M54" s="13">
-        <v>-6.2685579006500376</v>
+        <v>-6.268557900650042</v>
       </c>
       <c r="N54" s="13">
-        <v>-13.827116548326078</v>
+        <v>-13.827116548326066</v>
       </c>
       <c r="O54" s="13">
-        <v>-5.7251118105019083</v>
+        <v>-5.7251118105019128</v>
       </c>
       <c r="P54" s="13">
-        <v>-0.66562550487370653</v>
+        <v>-0.6656255048736951</v>
       </c>
       <c r="Q54" s="13">
-        <v>2.4379541733109527</v>
+        <v>2.4379541733109367</v>
       </c>
       <c r="R54" s="13">
-        <v>8.4071614144554676</v>
+        <v>8.4071614144554427</v>
       </c>
       <c r="S54" s="13">
-        <v>8.5601019085897505</v>
+        <v>8.5601019085897683</v>
       </c>
       <c r="T54" s="13">
-        <v>12.93222158370107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+        <v>12.932221583701075</v>
+      </c>
+      <c r="U54" s="13">
+        <v>10.726412236070912</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="13">
-        <v>-0.21254913378948181</v>
+        <v>-0.21254913378948401</v>
       </c>
       <c r="C55" s="13">
-        <v>1.2680210334322854</v>
+        <v>1.2680210334322981</v>
       </c>
       <c r="D55" s="13">
-        <v>0.94524340017553043</v>
+        <v>0.94524340017554054</v>
       </c>
       <c r="E55" s="13">
-        <v>2.5474249488673224</v>
+        <v>2.5474249488673086</v>
       </c>
       <c r="F55" s="13">
-        <v>0.92495331465918051</v>
+        <v>0.92495331465918762</v>
       </c>
       <c r="G55" s="13">
-        <v>-4.4395052739483285</v>
+        <v>-4.4395052739483303</v>
       </c>
       <c r="H55" s="13">
-        <v>3.310815330078257</v>
+        <v>3.3108153300782597</v>
       </c>
       <c r="I55" s="13">
-        <v>-0.55297709635034631</v>
+        <v>-0.5529770963503442</v>
       </c>
       <c r="J55" s="13">
-        <v>5.9180664373066802</v>
+        <v>5.918066437306658</v>
       </c>
       <c r="K55" s="13">
-        <v>3.3163904678837604</v>
+        <v>3.3163904678837515</v>
       </c>
       <c r="L55" s="13">
-        <v>-9.2478866465659024</v>
+        <v>-9.2478866465659149</v>
       </c>
       <c r="M55" s="13">
         <v>-5.8703876204779188</v>
       </c>
       <c r="N55" s="13">
-        <v>-11.364049932670964</v>
+        <v>-11.36404993267095</v>
       </c>
       <c r="O55" s="13">
-        <v>-5.3291931492892211</v>
+        <v>-5.3291931492892175</v>
       </c>
       <c r="P55" s="13">
-        <v>3.0206985110524496</v>
+        <v>3.0206985110524469</v>
       </c>
       <c r="Q55" s="13">
-        <v>5.6225386246591862</v>
+        <v>5.6225386246591906</v>
       </c>
       <c r="R55" s="13">
-        <v>10.370773368371346</v>
+        <v>10.370773368371347</v>
       </c>
       <c r="S55" s="13">
-        <v>9.0403124135174089</v>
+        <v>9.0403124135174195</v>
       </c>
       <c r="T55" s="13">
-        <v>10.921285625253482</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10.921285625253487</v>
+      </c>
+      <c r="U55" s="13">
+        <v>10.238245473144811</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="13">
-        <v>4.658125609246623</v>
+        <v>4.6581256092466132</v>
       </c>
       <c r="C56" s="13">
-        <v>3.3598425513114045</v>
+        <v>3.3598425513114027</v>
       </c>
       <c r="D56" s="13">
-        <v>3.2450298455922382</v>
+        <v>3.2450298455922173</v>
       </c>
       <c r="E56" s="13">
-        <v>3.8136986301369884</v>
+        <v>3.8136986301369942</v>
       </c>
       <c r="F56" s="13">
-        <v>-4.7881996255357979</v>
+        <v>-4.7881996255357917</v>
       </c>
       <c r="G56" s="13">
-        <v>-4.3901917733693407</v>
+        <v>-4.3901917733693399</v>
       </c>
       <c r="H56" s="13">
-        <v>-2.0498069645655903</v>
+        <v>-2.0498069645655819</v>
       </c>
       <c r="I56" s="13">
-        <v>-4.2148498603686999</v>
+        <v>-4.2148498603687088</v>
       </c>
       <c r="J56" s="13">
-        <v>6.9425727946974929</v>
+        <v>6.9425727946974947</v>
       </c>
       <c r="K56" s="13">
-        <v>1.3717421124828599</v>
+        <v>1.3717421124828513</v>
       </c>
       <c r="L56" s="13">
-        <v>-6.8468960672786938</v>
+        <v>-6.8468960672787116</v>
       </c>
       <c r="M56" s="13">
-        <v>-4.3091442826942963</v>
+        <v>-4.3091442826942989</v>
       </c>
       <c r="N56" s="13">
-        <v>-10.334721003602967</v>
+        <v>-10.334721003602978</v>
       </c>
       <c r="O56" s="13">
-        <v>-4.8864832356036763</v>
+        <v>-4.8864832356036665</v>
       </c>
       <c r="P56" s="13">
-        <v>1.5783244834050594</v>
+        <v>1.5783244834050902</v>
       </c>
       <c r="Q56" s="13">
-        <v>6.2349492199769729</v>
+        <v>6.2349492199769623</v>
       </c>
       <c r="R56" s="13">
-        <v>7.4503966188503279</v>
+        <v>7.4503966188503297</v>
       </c>
       <c r="S56" s="13">
-        <v>7.3179470966382096</v>
+        <v>7.3179470966382256</v>
       </c>
       <c r="T56" s="13">
-        <v>10.996205716171092</v>
+        <v>10.996205716171071</v>
+      </c>
+      <c r="U56" s="13">
+        <v>8.5635440792391453</v>
       </c>
     </row>
   </sheetData>
